--- a/simple-spbc/steady.xlsx
+++ b/simple-spbc/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7393" uniqueCount="5303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7543" uniqueCount="5303">
   <si>
     <t>Row</t>
   </si>
@@ -15942,7 +15942,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -15976,11 +15976,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -16008,6 +16010,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16020,1324 +16024,1290 @@
   <dimension ref="A1:G60"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
-    <col min="3" max="3" width="15.5703125" customWidth="true"/>
+    <col min="1" max="1" width="9.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
-    <col min="5" max="5" width="16.28515625" customWidth="true"/>
-    <col min="6" max="6" width="6.7109375" customWidth="true"/>
-    <col min="7" max="7" width="41.5703125" customWidth="true"/>
+    <col min="5" max="5" width="16.7109375" customWidth="true"/>
+    <col min="6" max="6" width="7.7109375" customWidth="true"/>
+    <col min="7" max="7" width="46.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="27" t="s">
         <v>5176</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="27" t="s">
         <v>5236</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="27" t="s">
         <v>5237</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="27" t="s">
         <v>5238</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="27" t="s">
         <v>5239</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="27" t="s">
         <v>5240</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="27" t="s">
         <v>5246</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="27" t="s">
         <v>5177</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>3.0199999999999783</v>
       </c>
-      <c r="C2" s="0">
-        <v>2.5174634146343253</v>
-      </c>
-      <c r="D2" s="0">
+      <c r="C2">
+        <v>2.5174634146343262</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="0">
-        <v>-1.1847197195174198e-17</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>5241</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="E2">
+        <v>-1.0472971942382604e-16</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>5048</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>5247</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="27" t="s">
         <v>5178</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>3.0199999999999783</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>2.5174634146343244</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="0">
-        <v>2.9407819612755486e-18</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>5241</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="E3">
+        <v>-2.9005377991233062e-17</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>5048</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>5248</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="27" t="s">
         <v>5179</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>2.000000000000024</v>
       </c>
-      <c r="C4" s="0">
-        <v>2.0000000000000129</v>
-      </c>
-      <c r="D4" s="0">
+      <c r="C4">
+        <v>2.0000000000000124</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="0">
-        <v>-1.0321621083814744e-17</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>5241</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="E4">
+        <v>5.3260875473912238e-18</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>5048</v>
+      </c>
+      <c r="G4" s="27" t="s">
         <v>5249</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="27" t="s">
         <v>5180</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>2.4999999999998579</v>
       </c>
-      <c r="C5" s="0">
-        <v>2.0000000000000067</v>
-      </c>
-      <c r="D5" s="0">
+      <c r="C5">
+        <v>2.0000000000000404</v>
+      </c>
+      <c r="D5">
         <v>2.960594732333751e-14</v>
       </c>
-      <c r="E5" s="0">
-        <v>1.0629776554815597e-14</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>5241</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="E5">
+        <v>1.4614062843220118e-17</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>5048</v>
+      </c>
+      <c r="G5" s="27" t="s">
         <v>5250</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="27" t="s">
         <v>5181</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>4.5499999999999652</v>
       </c>
-      <c r="C6" s="0">
-        <v>4.040000000000064</v>
-      </c>
-      <c r="D6" s="0">
+      <c r="C6">
+        <v>4.0400000000000658</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="0">
-        <v>1.0520358363670791e-14</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>5241</v>
-      </c>
-      <c r="G6" s="0" t="s">
+      <c r="E6">
+        <v>2.1894689470238414e-14</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>5048</v>
+      </c>
+      <c r="G6" s="27" t="s">
         <v>5251</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>5182</v>
-      </c>
-      <c r="B7" s="0">
+      <c r="A7" s="27" t="s">
+        <v>5252</v>
+      </c>
+      <c r="B7">
         <v>1.5519465293293773</v>
       </c>
-      <c r="C7" s="0">
-        <v>3.103893058658755</v>
-      </c>
-      <c r="D7" s="0">
+      <c r="C7">
+        <v>3.1038930586587541</v>
+      </c>
+      <c r="D7">
         <v>1.0061922463256356</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>5242</v>
-      </c>
-      <c r="G7" s="0"/>
+      <c r="F7" s="27" t="s">
+        <v>5244</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="27" t="s">
         <v>5183</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>1.5519465293293773</v>
       </c>
-      <c r="C8" s="0">
-        <v>3.103893058658755</v>
-      </c>
-      <c r="D8" s="0">
+      <c r="C8">
+        <v>3.1038930586587541</v>
+      </c>
+      <c r="D8">
         <v>1.0061922463256356</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>5242</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="F8" s="27" t="s">
+        <v>5244</v>
+      </c>
+      <c r="G8" s="27" t="s">
         <v>5252</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="27" t="s">
         <v>5184</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>0.74698177564761814</v>
       </c>
-      <c r="C9" s="0">
-        <v>0.74698177564761825</v>
-      </c>
-      <c r="D9" s="0">
+      <c r="C9">
+        <v>0.74698177564761814</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>5242</v>
-      </c>
-      <c r="G9" s="0" t="s">
+      <c r="F9" s="27" t="s">
+        <v>5244</v>
+      </c>
+      <c r="G9" s="27" t="s">
         <v>5253</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="27" t="s">
         <v>5185</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>1.7313525130113012</v>
       </c>
-      <c r="C10" s="0">
+      <c r="C10">
         <v>3.4627050260226024</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10">
         <v>1.0111859095936382</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10">
         <v>1.0099504938362081</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>5242</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="F10" s="27" t="s">
+        <v>5244</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>5254</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="27" t="s">
         <v>5186</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C11" s="0">
+      <c r="C11">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11">
         <v>1.0049629315732038</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>5242</v>
-      </c>
-      <c r="G11" s="0" t="s">
+      <c r="F11" s="27" t="s">
+        <v>5244</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>5255</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="27" t="s">
         <v>5187</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>1.5519465293293773</v>
       </c>
-      <c r="C12" s="0">
-        <v>3.103893058658755</v>
-      </c>
-      <c r="D12" s="0">
+      <c r="C12">
+        <v>3.1038930586587541</v>
+      </c>
+      <c r="D12">
         <v>1.0061922463256356</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>5242</v>
-      </c>
-      <c r="G12" s="0" t="s">
+      <c r="F12" s="27" t="s">
+        <v>5244</v>
+      </c>
+      <c r="G12" s="27" t="s">
         <v>5256</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="27" t="s">
         <v>5188</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="0">
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13">
         <v>1.0061922463256356</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>5242</v>
-      </c>
-      <c r="G13" s="0" t="s">
+      <c r="F13" s="27" t="s">
+        <v>5244</v>
+      </c>
+      <c r="G13" s="27" t="s">
         <v>5257</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="27" t="s">
         <v>5189</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>1.0061922463256359</v>
       </c>
-      <c r="C14" s="0">
+      <c r="C14">
         <v>1.0049629315732038</v>
       </c>
-      <c r="D14" s="0">
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>5242</v>
-      </c>
-      <c r="G14" s="0" t="s">
+      <c r="F14" s="27" t="s">
+        <v>5244</v>
+      </c>
+      <c r="G14" s="27" t="s">
         <v>5258</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="27" t="s">
         <v>5190</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="0">
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="0">
+      <c r="D15">
         <v>1.0049629315732038</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>5242</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="F15" s="27" t="s">
+        <v>5244</v>
+      </c>
+      <c r="G15" s="27" t="s">
         <v>5259</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="27" t="s">
         <v>5191</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>1.0074659719585326</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16">
         <v>1.0062351010325994</v>
       </c>
-      <c r="D16" s="0">
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>5242</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="F16" s="27" t="s">
+        <v>5244</v>
+      </c>
+      <c r="G16" s="27" t="s">
         <v>5260</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="27" t="s">
         <v>5192</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>1.0024906793143211</v>
       </c>
-      <c r="C17" s="0">
-        <v>1.0012658869490878</v>
-      </c>
-      <c r="D17" s="0">
+      <c r="C17">
+        <v>1.001265886949088</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="0" t="s">
-        <v>5242</v>
-      </c>
-      <c r="G17" s="0" t="s">
+      <c r="F17" s="27" t="s">
+        <v>5244</v>
+      </c>
+      <c r="G17" s="27" t="s">
         <v>5261</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="27" t="s">
         <v>5193</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>1.0074659719585326</v>
       </c>
-      <c r="C18" s="0">
+      <c r="C18">
         <v>1.0062351010325994</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>5242</v>
-      </c>
-      <c r="G18" s="0" t="s">
+      <c r="F18" s="27" t="s">
+        <v>5244</v>
+      </c>
+      <c r="G18" s="27" t="s">
         <v>5262</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="27" t="s">
         <v>5194</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>1.0074659719585326</v>
       </c>
-      <c r="C19" s="0">
+      <c r="C19">
         <v>1.0062351010325994</v>
       </c>
-      <c r="D19" s="0">
+      <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" s="0" t="s">
-        <v>5242</v>
-      </c>
-      <c r="G19" s="0" t="s">
+      <c r="F19" s="27" t="s">
+        <v>5244</v>
+      </c>
+      <c r="G19" s="27" t="s">
         <v>5263</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="27" t="s">
         <v>5195</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" s="0">
-        <v>3.4983671459173163e-24</v>
-      </c>
-      <c r="D20" s="0">
+      <c r="C20">
+        <v>7.9773226406187334e-19</v>
+      </c>
+      <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="0">
-        <v>-6.9234505873394988e-25</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>5243</v>
-      </c>
-      <c r="G20" s="0" t="s">
+      <c r="E20">
+        <v>-3.8621899266967228e-20</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>5048</v>
+      </c>
+      <c r="G20" s="27" t="s">
         <v>5264</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="27" t="s">
         <v>5196</v>
       </c>
-      <c r="B21" s="0">
-        <v>1.5311735582263337</v>
-      </c>
-      <c r="C21" s="0">
-        <v>3.0623471164526799</v>
-      </c>
-      <c r="D21" s="0">
-        <v>1.0111859095936384</v>
-      </c>
-      <c r="E21" s="0">
-        <v>1.0099504938362083</v>
-      </c>
-      <c r="F21" s="0" t="s">
+      <c r="B21">
+        <v>1.531173558226345</v>
+      </c>
+      <c r="C21">
+        <v>3.0623471164526221</v>
+      </c>
+      <c r="D21">
+        <v>1.0111859095936389</v>
+      </c>
+      <c r="E21">
+        <v>1.0099504938362078</v>
+      </c>
+      <c r="F21" s="27" t="s">
         <v>5244</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="27" t="s">
         <v>5265</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="27" t="s">
         <v>5197</v>
       </c>
-      <c r="B22" s="0">
-        <v>1.0111859095936384</v>
-      </c>
-      <c r="C22" s="0">
-        <v>1.0099504938362083</v>
-      </c>
-      <c r="D22" s="0">
+      <c r="B22">
+        <v>1.0111859095936389</v>
+      </c>
+      <c r="C22">
+        <v>1.0099504938362078</v>
+      </c>
+      <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="27" t="s">
         <v>5244</v>
       </c>
-      <c r="G22" s="0"/>
     </row>
     <row r="23">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="27" t="s">
         <v>5198</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>0.051731550977645917</v>
       </c>
-      <c r="C23" s="0">
+      <c r="C23">
         <v>0.10346310195529185</v>
       </c>
-      <c r="D23" s="0">
+      <c r="D23">
         <v>1.011185909593638</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23">
         <v>1.0099504938362078</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="27" t="s">
         <v>5244</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="27" t="s">
         <v>5266</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="27" t="s">
         <v>5199</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B24">
         <v>0.64435209661000203</v>
       </c>
-      <c r="C24" s="0">
-        <v>0.32217604830500091</v>
-      </c>
-      <c r="D24" s="0">
+      <c r="C24">
+        <v>0.32217604830500096</v>
+      </c>
+      <c r="D24">
         <v>0.98893783083060027</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24">
         <v>0.99014754297667418</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="27" t="s">
         <v>5244</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="27" t="s">
         <v>5267</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="27" t="s">
         <v>5200</v>
       </c>
-      <c r="B25" s="0">
+      <c r="B25">
         <v>1.0049629315732038</v>
       </c>
-      <c r="C25" s="0">
+      <c r="C25">
         <v>1.0049629315732038</v>
       </c>
-      <c r="D25" s="0">
+      <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="27" t="s">
         <v>5244</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="27" t="s">
         <v>5268</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="27" t="s">
         <v>5201</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B26">
         <v>1.0200000000000002</v>
       </c>
-      <c r="C26" s="0">
-        <v>1.02</v>
-      </c>
-      <c r="D26" s="0">
+      <c r="C26">
+        <v>1.0200000000000002</v>
+      </c>
+      <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="27" t="s">
         <v>5244</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="27" t="s">
         <v>5269</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="27" t="s">
         <v>5202</v>
       </c>
-      <c r="B27" s="0">
+      <c r="B27">
         <v>1.0111859095936382</v>
       </c>
-      <c r="C27" s="0">
-        <v>1.0099504938362078</v>
-      </c>
-      <c r="D27" s="0">
+      <c r="C27">
+        <v>1.0099504938362081</v>
+      </c>
+      <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="0">
+      <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="27" t="s">
         <v>5244</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="27" t="s">
         <v>5270</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="27" t="s">
         <v>5203</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C28" s="0">
+      <c r="C28">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D28" s="0">
+      <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="27" t="s">
         <v>5244</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="27" t="s">
         <v>5271</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="27" t="s">
         <v>5204</v>
       </c>
-      <c r="B29" s="0">
+      <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29" s="0">
+      <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29" s="0">
+      <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" s="0">
+      <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" s="0"/>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="27" t="s">
         <v>5272</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="27" t="s">
         <v>5205</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30" s="0">
+      <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30" s="0">
+      <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" s="0"/>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="27" t="s">
         <v>5273</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="27" t="s">
         <v>5206</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31" s="0">
+      <c r="C31">
         <v>0</v>
       </c>
-      <c r="D31" s="0">
+      <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" s="0"/>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="27" t="s">
         <v>5274</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="27" t="s">
         <v>5207</v>
       </c>
-      <c r="B32" s="0">
+      <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32" s="0">
+      <c r="C32">
         <v>0</v>
       </c>
-      <c r="D32" s="0">
+      <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" s="0">
+      <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="27" t="s">
         <v>5275</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="27" t="s">
         <v>5208</v>
       </c>
-      <c r="B33" s="0">
+      <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33" s="0">
+      <c r="C33">
         <v>0</v>
       </c>
-      <c r="D33" s="0">
+      <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="27" t="s">
         <v>5276</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="27" t="s">
         <v>5209</v>
       </c>
-      <c r="B34" s="0">
+      <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34" s="0">
+      <c r="C34">
         <v>0</v>
       </c>
-      <c r="D34" s="0">
+      <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34" s="0">
+      <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" s="0"/>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="27" t="s">
         <v>5277</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="27" t="s">
         <v>5210</v>
       </c>
-      <c r="B35" s="0">
+      <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35" s="0">
+      <c r="C35">
         <v>0</v>
       </c>
-      <c r="D35" s="0">
+      <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" s="0">
+      <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0" t="s">
+      <c r="G35" s="27" t="s">
         <v>5278</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="27" t="s">
         <v>5211</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B36">
         <v>0</v>
       </c>
-      <c r="C36" s="0">
+      <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36" s="0">
+      <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36" s="0">
+      <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36" s="0"/>
-      <c r="G36" s="0" t="s">
+      <c r="G36" s="27" t="s">
         <v>5279</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="27" t="s">
         <v>5212</v>
       </c>
-      <c r="B37" s="0">
+      <c r="B37">
         <v>1.0061922463256359</v>
       </c>
-      <c r="C37" s="0">
+      <c r="C37">
         <v>1.0049629315732038</v>
       </c>
-      <c r="D37" s="0">
+      <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37" s="0">
+      <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37" s="0"/>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="27" t="s">
         <v>5280</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="27" t="s">
         <v>5213</v>
       </c>
-      <c r="B38" s="0">
+      <c r="B38">
         <v>0.99622871975463567</v>
       </c>
-      <c r="C38" s="0">
+      <c r="C38">
         <v>0.99622871975463567</v>
       </c>
-      <c r="D38" s="0">
+      <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38" s="0">
+      <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38" s="0"/>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="27" t="s">
         <v>5281</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="27" t="s">
         <v>5214</v>
       </c>
-      <c r="B39" s="0">
+      <c r="B39">
         <v>-0.0074361935641006766</v>
       </c>
-      <c r="C39" s="0">
+      <c r="C39">
         <v>-0.0074361935641006766</v>
       </c>
-      <c r="D39" s="0">
+      <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39" s="0">
+      <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39" s="0"/>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="27" t="s">
         <v>5282</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="27" t="s">
         <v>5215</v>
       </c>
-      <c r="B40" s="0">
+      <c r="B40">
         <v>0.80000000000000004</v>
       </c>
-      <c r="C40" s="0">
+      <c r="C40">
         <v>0.80000000000000004</v>
       </c>
-      <c r="D40" s="0">
+      <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40" s="0">
+      <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40" s="0"/>
-      <c r="G40" s="0"/>
     </row>
     <row r="41">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="27" t="s">
         <v>5216</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B41">
         <v>0.59999999999999998</v>
       </c>
-      <c r="C41" s="0">
+      <c r="C41">
         <v>0.59999999999999998</v>
       </c>
-      <c r="D41" s="0">
+      <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" s="0">
+      <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0" t="s">
+      <c r="G41" s="27" t="s">
         <v>5283</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="27" t="s">
         <v>5217</v>
       </c>
-      <c r="B42" s="0">
+      <c r="B42">
         <v>0.029999999999999999</v>
       </c>
-      <c r="C42" s="0">
+      <c r="C42">
         <v>0.029999999999999999</v>
       </c>
-      <c r="D42" s="0">
+      <c r="D42">
         <v>0</v>
       </c>
-      <c r="E42" s="0">
+      <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42" s="0"/>
-      <c r="G42" s="0" t="s">
+      <c r="G42" s="27" t="s">
         <v>5284</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="27" t="s">
         <v>5218</v>
       </c>
-      <c r="B43" s="0">
+      <c r="B43">
         <v>10</v>
       </c>
-      <c r="C43" s="0">
+      <c r="C43">
         <v>10</v>
       </c>
-      <c r="D43" s="0">
+      <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43" s="0">
+      <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43" s="0"/>
-      <c r="G43" s="0" t="s">
+      <c r="G43" s="27" t="s">
         <v>5285</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="27" t="s">
         <v>5219</v>
       </c>
-      <c r="B44" s="0">
+      <c r="B44">
         <v>1.0049629315732038</v>
       </c>
-      <c r="C44" s="0">
+      <c r="C44">
         <v>1.0049629315732038</v>
       </c>
-      <c r="D44" s="0">
+      <c r="D44">
         <v>0</v>
       </c>
-      <c r="E44" s="0">
+      <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44" s="0"/>
-      <c r="G44" s="0" t="s">
+      <c r="G44" s="27" t="s">
         <v>5286</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="27" t="s">
         <v>5220</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B45">
         <v>6</v>
       </c>
-      <c r="C45" s="0">
+      <c r="C45">
         <v>6</v>
       </c>
-      <c r="D45" s="0">
+      <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" s="0">
+      <c r="E45">
         <v>0</v>
       </c>
-      <c r="F45" s="0"/>
-      <c r="G45" s="0" t="s">
+      <c r="G45" s="27" t="s">
         <v>5287</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="27" t="s">
         <v>5221</v>
       </c>
-      <c r="B46" s="0">
+      <c r="B46">
         <v>0.25</v>
       </c>
-      <c r="C46" s="0">
+      <c r="C46">
         <v>0.25</v>
       </c>
-      <c r="D46" s="0">
+      <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46" s="0">
+      <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46" s="0"/>
-      <c r="G46" s="0" t="s">
+      <c r="G46" s="27" t="s">
         <v>5288</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="27" t="s">
         <v>5222</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B47">
         <v>0.84999999999999998</v>
       </c>
-      <c r="C47" s="0">
+      <c r="C47">
         <v>0.84999999999999998</v>
       </c>
-      <c r="D47" s="0">
+      <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47" s="0">
+      <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47" s="0"/>
-      <c r="G47" s="0" t="s">
+      <c r="G47" s="27" t="s">
         <v>5289</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="27" t="s">
         <v>5223</v>
       </c>
-      <c r="B48" s="0">
+      <c r="B48">
         <v>60</v>
       </c>
-      <c r="C48" s="0">
+      <c r="C48">
         <v>60</v>
       </c>
-      <c r="D48" s="0">
+      <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48" s="0">
+      <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48" s="0"/>
-      <c r="G48" s="0" t="s">
+      <c r="G48" s="27" t="s">
         <v>5290</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="27" t="s">
         <v>5224</v>
       </c>
-      <c r="B49" s="0">
+      <c r="B49">
         <v>300</v>
       </c>
-      <c r="C49" s="0">
+      <c r="C49">
         <v>300</v>
       </c>
-      <c r="D49" s="0">
+      <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" s="0">
+      <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49" s="0"/>
-      <c r="G49" s="0" t="s">
+      <c r="G49" s="27" t="s">
         <v>5291</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="27" t="s">
         <v>5225</v>
       </c>
-      <c r="B50" s="0">
+      <c r="B50">
         <v>0.90000000000000002</v>
       </c>
-      <c r="C50" s="0">
+      <c r="C50">
         <v>0.90000000000000002</v>
       </c>
-      <c r="D50" s="0">
+      <c r="D50">
         <v>0</v>
       </c>
-      <c r="E50" s="0">
+      <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50" s="0"/>
-      <c r="G50" s="0" t="s">
+      <c r="G50" s="27" t="s">
         <v>5292</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="27" t="s">
         <v>5226</v>
       </c>
-      <c r="B51" s="0">
+      <c r="B51">
         <v>0.84999999999999998</v>
       </c>
-      <c r="C51" s="0">
+      <c r="C51">
         <v>0.84999999999999998</v>
       </c>
-      <c r="D51" s="0">
+      <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51" s="0">
+      <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51" s="0"/>
-      <c r="G51" s="0" t="s">
+      <c r="G51" s="27" t="s">
         <v>5293</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="27" t="s">
         <v>5227</v>
       </c>
-      <c r="B52" s="0">
+      <c r="B52">
         <v>4</v>
       </c>
-      <c r="C52" s="0">
+      <c r="C52">
         <v>4</v>
       </c>
-      <c r="D52" s="0">
+      <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" s="0">
+      <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52" s="0"/>
-      <c r="G52" s="0" t="s">
+      <c r="G52" s="27" t="s">
         <v>5294</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="27" t="s">
         <v>5228</v>
       </c>
-      <c r="B53" s="0">
+      <c r="B53">
         <v>0</v>
       </c>
-      <c r="C53" s="0">
+      <c r="C53">
         <v>0</v>
       </c>
-      <c r="D53" s="0">
+      <c r="D53">
         <v>0</v>
       </c>
-      <c r="E53" s="0">
+      <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53" s="0"/>
-      <c r="G53" s="0" t="s">
+      <c r="G53" s="27" t="s">
         <v>5295</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="27" t="s">
         <v>5229</v>
       </c>
-      <c r="B54" s="0">
+      <c r="B54">
         <v>0.80000000000000004</v>
       </c>
-      <c r="C54" s="0">
+      <c r="C54">
         <v>0.80000000000000004</v>
       </c>
-      <c r="D54" s="0">
+      <c r="D54">
         <v>0</v>
       </c>
-      <c r="E54" s="0">
+      <c r="E54">
         <v>0</v>
       </c>
-      <c r="F54" s="0"/>
-      <c r="G54" s="0" t="s">
+      <c r="G54" s="27" t="s">
         <v>5296</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="27" t="s">
         <v>5230</v>
       </c>
-      <c r="B55" s="0">
+      <c r="B55">
         <v>0</v>
       </c>
-      <c r="C55" s="0">
+      <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55" s="0">
+      <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55" s="0">
+      <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55" s="0"/>
-      <c r="G55" s="0" t="s">
+      <c r="G55" s="27" t="s">
         <v>5297</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="27" t="s">
         <v>5231</v>
       </c>
-      <c r="B56" s="0">
+      <c r="B56">
         <v>0</v>
       </c>
-      <c r="C56" s="0">
+      <c r="C56">
         <v>0</v>
       </c>
-      <c r="D56" s="0">
+      <c r="D56">
         <v>0</v>
       </c>
-      <c r="E56" s="0">
+      <c r="E56">
         <v>0</v>
       </c>
-      <c r="F56" s="0"/>
-      <c r="G56" s="0" t="s">
+      <c r="G56" s="27" t="s">
         <v>5298</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="27" t="s">
         <v>5232</v>
       </c>
-      <c r="B57" s="0">
+      <c r="B57">
         <v>0</v>
       </c>
-      <c r="C57" s="0">
+      <c r="C57">
         <v>0</v>
       </c>
-      <c r="D57" s="0">
+      <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57" s="0">
+      <c r="E57">
         <v>0</v>
       </c>
-      <c r="F57" s="0"/>
-      <c r="G57" s="0" t="s">
+      <c r="G57" s="27" t="s">
         <v>5299</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="27" t="s">
         <v>5233</v>
       </c>
-      <c r="B58" s="0">
+      <c r="B58">
         <v>0</v>
       </c>
-      <c r="C58" s="0">
+      <c r="C58">
         <v>0</v>
       </c>
-      <c r="D58" s="0">
+      <c r="D58">
         <v>0</v>
       </c>
-      <c r="E58" s="0">
+      <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58" s="0"/>
-      <c r="G58" s="0" t="s">
+      <c r="G58" s="27" t="s">
         <v>5300</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="27" t="s">
         <v>5234</v>
       </c>
-      <c r="B59" s="0">
+      <c r="B59">
         <v>0</v>
       </c>
-      <c r="C59" s="0">
+      <c r="C59">
         <v>0</v>
       </c>
-      <c r="D59" s="0">
+      <c r="D59">
         <v>0</v>
       </c>
-      <c r="E59" s="0">
+      <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59" s="0"/>
-      <c r="G59" s="0" t="s">
+      <c r="G59" s="27" t="s">
         <v>5301</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="27" t="s">
         <v>5235</v>
       </c>
-      <c r="B60" s="0">
+      <c r="B60">
         <v>0</v>
       </c>
-      <c r="C60" s="0">
+      <c r="C60">
         <v>0</v>
       </c>
-      <c r="D60" s="0">
+      <c r="D60">
         <v>1</v>
       </c>
-      <c r="E60" s="0">
+      <c r="E60">
         <v>1</v>
       </c>
-      <c r="F60" s="0" t="s">
-        <v>5245</v>
-      </c>
-      <c r="G60" s="0" t="s">
+      <c r="F60" s="27" t="s">
+        <v>5048</v>
+      </c>
+      <c r="G60" s="27" t="s">
         <v>5302</v>
       </c>
     </row>

--- a/simple-spbc/steady.xlsx
+++ b/simple-spbc/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7543" uniqueCount="5303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8593" uniqueCount="5430">
   <si>
     <t>Row</t>
   </si>
@@ -15160,6 +15160,387 @@
   </si>
   <si>
     <t>Diffâ</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
   </si>
   <si>
     <t>Row</t>
@@ -15942,7 +16323,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -15978,11 +16359,23 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -16012,6 +16405,18 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16034,31 +16439,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="s">
-        <v>5176</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>5236</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>5237</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>5238</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>5239</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>5240</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>5246</v>
+      <c r="A1" s="39" t="s">
+        <v>5303</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>5363</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>5364</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>5365</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>5366</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>5367</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>5373</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="27" t="s">
-        <v>5177</v>
+      <c r="A2" s="39" t="s">
+        <v>5304</v>
       </c>
       <c r="B2">
         <v>3.0199999999999783</v>
@@ -16072,16 +16477,16 @@
       <c r="E2">
         <v>-1.0472971942382604e-16</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="39" t="s">
         <v>5048</v>
       </c>
-      <c r="G2" s="27" t="s">
-        <v>5247</v>
+      <c r="G2" s="39" t="s">
+        <v>5374</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="s">
-        <v>5178</v>
+      <c r="A3" s="39" t="s">
+        <v>5305</v>
       </c>
       <c r="B3">
         <v>3.0199999999999783</v>
@@ -16095,16 +16500,16 @@
       <c r="E3">
         <v>-2.9005377991233062e-17</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="39" t="s">
         <v>5048</v>
       </c>
-      <c r="G3" s="27" t="s">
-        <v>5248</v>
+      <c r="G3" s="39" t="s">
+        <v>5375</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="27" t="s">
-        <v>5179</v>
+      <c r="A4" s="39" t="s">
+        <v>5306</v>
       </c>
       <c r="B4">
         <v>2.000000000000024</v>
@@ -16118,16 +16523,16 @@
       <c r="E4">
         <v>5.3260875473912238e-18</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="39" t="s">
         <v>5048</v>
       </c>
-      <c r="G4" s="27" t="s">
-        <v>5249</v>
+      <c r="G4" s="39" t="s">
+        <v>5376</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="27" t="s">
-        <v>5180</v>
+      <c r="A5" s="39" t="s">
+        <v>5307</v>
       </c>
       <c r="B5">
         <v>2.4999999999998579</v>
@@ -16141,16 +16546,16 @@
       <c r="E5">
         <v>1.4614062843220118e-17</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="39" t="s">
         <v>5048</v>
       </c>
-      <c r="G5" s="27" t="s">
-        <v>5250</v>
+      <c r="G5" s="39" t="s">
+        <v>5377</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="27" t="s">
-        <v>5181</v>
+      <c r="A6" s="39" t="s">
+        <v>5308</v>
       </c>
       <c r="B6">
         <v>4.5499999999999652</v>
@@ -16164,16 +16569,16 @@
       <c r="E6">
         <v>2.1894689470238414e-14</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="39" t="s">
         <v>5048</v>
       </c>
-      <c r="G6" s="27" t="s">
-        <v>5251</v>
+      <c r="G6" s="39" t="s">
+        <v>5378</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="27" t="s">
-        <v>5252</v>
+      <c r="A7" s="39" t="s">
+        <v>5379</v>
       </c>
       <c r="B7">
         <v>1.5519465293293773</v>
@@ -16187,13 +16592,13 @@
       <c r="E7">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F7" s="27" t="s">
-        <v>5244</v>
+      <c r="F7" s="39" t="s">
+        <v>5371</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="27" t="s">
-        <v>5183</v>
+      <c r="A8" s="39" t="s">
+        <v>5310</v>
       </c>
       <c r="B8">
         <v>1.5519465293293773</v>
@@ -16207,16 +16612,16 @@
       <c r="E8">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F8" s="27" t="s">
-        <v>5244</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>5252</v>
+      <c r="F8" s="39" t="s">
+        <v>5371</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>5379</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="27" t="s">
-        <v>5184</v>
+      <c r="A9" s="39" t="s">
+        <v>5311</v>
       </c>
       <c r="B9">
         <v>0.74698177564761814</v>
@@ -16230,16 +16635,16 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="27" t="s">
-        <v>5244</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>5253</v>
+      <c r="F9" s="39" t="s">
+        <v>5371</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>5380</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="27" t="s">
-        <v>5185</v>
+      <c r="A10" s="39" t="s">
+        <v>5312</v>
       </c>
       <c r="B10">
         <v>1.7313525130113012</v>
@@ -16253,16 +16658,16 @@
       <c r="E10">
         <v>1.0099504938362081</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>5244</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>5254</v>
+      <c r="F10" s="39" t="s">
+        <v>5371</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>5381</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="27" t="s">
-        <v>5186</v>
+      <c r="A11" s="39" t="s">
+        <v>5313</v>
       </c>
       <c r="B11">
         <v>0.83333333333333337</v>
@@ -16276,16 +16681,16 @@
       <c r="E11">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F11" s="27" t="s">
-        <v>5244</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>5255</v>
+      <c r="F11" s="39" t="s">
+        <v>5371</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>5382</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="27" t="s">
-        <v>5187</v>
+      <c r="A12" s="39" t="s">
+        <v>5314</v>
       </c>
       <c r="B12">
         <v>1.5519465293293773</v>
@@ -16299,16 +16704,16 @@
       <c r="E12">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>5244</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>5256</v>
+      <c r="F12" s="39" t="s">
+        <v>5371</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>5383</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="27" t="s">
-        <v>5188</v>
+      <c r="A13" s="39" t="s">
+        <v>5315</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -16322,16 +16727,16 @@
       <c r="E13">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F13" s="27" t="s">
-        <v>5244</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>5257</v>
+      <c r="F13" s="39" t="s">
+        <v>5371</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>5384</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="27" t="s">
-        <v>5189</v>
+      <c r="A14" s="39" t="s">
+        <v>5316</v>
       </c>
       <c r="B14">
         <v>1.0061922463256359</v>
@@ -16345,16 +16750,16 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="27" t="s">
-        <v>5244</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>5258</v>
+      <c r="F14" s="39" t="s">
+        <v>5371</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>5385</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="27" t="s">
-        <v>5190</v>
+      <c r="A15" s="39" t="s">
+        <v>5317</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -16368,16 +16773,16 @@
       <c r="E15">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F15" s="27" t="s">
-        <v>5244</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>5259</v>
+      <c r="F15" s="39" t="s">
+        <v>5371</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>5386</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="27" t="s">
-        <v>5191</v>
+      <c r="A16" s="39" t="s">
+        <v>5318</v>
       </c>
       <c r="B16">
         <v>1.0074659719585326</v>
@@ -16391,16 +16796,16 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="27" t="s">
-        <v>5244</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>5260</v>
+      <c r="F16" s="39" t="s">
+        <v>5371</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>5387</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="27" t="s">
-        <v>5192</v>
+      <c r="A17" s="39" t="s">
+        <v>5319</v>
       </c>
       <c r="B17">
         <v>1.0024906793143211</v>
@@ -16414,16 +16819,16 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="27" t="s">
-        <v>5244</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>5261</v>
+      <c r="F17" s="39" t="s">
+        <v>5371</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>5388</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="27" t="s">
-        <v>5193</v>
+      <c r="A18" s="39" t="s">
+        <v>5320</v>
       </c>
       <c r="B18">
         <v>1.0074659719585326</v>
@@ -16437,16 +16842,16 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="27" t="s">
-        <v>5244</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>5262</v>
+      <c r="F18" s="39" t="s">
+        <v>5371</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>5389</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="27" t="s">
-        <v>5194</v>
+      <c r="A19" s="39" t="s">
+        <v>5321</v>
       </c>
       <c r="B19">
         <v>1.0074659719585326</v>
@@ -16460,16 +16865,16 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" s="27" t="s">
-        <v>5244</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>5263</v>
+      <c r="F19" s="39" t="s">
+        <v>5371</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>5390</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="27" t="s">
-        <v>5195</v>
+      <c r="A20" s="39" t="s">
+        <v>5322</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -16483,16 +16888,16 @@
       <c r="E20">
         <v>-3.8621899266967228e-20</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="39" t="s">
         <v>5048</v>
       </c>
-      <c r="G20" s="27" t="s">
-        <v>5264</v>
+      <c r="G20" s="39" t="s">
+        <v>5391</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="27" t="s">
-        <v>5196</v>
+      <c r="A21" s="39" t="s">
+        <v>5323</v>
       </c>
       <c r="B21">
         <v>1.531173558226345</v>
@@ -16506,16 +16911,16 @@
       <c r="E21">
         <v>1.0099504938362078</v>
       </c>
-      <c r="F21" s="27" t="s">
-        <v>5244</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>5265</v>
+      <c r="F21" s="39" t="s">
+        <v>5371</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>5392</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="27" t="s">
-        <v>5197</v>
+      <c r="A22" s="39" t="s">
+        <v>5324</v>
       </c>
       <c r="B22">
         <v>1.0111859095936389</v>
@@ -16529,13 +16934,13 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="27" t="s">
-        <v>5244</v>
+      <c r="F22" s="39" t="s">
+        <v>5371</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="27" t="s">
-        <v>5198</v>
+      <c r="A23" s="39" t="s">
+        <v>5325</v>
       </c>
       <c r="B23">
         <v>0.051731550977645917</v>
@@ -16549,16 +16954,16 @@
       <c r="E23">
         <v>1.0099504938362078</v>
       </c>
-      <c r="F23" s="27" t="s">
-        <v>5244</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>5266</v>
+      <c r="F23" s="39" t="s">
+        <v>5371</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>5393</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="27" t="s">
-        <v>5199</v>
+      <c r="A24" s="39" t="s">
+        <v>5326</v>
       </c>
       <c r="B24">
         <v>0.64435209661000203</v>
@@ -16572,16 +16977,16 @@
       <c r="E24">
         <v>0.99014754297667418</v>
       </c>
-      <c r="F24" s="27" t="s">
-        <v>5244</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>5267</v>
+      <c r="F24" s="39" t="s">
+        <v>5371</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>5394</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="27" t="s">
-        <v>5200</v>
+      <c r="A25" s="39" t="s">
+        <v>5327</v>
       </c>
       <c r="B25">
         <v>1.0049629315732038</v>
@@ -16595,16 +17000,16 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" s="27" t="s">
-        <v>5244</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>5268</v>
+      <c r="F25" s="39" t="s">
+        <v>5371</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>5395</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="27" t="s">
-        <v>5201</v>
+      <c r="A26" s="39" t="s">
+        <v>5328</v>
       </c>
       <c r="B26">
         <v>1.0200000000000002</v>
@@ -16618,16 +17023,16 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" s="27" t="s">
-        <v>5244</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>5269</v>
+      <c r="F26" s="39" t="s">
+        <v>5371</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>5396</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="27" t="s">
-        <v>5202</v>
+      <c r="A27" s="39" t="s">
+        <v>5329</v>
       </c>
       <c r="B27">
         <v>1.0111859095936382</v>
@@ -16641,16 +17046,16 @@
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" s="27" t="s">
-        <v>5244</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>5270</v>
+      <c r="F27" s="39" t="s">
+        <v>5371</v>
+      </c>
+      <c r="G27" s="39" t="s">
+        <v>5397</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="27" t="s">
-        <v>5203</v>
+      <c r="A28" s="39" t="s">
+        <v>5330</v>
       </c>
       <c r="B28">
         <v>0.83333333333333337</v>
@@ -16664,16 +17069,16 @@
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" s="27" t="s">
-        <v>5244</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>5271</v>
+      <c r="F28" s="39" t="s">
+        <v>5371</v>
+      </c>
+      <c r="G28" s="39" t="s">
+        <v>5398</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="27" t="s">
-        <v>5204</v>
+      <c r="A29" s="39" t="s">
+        <v>5331</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -16687,13 +17092,13 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="G29" s="27" t="s">
-        <v>5272</v>
+      <c r="G29" s="39" t="s">
+        <v>5399</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="27" t="s">
-        <v>5205</v>
+      <c r="A30" s="39" t="s">
+        <v>5332</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -16707,13 +17112,13 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="G30" s="27" t="s">
-        <v>5273</v>
+      <c r="G30" s="39" t="s">
+        <v>5400</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="27" t="s">
-        <v>5206</v>
+      <c r="A31" s="39" t="s">
+        <v>5333</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -16727,13 +17132,13 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="G31" s="27" t="s">
-        <v>5274</v>
+      <c r="G31" s="39" t="s">
+        <v>5401</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="27" t="s">
-        <v>5207</v>
+      <c r="A32" s="39" t="s">
+        <v>5334</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -16747,13 +17152,13 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="G32" s="27" t="s">
-        <v>5275</v>
+      <c r="G32" s="39" t="s">
+        <v>5402</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="27" t="s">
-        <v>5208</v>
+      <c r="A33" s="39" t="s">
+        <v>5335</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -16767,13 +17172,13 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="G33" s="27" t="s">
-        <v>5276</v>
+      <c r="G33" s="39" t="s">
+        <v>5403</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="27" t="s">
-        <v>5209</v>
+      <c r="A34" s="39" t="s">
+        <v>5336</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -16787,13 +17192,13 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="G34" s="27" t="s">
-        <v>5277</v>
+      <c r="G34" s="39" t="s">
+        <v>5404</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="s">
-        <v>5210</v>
+      <c r="A35" s="39" t="s">
+        <v>5337</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -16807,13 +17212,13 @@
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="G35" s="27" t="s">
-        <v>5278</v>
+      <c r="G35" s="39" t="s">
+        <v>5405</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="s">
-        <v>5211</v>
+      <c r="A36" s="39" t="s">
+        <v>5338</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -16827,13 +17232,13 @@
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="G36" s="27" t="s">
-        <v>5279</v>
+      <c r="G36" s="39" t="s">
+        <v>5406</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="s">
-        <v>5212</v>
+      <c r="A37" s="39" t="s">
+        <v>5339</v>
       </c>
       <c r="B37">
         <v>1.0061922463256359</v>
@@ -16847,13 +17252,13 @@
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="G37" s="27" t="s">
-        <v>5280</v>
+      <c r="G37" s="39" t="s">
+        <v>5407</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="s">
-        <v>5213</v>
+      <c r="A38" s="39" t="s">
+        <v>5340</v>
       </c>
       <c r="B38">
         <v>0.99622871975463567</v>
@@ -16867,13 +17272,13 @@
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="G38" s="27" t="s">
-        <v>5281</v>
+      <c r="G38" s="39" t="s">
+        <v>5408</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="s">
-        <v>5214</v>
+      <c r="A39" s="39" t="s">
+        <v>5341</v>
       </c>
       <c r="B39">
         <v>-0.0074361935641006766</v>
@@ -16887,13 +17292,13 @@
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="G39" s="27" t="s">
-        <v>5282</v>
+      <c r="G39" s="39" t="s">
+        <v>5409</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="s">
-        <v>5215</v>
+      <c r="A40" s="39" t="s">
+        <v>5342</v>
       </c>
       <c r="B40">
         <v>0.80000000000000004</v>
@@ -16909,8 +17314,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="s">
-        <v>5216</v>
+      <c r="A41" s="39" t="s">
+        <v>5343</v>
       </c>
       <c r="B41">
         <v>0.59999999999999998</v>
@@ -16924,13 +17329,13 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="G41" s="27" t="s">
-        <v>5283</v>
+      <c r="G41" s="39" t="s">
+        <v>5410</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="s">
-        <v>5217</v>
+      <c r="A42" s="39" t="s">
+        <v>5344</v>
       </c>
       <c r="B42">
         <v>0.029999999999999999</v>
@@ -16944,13 +17349,13 @@
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="G42" s="27" t="s">
-        <v>5284</v>
+      <c r="G42" s="39" t="s">
+        <v>5411</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="s">
-        <v>5218</v>
+      <c r="A43" s="39" t="s">
+        <v>5345</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -16964,13 +17369,13 @@
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="G43" s="27" t="s">
-        <v>5285</v>
+      <c r="G43" s="39" t="s">
+        <v>5412</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="s">
-        <v>5219</v>
+      <c r="A44" s="39" t="s">
+        <v>5346</v>
       </c>
       <c r="B44">
         <v>1.0049629315732038</v>
@@ -16984,13 +17389,13 @@
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="G44" s="27" t="s">
-        <v>5286</v>
+      <c r="G44" s="39" t="s">
+        <v>5413</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="27" t="s">
-        <v>5220</v>
+      <c r="A45" s="39" t="s">
+        <v>5347</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -17004,13 +17409,13 @@
       <c r="E45">
         <v>0</v>
       </c>
-      <c r="G45" s="27" t="s">
-        <v>5287</v>
+      <c r="G45" s="39" t="s">
+        <v>5414</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="27" t="s">
-        <v>5221</v>
+      <c r="A46" s="39" t="s">
+        <v>5348</v>
       </c>
       <c r="B46">
         <v>0.25</v>
@@ -17024,13 +17429,13 @@
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="G46" s="27" t="s">
-        <v>5288</v>
+      <c r="G46" s="39" t="s">
+        <v>5415</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="27" t="s">
-        <v>5222</v>
+      <c r="A47" s="39" t="s">
+        <v>5349</v>
       </c>
       <c r="B47">
         <v>0.84999999999999998</v>
@@ -17044,13 +17449,13 @@
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="G47" s="27" t="s">
-        <v>5289</v>
+      <c r="G47" s="39" t="s">
+        <v>5416</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="27" t="s">
-        <v>5223</v>
+      <c r="A48" s="39" t="s">
+        <v>5350</v>
       </c>
       <c r="B48">
         <v>60</v>
@@ -17064,13 +17469,13 @@
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="G48" s="27" t="s">
-        <v>5290</v>
+      <c r="G48" s="39" t="s">
+        <v>5417</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="27" t="s">
-        <v>5224</v>
+      <c r="A49" s="39" t="s">
+        <v>5351</v>
       </c>
       <c r="B49">
         <v>300</v>
@@ -17084,13 +17489,13 @@
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="G49" s="27" t="s">
-        <v>5291</v>
+      <c r="G49" s="39" t="s">
+        <v>5418</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="27" t="s">
-        <v>5225</v>
+      <c r="A50" s="39" t="s">
+        <v>5352</v>
       </c>
       <c r="B50">
         <v>0.90000000000000002</v>
@@ -17104,13 +17509,13 @@
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="G50" s="27" t="s">
-        <v>5292</v>
+      <c r="G50" s="39" t="s">
+        <v>5419</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="27" t="s">
-        <v>5226</v>
+      <c r="A51" s="39" t="s">
+        <v>5353</v>
       </c>
       <c r="B51">
         <v>0.84999999999999998</v>
@@ -17124,13 +17529,13 @@
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="G51" s="27" t="s">
-        <v>5293</v>
+      <c r="G51" s="39" t="s">
+        <v>5420</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="27" t="s">
-        <v>5227</v>
+      <c r="A52" s="39" t="s">
+        <v>5354</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -17144,13 +17549,13 @@
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="G52" s="27" t="s">
-        <v>5294</v>
+      <c r="G52" s="39" t="s">
+        <v>5421</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="27" t="s">
-        <v>5228</v>
+      <c r="A53" s="39" t="s">
+        <v>5355</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -17164,13 +17569,13 @@
       <c r="E53">
         <v>0</v>
       </c>
-      <c r="G53" s="27" t="s">
-        <v>5295</v>
+      <c r="G53" s="39" t="s">
+        <v>5422</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="27" t="s">
-        <v>5229</v>
+      <c r="A54" s="39" t="s">
+        <v>5356</v>
       </c>
       <c r="B54">
         <v>0.80000000000000004</v>
@@ -17184,13 +17589,13 @@
       <c r="E54">
         <v>0</v>
       </c>
-      <c r="G54" s="27" t="s">
-        <v>5296</v>
+      <c r="G54" s="39" t="s">
+        <v>5423</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="27" t="s">
-        <v>5230</v>
+      <c r="A55" s="39" t="s">
+        <v>5357</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -17204,13 +17609,13 @@
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="G55" s="27" t="s">
-        <v>5297</v>
+      <c r="G55" s="39" t="s">
+        <v>5424</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="27" t="s">
-        <v>5231</v>
+      <c r="A56" s="39" t="s">
+        <v>5358</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -17224,13 +17629,13 @@
       <c r="E56">
         <v>0</v>
       </c>
-      <c r="G56" s="27" t="s">
-        <v>5298</v>
+      <c r="G56" s="39" t="s">
+        <v>5425</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="27" t="s">
-        <v>5232</v>
+      <c r="A57" s="39" t="s">
+        <v>5359</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -17244,13 +17649,13 @@
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="G57" s="27" t="s">
-        <v>5299</v>
+      <c r="G57" s="39" t="s">
+        <v>5426</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="27" t="s">
-        <v>5233</v>
+      <c r="A58" s="39" t="s">
+        <v>5360</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -17264,13 +17669,13 @@
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="G58" s="27" t="s">
-        <v>5300</v>
+      <c r="G58" s="39" t="s">
+        <v>5427</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="27" t="s">
-        <v>5234</v>
+      <c r="A59" s="39" t="s">
+        <v>5361</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -17284,13 +17689,13 @@
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="G59" s="27" t="s">
-        <v>5301</v>
+      <c r="G59" s="39" t="s">
+        <v>5428</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="27" t="s">
-        <v>5235</v>
+      <c r="A60" s="39" t="s">
+        <v>5362</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -17304,11 +17709,11 @@
       <c r="E60">
         <v>1</v>
       </c>
-      <c r="F60" s="27" t="s">
+      <c r="F60" s="39" t="s">
         <v>5048</v>
       </c>
-      <c r="G60" s="27" t="s">
-        <v>5302</v>
+      <c r="G60" s="39" t="s">
+        <v>5429</v>
       </c>
     </row>
   </sheetData>

--- a/simple-spbc/steady.xlsx
+++ b/simple-spbc/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="1271">
   <si>
     <t>Row</t>
   </si>
@@ -3064,6 +3064,768 @@
   </si>
   <si>
     <t>Diffâ</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
   </si>
 </sst>
 </file>
@@ -3084,7 +3846,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3099,11 +3861,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -3112,6 +3876,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3124,1291 +3890,1325 @@
   <dimension ref="A1:G60"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="10.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="3" max="3" width="15.5703125" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
-    <col min="5" max="5" width="16.7109375" customWidth="true"/>
-    <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="46.7109375" customWidth="true"/>
+    <col min="5" max="5" width="16.28515625" customWidth="true"/>
+    <col min="6" max="6" width="6.7109375" customWidth="true"/>
+    <col min="7" max="7" width="41.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>949</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>950</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>951</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>952</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>953</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>959</v>
+      <c r="A1" s="0" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>1214</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>890</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="0" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B2" s="0">
         <v>3.0199999999999783</v>
       </c>
-      <c r="C2">
-        <v>2.5174634146343262</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>-1.0472971942382604e-16</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>960</v>
+      <c r="C2" s="0">
+        <v>2.5174634146343253</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0">
+        <v>-1.1847197195174198e-17</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="0" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B3" s="0">
         <v>3.0199999999999783</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>2.5174634146343244</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>-2.9005377991233062e-17</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>961</v>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0">
+        <v>2.9407819612755486e-18</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>892</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="0" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B4" s="0">
         <v>2.000000000000024</v>
       </c>
-      <c r="C4">
-        <v>2.0000000000000124</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>5.3260875473912238e-18</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>962</v>
+      <c r="C4" s="0">
+        <v>2.0000000000000129</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0">
+        <v>-1.0321621083814744e-17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>1217</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>893</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="0" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B5" s="0">
         <v>2.4999999999998579</v>
       </c>
-      <c r="C5">
-        <v>2.0000000000000404</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="0">
+        <v>2.0000000000000067</v>
+      </c>
+      <c r="D5" s="0">
         <v>2.960594732333751e-14</v>
       </c>
-      <c r="E5">
-        <v>1.4614062843220118e-17</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>963</v>
+      <c r="E5" s="0">
+        <v>1.0629776554815597e-14</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>1218</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>894</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="0" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B6" s="0">
         <v>4.5499999999999652</v>
       </c>
-      <c r="C6">
-        <v>4.0400000000000658</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>2.1894689470238414e-14</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>964</v>
+      <c r="C6" s="0">
+        <v>4.040000000000064</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0">
+        <v>1.0520358363670791e-14</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>1219</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>965</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B7" s="0">
         <v>1.5519465293293773</v>
       </c>
-      <c r="C7">
-        <v>3.1038930586587541</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="0">
+        <v>3.103893058658755</v>
+      </c>
+      <c r="D7" s="0">
         <v>1.0061922463256356</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>957</v>
-      </c>
+      <c r="F7" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G7" s="0"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>896</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="0" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B8" s="0">
         <v>1.5519465293293773</v>
       </c>
-      <c r="C8">
-        <v>3.1038930586587541</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="0">
+        <v>3.103893058658755</v>
+      </c>
+      <c r="D8" s="0">
         <v>1.0061922463256356</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>957</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>965</v>
+      <c r="F8" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>1220</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>897</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="0" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B9" s="0">
         <v>0.74698177564761814</v>
       </c>
-      <c r="C9">
-        <v>0.74698177564761814</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="0">
+        <v>0.74698177564761825</v>
+      </c>
+      <c r="D9" s="0">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>1</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>957</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>966</v>
+      <c r="F9" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>898</v>
-      </c>
-      <c r="B10">
+      <c r="A10" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B10" s="0">
         <v>1.7313525130113012</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>3.4627050260226024</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>1.0111859095936382</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>1.0099504938362081</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>957</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>967</v>
+      <c r="F10" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>899</v>
-      </c>
-      <c r="B11">
+      <c r="A11" s="0" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B11" s="0">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>957</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>968</v>
+      <c r="F11" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>900</v>
-      </c>
-      <c r="B12">
+      <c r="A12" s="0" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B12" s="0">
         <v>1.5519465293293773</v>
       </c>
-      <c r="C12">
-        <v>3.1038930586587541</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="0">
+        <v>3.103893058658755</v>
+      </c>
+      <c r="D12" s="0">
         <v>1.0061922463256356</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>957</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>969</v>
+      <c r="F12" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>901</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="0" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B13" s="0">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0">
         <v>2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0">
         <v>1.0061922463256356</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>957</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>970</v>
+      <c r="F13" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>902</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="0" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B14" s="0">
         <v>1.0061922463256359</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0">
         <v>1</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>957</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>971</v>
+      <c r="F14" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="B15">
+      <c r="A15" s="0" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B15" s="0">
         <v>1</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0">
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>957</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>972</v>
+      <c r="F15" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="0" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B16" s="0">
         <v>1.0074659719585326</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>1.0062351010325994</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0">
         <v>1</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>1</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>957</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>973</v>
+      <c r="F16" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>1228</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>905</v>
-      </c>
-      <c r="B17">
+      <c r="A17" s="0" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B17" s="0">
         <v>1.0024906793143211</v>
       </c>
-      <c r="C17">
-        <v>1.001265886949088</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="0">
+        <v>1.0012658869490878</v>
+      </c>
+      <c r="D17" s="0">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0">
         <v>1</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>957</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>974</v>
+      <c r="F17" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>906</v>
-      </c>
-      <c r="B18">
+      <c r="A18" s="0" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B18" s="0">
         <v>1.0074659719585326</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>1.0062351010325994</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0">
         <v>1</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0">
         <v>1</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>957</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>975</v>
+      <c r="F18" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>1230</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>907</v>
-      </c>
-      <c r="B19">
+      <c r="A19" s="0" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B19" s="0">
         <v>1.0074659719585326</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0">
         <v>1.0062351010325994</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
         <v>1</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>957</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>976</v>
+      <c r="F19" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>908</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>7.9773226406187334e-19</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>-3.8621899266967228e-20</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>977</v>
+      <c r="A20" s="0" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0">
+        <v>3.4983671459173163e-24</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0">
+        <v>-6.9234505873394988e-25</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>1232</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>909</v>
-      </c>
-      <c r="B21">
-        <v>1.531173558226345</v>
-      </c>
-      <c r="C21">
-        <v>3.0623471164526221</v>
-      </c>
-      <c r="D21">
-        <v>1.0111859095936389</v>
-      </c>
-      <c r="E21">
+      <c r="A21" s="0" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B21" s="0">
+        <v>1.5311735582263337</v>
+      </c>
+      <c r="C21" s="0">
+        <v>3.0623471164526799</v>
+      </c>
+      <c r="D21" s="0">
+        <v>1.0111859095936384</v>
+      </c>
+      <c r="E21" s="0">
+        <v>1.0099504938362083</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B22" s="0">
+        <v>1.0111859095936384</v>
+      </c>
+      <c r="C22" s="0">
+        <v>1.0099504938362083</v>
+      </c>
+      <c r="D22" s="0">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G22" s="0"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0.051731550977645917</v>
+      </c>
+      <c r="C23" s="0">
+        <v>0.10346310195529185</v>
+      </c>
+      <c r="D23" s="0">
+        <v>1.011185909593638</v>
+      </c>
+      <c r="E23" s="0">
         <v>1.0099504938362078</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>957</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="s">
-        <v>910</v>
-      </c>
-      <c r="B22">
-        <v>1.0111859095936389</v>
-      </c>
-      <c r="C22">
+      <c r="F23" s="0" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0.64435209661000203</v>
+      </c>
+      <c r="C24" s="0">
+        <v>0.32217604830500091</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0.98893783083060027</v>
+      </c>
+      <c r="E24" s="0">
+        <v>0.99014754297667418</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B25" s="0">
+        <v>1.0049629315732038</v>
+      </c>
+      <c r="C25" s="0">
+        <v>1.0049629315732038</v>
+      </c>
+      <c r="D25" s="0">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B26" s="0">
+        <v>1.0200000000000002</v>
+      </c>
+      <c r="C26" s="0">
+        <v>1.02</v>
+      </c>
+      <c r="D26" s="0">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B27" s="0">
+        <v>1.0111859095936382</v>
+      </c>
+      <c r="C27" s="0">
         <v>1.0099504938362078</v>
       </c>
-      <c r="D22">
+      <c r="D27" s="0">
         <v>1</v>
       </c>
-      <c r="E22">
+      <c r="E27" s="0">
         <v>1</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>911</v>
-      </c>
-      <c r="B23">
-        <v>0.051731550977645917</v>
-      </c>
-      <c r="C23">
-        <v>0.10346310195529185</v>
-      </c>
-      <c r="D23">
-        <v>1.011185909593638</v>
-      </c>
-      <c r="E23">
-        <v>1.0099504938362078</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>957</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="s">
-        <v>912</v>
-      </c>
-      <c r="B24">
-        <v>0.64435209661000203</v>
-      </c>
-      <c r="C24">
-        <v>0.32217604830500096</v>
-      </c>
-      <c r="D24">
-        <v>0.98893783083060027</v>
-      </c>
-      <c r="E24">
-        <v>0.99014754297667418</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>957</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="s">
-        <v>913</v>
-      </c>
-      <c r="B25">
+      <c r="F27" s="0" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C28" s="0">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D28" s="0">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B29" s="0">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B31" s="0">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B32" s="0">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B33" s="0">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B34" s="0">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B35" s="0">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0">
+        <v>0</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0">
+        <v>0</v>
+      </c>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B36" s="0">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B37" s="0">
+        <v>1.0061922463256359</v>
+      </c>
+      <c r="C37" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="C25">
+      <c r="D37" s="0">
+        <v>0</v>
+      </c>
+      <c r="E37" s="0">
+        <v>0</v>
+      </c>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B38" s="0">
+        <v>0.99622871975463567</v>
+      </c>
+      <c r="C38" s="0">
+        <v>0.99622871975463567</v>
+      </c>
+      <c r="D38" s="0">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B39" s="0">
+        <v>-0.0074361935641006766</v>
+      </c>
+      <c r="C39" s="0">
+        <v>-0.0074361935641006766</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0">
+        <v>0</v>
+      </c>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B40" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="C40" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="D40" s="0">
+        <v>0</v>
+      </c>
+      <c r="E40" s="0">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B41" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="C41" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D41" s="0">
+        <v>0</v>
+      </c>
+      <c r="E41" s="0">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B42" s="0">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="C42" s="0">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="D42" s="0">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0">
+        <v>0</v>
+      </c>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B43" s="0">
+        <v>10</v>
+      </c>
+      <c r="C43" s="0">
+        <v>10</v>
+      </c>
+      <c r="D43" s="0">
+        <v>0</v>
+      </c>
+      <c r="E43" s="0">
+        <v>0</v>
+      </c>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B44" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="D25">
+      <c r="C44" s="0">
+        <v>1.0049629315732038</v>
+      </c>
+      <c r="D44" s="0">
+        <v>0</v>
+      </c>
+      <c r="E44" s="0">
+        <v>0</v>
+      </c>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B45" s="0">
+        <v>6</v>
+      </c>
+      <c r="C45" s="0">
+        <v>6</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0">
+        <v>0</v>
+      </c>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B46" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="C46" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="D46" s="0">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0">
+        <v>0</v>
+      </c>
+      <c r="F46" s="0"/>
+      <c r="G46" s="0" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B47" s="0">
+        <v>0.84999999999999998</v>
+      </c>
+      <c r="C47" s="0">
+        <v>0.84999999999999998</v>
+      </c>
+      <c r="D47" s="0">
+        <v>0</v>
+      </c>
+      <c r="E47" s="0">
+        <v>0</v>
+      </c>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B48" s="0">
+        <v>60</v>
+      </c>
+      <c r="C48" s="0">
+        <v>60</v>
+      </c>
+      <c r="D48" s="0">
+        <v>0</v>
+      </c>
+      <c r="E48" s="0">
+        <v>0</v>
+      </c>
+      <c r="F48" s="0"/>
+      <c r="G48" s="0" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B49" s="0">
+        <v>300</v>
+      </c>
+      <c r="C49" s="0">
+        <v>300</v>
+      </c>
+      <c r="D49" s="0">
+        <v>0</v>
+      </c>
+      <c r="E49" s="0">
+        <v>0</v>
+      </c>
+      <c r="F49" s="0"/>
+      <c r="G49" s="0" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B50" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="C50" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="D50" s="0">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0">
+        <v>0</v>
+      </c>
+      <c r="F50" s="0"/>
+      <c r="G50" s="0" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B51" s="0">
+        <v>0.84999999999999998</v>
+      </c>
+      <c r="C51" s="0">
+        <v>0.84999999999999998</v>
+      </c>
+      <c r="D51" s="0">
+        <v>0</v>
+      </c>
+      <c r="E51" s="0">
+        <v>0</v>
+      </c>
+      <c r="F51" s="0"/>
+      <c r="G51" s="0" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B52" s="0">
+        <v>4</v>
+      </c>
+      <c r="C52" s="0">
+        <v>4</v>
+      </c>
+      <c r="D52" s="0">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0">
+        <v>0</v>
+      </c>
+      <c r="F52" s="0"/>
+      <c r="G52" s="0" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B53" s="0">
+        <v>0</v>
+      </c>
+      <c r="C53" s="0">
+        <v>0</v>
+      </c>
+      <c r="D53" s="0">
+        <v>0</v>
+      </c>
+      <c r="E53" s="0">
+        <v>0</v>
+      </c>
+      <c r="F53" s="0"/>
+      <c r="G53" s="0" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B54" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="C54" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="D54" s="0">
+        <v>0</v>
+      </c>
+      <c r="E54" s="0">
+        <v>0</v>
+      </c>
+      <c r="F54" s="0"/>
+      <c r="G54" s="0" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B55" s="0">
+        <v>0</v>
+      </c>
+      <c r="C55" s="0">
+        <v>0</v>
+      </c>
+      <c r="D55" s="0">
+        <v>0</v>
+      </c>
+      <c r="E55" s="0">
+        <v>0</v>
+      </c>
+      <c r="F55" s="0"/>
+      <c r="G55" s="0" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B56" s="0">
+        <v>0</v>
+      </c>
+      <c r="C56" s="0">
+        <v>0</v>
+      </c>
+      <c r="D56" s="0">
+        <v>0</v>
+      </c>
+      <c r="E56" s="0">
+        <v>0</v>
+      </c>
+      <c r="F56" s="0"/>
+      <c r="G56" s="0" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B57" s="0">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0">
+        <v>0</v>
+      </c>
+      <c r="D57" s="0">
+        <v>0</v>
+      </c>
+      <c r="E57" s="0">
+        <v>0</v>
+      </c>
+      <c r="F57" s="0"/>
+      <c r="G57" s="0" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B58" s="0">
+        <v>0</v>
+      </c>
+      <c r="C58" s="0">
+        <v>0</v>
+      </c>
+      <c r="D58" s="0">
+        <v>0</v>
+      </c>
+      <c r="E58" s="0">
+        <v>0</v>
+      </c>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B59" s="0">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0">
+        <v>0</v>
+      </c>
+      <c r="D59" s="0">
+        <v>0</v>
+      </c>
+      <c r="E59" s="0">
+        <v>0</v>
+      </c>
+      <c r="F59" s="0"/>
+      <c r="G59" s="0" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B60" s="0">
+        <v>0</v>
+      </c>
+      <c r="C60" s="0">
+        <v>0</v>
+      </c>
+      <c r="D60" s="0">
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="E60" s="0">
         <v>1</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>957</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="6" t="s">
-        <v>914</v>
-      </c>
-      <c r="B26">
-        <v>1.0200000000000002</v>
-      </c>
-      <c r="C26">
-        <v>1.0200000000000002</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>957</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="s">
-        <v>915</v>
-      </c>
-      <c r="B27">
-        <v>1.0111859095936382</v>
-      </c>
-      <c r="C27">
-        <v>1.0099504938362081</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>957</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="6" t="s">
-        <v>916</v>
-      </c>
-      <c r="B28">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C28">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>957</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="6" t="s">
-        <v>917</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="6" t="s">
-        <v>919</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="6" t="s">
-        <v>920</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="6" t="s">
-        <v>921</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="6" t="s">
-        <v>922</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="6" t="s">
-        <v>923</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="6" t="s">
-        <v>924</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="6" t="s">
-        <v>925</v>
-      </c>
-      <c r="B37">
-        <v>1.0061922463256359</v>
-      </c>
-      <c r="C37">
-        <v>1.0049629315732038</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="6" t="s">
-        <v>926</v>
-      </c>
-      <c r="B38">
-        <v>0.99622871975463567</v>
-      </c>
-      <c r="C38">
-        <v>0.99622871975463567</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="6" t="s">
-        <v>927</v>
-      </c>
-      <c r="B39">
-        <v>-0.0074361935641006766</v>
-      </c>
-      <c r="C39">
-        <v>-0.0074361935641006766</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="6" t="s">
-        <v>928</v>
-      </c>
-      <c r="B40">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="C40">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="6" t="s">
-        <v>929</v>
-      </c>
-      <c r="B41">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="C41">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="6" t="s">
-        <v>930</v>
-      </c>
-      <c r="B42">
-        <v>0.029999999999999999</v>
-      </c>
-      <c r="C42">
-        <v>0.029999999999999999</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="6" t="s">
-        <v>931</v>
-      </c>
-      <c r="B43">
-        <v>10</v>
-      </c>
-      <c r="C43">
-        <v>10</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="6" t="s">
-        <v>932</v>
-      </c>
-      <c r="B44">
-        <v>1.0049629315732038</v>
-      </c>
-      <c r="C44">
-        <v>1.0049629315732038</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="6" t="s">
-        <v>933</v>
-      </c>
-      <c r="B45">
-        <v>6</v>
-      </c>
-      <c r="C45">
-        <v>6</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="6" t="s">
-        <v>934</v>
-      </c>
-      <c r="B46">
-        <v>0.25</v>
-      </c>
-      <c r="C46">
-        <v>0.25</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="6" t="s">
-        <v>935</v>
-      </c>
-      <c r="B47">
-        <v>0.84999999999999998</v>
-      </c>
-      <c r="C47">
-        <v>0.84999999999999998</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="s">
-        <v>936</v>
-      </c>
-      <c r="B48">
-        <v>60</v>
-      </c>
-      <c r="C48">
-        <v>60</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="6" t="s">
-        <v>937</v>
-      </c>
-      <c r="B49">
-        <v>300</v>
-      </c>
-      <c r="C49">
-        <v>300</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="6" t="s">
-        <v>938</v>
-      </c>
-      <c r="B50">
-        <v>0.90000000000000002</v>
-      </c>
-      <c r="C50">
-        <v>0.90000000000000002</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="6" t="s">
-        <v>939</v>
-      </c>
-      <c r="B51">
-        <v>0.84999999999999998</v>
-      </c>
-      <c r="C51">
-        <v>0.84999999999999998</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="6" t="s">
-        <v>940</v>
-      </c>
-      <c r="B52">
-        <v>4</v>
-      </c>
-      <c r="C52">
-        <v>4</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="6" t="s">
-        <v>941</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="6" t="s">
-        <v>942</v>
-      </c>
-      <c r="B54">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="C54">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="6" t="s">
-        <v>943</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="6" t="s">
-        <v>944</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="6" t="s">
-        <v>945</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="6" t="s">
-        <v>946</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="6" t="s">
-        <v>947</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="6" t="s">
-        <v>948</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>1015</v>
+      <c r="F60" s="0" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>1270</v>
       </c>
     </row>
   </sheetData>

--- a/simple-spbc/steady.xlsx
+++ b/simple-spbc/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="1271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3900" uniqueCount="2795">
   <si>
     <t>Row</t>
   </si>
@@ -3064,6 +3064,4578 @@
   </si>
   <si>
     <t>Diffâ</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
   </si>
   <si>
     <t>Row</t>
@@ -3901,30 +8473,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1144</v>
+        <v>2668</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1204</v>
+        <v>2728</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1205</v>
+        <v>2729</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1206</v>
+        <v>2730</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1207</v>
+        <v>2731</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1208</v>
+        <v>2732</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1214</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1145</v>
+        <v>2669</v>
       </c>
       <c r="B2" s="0">
         <v>3.0199999999999783</v>
@@ -3939,15 +8511,15 @@
         <v>-1.1847197195174198e-17</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1209</v>
+        <v>2733</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1215</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1146</v>
+        <v>2670</v>
       </c>
       <c r="B3" s="0">
         <v>3.0199999999999783</v>
@@ -3962,15 +8534,15 @@
         <v>2.9407819612755486e-18</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>1209</v>
+        <v>2733</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>1216</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1147</v>
+        <v>2671</v>
       </c>
       <c r="B4" s="0">
         <v>2.000000000000024</v>
@@ -3985,15 +8557,15 @@
         <v>-1.0321621083814744e-17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>1209</v>
+        <v>2733</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>1217</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1148</v>
+        <v>2672</v>
       </c>
       <c r="B5" s="0">
         <v>2.4999999999998579</v>
@@ -4008,15 +8580,15 @@
         <v>1.0629776554815597e-14</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>1209</v>
+        <v>2733</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>1218</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1149</v>
+        <v>2673</v>
       </c>
       <c r="B6" s="0">
         <v>4.5499999999999652</v>
@@ -4031,15 +8603,15 @@
         <v>1.0520358363670791e-14</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>1209</v>
+        <v>2733</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>1219</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1150</v>
+        <v>2674</v>
       </c>
       <c r="B7" s="0">
         <v>1.5519465293293773</v>
@@ -4054,13 +8626,13 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>1210</v>
+        <v>2734</v>
       </c>
       <c r="G7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1151</v>
+        <v>2675</v>
       </c>
       <c r="B8" s="0">
         <v>1.5519465293293773</v>
@@ -4075,15 +8647,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>1210</v>
+        <v>2734</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>1220</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1152</v>
+        <v>2676</v>
       </c>
       <c r="B9" s="0">
         <v>0.74698177564761814</v>
@@ -4098,15 +8670,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>1210</v>
+        <v>2734</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>1221</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1153</v>
+        <v>2677</v>
       </c>
       <c r="B10" s="0">
         <v>1.7313525130113012</v>
@@ -4121,15 +8693,15 @@
         <v>1.0099504938362081</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>1210</v>
+        <v>2734</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>1222</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1154</v>
+        <v>2678</v>
       </c>
       <c r="B11" s="0">
         <v>0.83333333333333337</v>
@@ -4144,15 +8716,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>1210</v>
+        <v>2734</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>1223</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1155</v>
+        <v>2679</v>
       </c>
       <c r="B12" s="0">
         <v>1.5519465293293773</v>
@@ -4167,15 +8739,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>1210</v>
+        <v>2734</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>1224</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1156</v>
+        <v>2680</v>
       </c>
       <c r="B13" s="0">
         <v>1</v>
@@ -4190,15 +8762,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>1210</v>
+        <v>2734</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>1225</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1157</v>
+        <v>2681</v>
       </c>
       <c r="B14" s="0">
         <v>1.0061922463256359</v>
@@ -4213,15 +8785,15 @@
         <v>1</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>1210</v>
+        <v>2734</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>1226</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1158</v>
+        <v>2682</v>
       </c>
       <c r="B15" s="0">
         <v>1</v>
@@ -4236,15 +8808,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>1210</v>
+        <v>2734</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>1227</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1159</v>
+        <v>2683</v>
       </c>
       <c r="B16" s="0">
         <v>1.0074659719585326</v>
@@ -4259,15 +8831,15 @@
         <v>1</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>1210</v>
+        <v>2734</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>1228</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1160</v>
+        <v>2684</v>
       </c>
       <c r="B17" s="0">
         <v>1.0024906793143211</v>
@@ -4282,15 +8854,15 @@
         <v>1</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>1210</v>
+        <v>2734</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>1229</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1161</v>
+        <v>2685</v>
       </c>
       <c r="B18" s="0">
         <v>1.0074659719585326</v>
@@ -4305,15 +8877,15 @@
         <v>1</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>1210</v>
+        <v>2734</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>1230</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1162</v>
+        <v>2686</v>
       </c>
       <c r="B19" s="0">
         <v>1.0074659719585326</v>
@@ -4328,15 +8900,15 @@
         <v>1</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>1210</v>
+        <v>2734</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>1231</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1163</v>
+        <v>2687</v>
       </c>
       <c r="B20" s="0">
         <v>0</v>
@@ -4351,15 +8923,15 @@
         <v>-6.9234505873394988e-25</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>1211</v>
+        <v>2735</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>1232</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1164</v>
+        <v>2688</v>
       </c>
       <c r="B21" s="0">
         <v>1.5311735582263337</v>
@@ -4374,15 +8946,15 @@
         <v>1.0099504938362083</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>1212</v>
+        <v>2736</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>1233</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1165</v>
+        <v>2689</v>
       </c>
       <c r="B22" s="0">
         <v>1.0111859095936384</v>
@@ -4397,13 +8969,13 @@
         <v>1</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>1212</v>
+        <v>2736</v>
       </c>
       <c r="G22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1166</v>
+        <v>2690</v>
       </c>
       <c r="B23" s="0">
         <v>0.051731550977645917</v>
@@ -4418,15 +8990,15 @@
         <v>1.0099504938362078</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>1212</v>
+        <v>2736</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>1234</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1167</v>
+        <v>2691</v>
       </c>
       <c r="B24" s="0">
         <v>0.64435209661000203</v>
@@ -4441,15 +9013,15 @@
         <v>0.99014754297667418</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>1212</v>
+        <v>2736</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>1235</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1168</v>
+        <v>2692</v>
       </c>
       <c r="B25" s="0">
         <v>1.0049629315732038</v>
@@ -4464,15 +9036,15 @@
         <v>1</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>1212</v>
+        <v>2736</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>1236</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1169</v>
+        <v>2693</v>
       </c>
       <c r="B26" s="0">
         <v>1.0200000000000002</v>
@@ -4487,15 +9059,15 @@
         <v>1</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>1212</v>
+        <v>2736</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>1237</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1170</v>
+        <v>2694</v>
       </c>
       <c r="B27" s="0">
         <v>1.0111859095936382</v>
@@ -4510,15 +9082,15 @@
         <v>1</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>1212</v>
+        <v>2736</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>1238</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1171</v>
+        <v>2695</v>
       </c>
       <c r="B28" s="0">
         <v>0.83333333333333337</v>
@@ -4533,15 +9105,15 @@
         <v>1</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>1212</v>
+        <v>2736</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>1239</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>1172</v>
+        <v>2696</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -4557,12 +9129,12 @@
       </c>
       <c r="F29" s="0"/>
       <c r="G29" s="0" t="s">
-        <v>1240</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>1173</v>
+        <v>2697</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
@@ -4578,12 +9150,12 @@
       </c>
       <c r="F30" s="0"/>
       <c r="G30" s="0" t="s">
-        <v>1241</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>1174</v>
+        <v>2698</v>
       </c>
       <c r="B31" s="0">
         <v>0</v>
@@ -4599,12 +9171,12 @@
       </c>
       <c r="F31" s="0"/>
       <c r="G31" s="0" t="s">
-        <v>1242</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>1175</v>
+        <v>2699</v>
       </c>
       <c r="B32" s="0">
         <v>0</v>
@@ -4620,12 +9192,12 @@
       </c>
       <c r="F32" s="0"/>
       <c r="G32" s="0" t="s">
-        <v>1243</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>1176</v>
+        <v>2700</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
@@ -4641,12 +9213,12 @@
       </c>
       <c r="F33" s="0"/>
       <c r="G33" s="0" t="s">
-        <v>1244</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>1177</v>
+        <v>2701</v>
       </c>
       <c r="B34" s="0">
         <v>0</v>
@@ -4662,12 +9234,12 @@
       </c>
       <c r="F34" s="0"/>
       <c r="G34" s="0" t="s">
-        <v>1245</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>1178</v>
+        <v>2702</v>
       </c>
       <c r="B35" s="0">
         <v>0</v>
@@ -4683,12 +9255,12 @@
       </c>
       <c r="F35" s="0"/>
       <c r="G35" s="0" t="s">
-        <v>1246</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>1179</v>
+        <v>2703</v>
       </c>
       <c r="B36" s="0">
         <v>0</v>
@@ -4704,12 +9276,12 @@
       </c>
       <c r="F36" s="0"/>
       <c r="G36" s="0" t="s">
-        <v>1247</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>1180</v>
+        <v>2704</v>
       </c>
       <c r="B37" s="0">
         <v>1.0061922463256359</v>
@@ -4725,12 +9297,12 @@
       </c>
       <c r="F37" s="0"/>
       <c r="G37" s="0" t="s">
-        <v>1248</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>1181</v>
+        <v>2705</v>
       </c>
       <c r="B38" s="0">
         <v>0.99622871975463567</v>
@@ -4746,12 +9318,12 @@
       </c>
       <c r="F38" s="0"/>
       <c r="G38" s="0" t="s">
-        <v>1249</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>1182</v>
+        <v>2706</v>
       </c>
       <c r="B39" s="0">
         <v>-0.0074361935641006766</v>
@@ -4767,12 +9339,12 @@
       </c>
       <c r="F39" s="0"/>
       <c r="G39" s="0" t="s">
-        <v>1250</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>1183</v>
+        <v>2707</v>
       </c>
       <c r="B40" s="0">
         <v>0.80000000000000004</v>
@@ -4791,7 +9363,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>1184</v>
+        <v>2708</v>
       </c>
       <c r="B41" s="0">
         <v>0.59999999999999998</v>
@@ -4807,12 +9379,12 @@
       </c>
       <c r="F41" s="0"/>
       <c r="G41" s="0" t="s">
-        <v>1251</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>1185</v>
+        <v>2709</v>
       </c>
       <c r="B42" s="0">
         <v>0.029999999999999999</v>
@@ -4828,12 +9400,12 @@
       </c>
       <c r="F42" s="0"/>
       <c r="G42" s="0" t="s">
-        <v>1252</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>1186</v>
+        <v>2710</v>
       </c>
       <c r="B43" s="0">
         <v>10</v>
@@ -4849,12 +9421,12 @@
       </c>
       <c r="F43" s="0"/>
       <c r="G43" s="0" t="s">
-        <v>1253</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>1187</v>
+        <v>2711</v>
       </c>
       <c r="B44" s="0">
         <v>1.0049629315732038</v>
@@ -4870,12 +9442,12 @@
       </c>
       <c r="F44" s="0"/>
       <c r="G44" s="0" t="s">
-        <v>1254</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>1188</v>
+        <v>2712</v>
       </c>
       <c r="B45" s="0">
         <v>6</v>
@@ -4891,12 +9463,12 @@
       </c>
       <c r="F45" s="0"/>
       <c r="G45" s="0" t="s">
-        <v>1255</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>1189</v>
+        <v>2713</v>
       </c>
       <c r="B46" s="0">
         <v>0.25</v>
@@ -4912,12 +9484,12 @@
       </c>
       <c r="F46" s="0"/>
       <c r="G46" s="0" t="s">
-        <v>1256</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>1190</v>
+        <v>2714</v>
       </c>
       <c r="B47" s="0">
         <v>0.84999999999999998</v>
@@ -4933,12 +9505,12 @@
       </c>
       <c r="F47" s="0"/>
       <c r="G47" s="0" t="s">
-        <v>1257</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>1191</v>
+        <v>2715</v>
       </c>
       <c r="B48" s="0">
         <v>60</v>
@@ -4954,12 +9526,12 @@
       </c>
       <c r="F48" s="0"/>
       <c r="G48" s="0" t="s">
-        <v>1258</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>1192</v>
+        <v>2716</v>
       </c>
       <c r="B49" s="0">
         <v>300</v>
@@ -4975,12 +9547,12 @@
       </c>
       <c r="F49" s="0"/>
       <c r="G49" s="0" t="s">
-        <v>1259</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>1193</v>
+        <v>2717</v>
       </c>
       <c r="B50" s="0">
         <v>0.90000000000000002</v>
@@ -4996,12 +9568,12 @@
       </c>
       <c r="F50" s="0"/>
       <c r="G50" s="0" t="s">
-        <v>1260</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>1194</v>
+        <v>2718</v>
       </c>
       <c r="B51" s="0">
         <v>0.84999999999999998</v>
@@ -5017,12 +9589,12 @@
       </c>
       <c r="F51" s="0"/>
       <c r="G51" s="0" t="s">
-        <v>1261</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>1195</v>
+        <v>2719</v>
       </c>
       <c r="B52" s="0">
         <v>4</v>
@@ -5038,12 +9610,12 @@
       </c>
       <c r="F52" s="0"/>
       <c r="G52" s="0" t="s">
-        <v>1262</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>1196</v>
+        <v>2720</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -5059,12 +9631,12 @@
       </c>
       <c r="F53" s="0"/>
       <c r="G53" s="0" t="s">
-        <v>1263</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>1197</v>
+        <v>2721</v>
       </c>
       <c r="B54" s="0">
         <v>0.80000000000000004</v>
@@ -5080,12 +9652,12 @@
       </c>
       <c r="F54" s="0"/>
       <c r="G54" s="0" t="s">
-        <v>1264</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>1198</v>
+        <v>2722</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
@@ -5101,12 +9673,12 @@
       </c>
       <c r="F55" s="0"/>
       <c r="G55" s="0" t="s">
-        <v>1265</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>1199</v>
+        <v>2723</v>
       </c>
       <c r="B56" s="0">
         <v>0</v>
@@ -5122,12 +9694,12 @@
       </c>
       <c r="F56" s="0"/>
       <c r="G56" s="0" t="s">
-        <v>1266</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>1200</v>
+        <v>2724</v>
       </c>
       <c r="B57" s="0">
         <v>0</v>
@@ -5143,12 +9715,12 @@
       </c>
       <c r="F57" s="0"/>
       <c r="G57" s="0" t="s">
-        <v>1267</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>1201</v>
+        <v>2725</v>
       </c>
       <c r="B58" s="0">
         <v>0</v>
@@ -5164,12 +9736,12 @@
       </c>
       <c r="F58" s="0"/>
       <c r="G58" s="0" t="s">
-        <v>1268</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>1202</v>
+        <v>2726</v>
       </c>
       <c r="B59" s="0">
         <v>0</v>
@@ -5185,12 +9757,12 @@
       </c>
       <c r="F59" s="0"/>
       <c r="G59" s="0" t="s">
-        <v>1269</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>1203</v>
+        <v>2727</v>
       </c>
       <c r="B60" s="0">
         <v>0</v>
@@ -5205,10 +9777,10 @@
         <v>1</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>1213</v>
+        <v>2737</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>1270</v>
+        <v>2794</v>
       </c>
     </row>
   </sheetData>

--- a/simple-spbc/steady.xlsx
+++ b/simple-spbc/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3900" uniqueCount="2795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4050" uniqueCount="2922">
   <si>
     <t>Row</t>
   </si>
@@ -3064,6 +3064,387 @@
   </si>
   <si>
     <t>Diffâ</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
   </si>
   <si>
     <t>Row</t>
@@ -8473,30 +8854,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2668</v>
+        <v>2795</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2728</v>
+        <v>2855</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2729</v>
+        <v>2856</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2730</v>
+        <v>2857</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2731</v>
+        <v>2858</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>2732</v>
+        <v>2859</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>2738</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2669</v>
+        <v>2796</v>
       </c>
       <c r="B2" s="0">
         <v>3.0199999999999783</v>
@@ -8511,15 +8892,15 @@
         <v>-1.1847197195174198e-17</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2733</v>
+        <v>2860</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2739</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2670</v>
+        <v>2797</v>
       </c>
       <c r="B3" s="0">
         <v>3.0199999999999783</v>
@@ -8534,15 +8915,15 @@
         <v>2.9407819612755486e-18</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>2733</v>
+        <v>2860</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>2740</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2671</v>
+        <v>2798</v>
       </c>
       <c r="B4" s="0">
         <v>2.000000000000024</v>
@@ -8557,15 +8938,15 @@
         <v>-1.0321621083814744e-17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>2733</v>
+        <v>2860</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>2741</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2672</v>
+        <v>2799</v>
       </c>
       <c r="B5" s="0">
         <v>2.4999999999998579</v>
@@ -8580,15 +8961,15 @@
         <v>1.0629776554815597e-14</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>2733</v>
+        <v>2860</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>2742</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2673</v>
+        <v>2800</v>
       </c>
       <c r="B6" s="0">
         <v>4.5499999999999652</v>
@@ -8603,15 +8984,15 @@
         <v>1.0520358363670791e-14</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>2733</v>
+        <v>2860</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>2743</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2674</v>
+        <v>2801</v>
       </c>
       <c r="B7" s="0">
         <v>1.5519465293293773</v>
@@ -8626,13 +9007,13 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>2734</v>
+        <v>2861</v>
       </c>
       <c r="G7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2675</v>
+        <v>2802</v>
       </c>
       <c r="B8" s="0">
         <v>1.5519465293293773</v>
@@ -8647,15 +9028,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>2734</v>
+        <v>2861</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>2744</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2676</v>
+        <v>2803</v>
       </c>
       <c r="B9" s="0">
         <v>0.74698177564761814</v>
@@ -8670,15 +9051,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>2734</v>
+        <v>2861</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>2745</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2677</v>
+        <v>2804</v>
       </c>
       <c r="B10" s="0">
         <v>1.7313525130113012</v>
@@ -8693,15 +9074,15 @@
         <v>1.0099504938362081</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>2734</v>
+        <v>2861</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>2746</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2678</v>
+        <v>2805</v>
       </c>
       <c r="B11" s="0">
         <v>0.83333333333333337</v>
@@ -8716,15 +9097,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>2734</v>
+        <v>2861</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>2747</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2679</v>
+        <v>2806</v>
       </c>
       <c r="B12" s="0">
         <v>1.5519465293293773</v>
@@ -8739,15 +9120,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>2734</v>
+        <v>2861</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>2748</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2680</v>
+        <v>2807</v>
       </c>
       <c r="B13" s="0">
         <v>1</v>
@@ -8762,15 +9143,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>2734</v>
+        <v>2861</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>2749</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2681</v>
+        <v>2808</v>
       </c>
       <c r="B14" s="0">
         <v>1.0061922463256359</v>
@@ -8785,15 +9166,15 @@
         <v>1</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>2734</v>
+        <v>2861</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>2750</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2682</v>
+        <v>2809</v>
       </c>
       <c r="B15" s="0">
         <v>1</v>
@@ -8808,15 +9189,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>2734</v>
+        <v>2861</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>2751</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2683</v>
+        <v>2810</v>
       </c>
       <c r="B16" s="0">
         <v>1.0074659719585326</v>
@@ -8831,15 +9212,15 @@
         <v>1</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>2734</v>
+        <v>2861</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>2752</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2684</v>
+        <v>2811</v>
       </c>
       <c r="B17" s="0">
         <v>1.0024906793143211</v>
@@ -8854,15 +9235,15 @@
         <v>1</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>2734</v>
+        <v>2861</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>2753</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2685</v>
+        <v>2812</v>
       </c>
       <c r="B18" s="0">
         <v>1.0074659719585326</v>
@@ -8877,15 +9258,15 @@
         <v>1</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>2734</v>
+        <v>2861</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>2754</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2686</v>
+        <v>2813</v>
       </c>
       <c r="B19" s="0">
         <v>1.0074659719585326</v>
@@ -8900,15 +9281,15 @@
         <v>1</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>2734</v>
+        <v>2861</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>2755</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2687</v>
+        <v>2814</v>
       </c>
       <c r="B20" s="0">
         <v>0</v>
@@ -8923,15 +9304,15 @@
         <v>-6.9234505873394988e-25</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>2735</v>
+        <v>2862</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>2756</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2688</v>
+        <v>2815</v>
       </c>
       <c r="B21" s="0">
         <v>1.5311735582263337</v>
@@ -8946,15 +9327,15 @@
         <v>1.0099504938362083</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>2736</v>
+        <v>2863</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>2757</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2689</v>
+        <v>2816</v>
       </c>
       <c r="B22" s="0">
         <v>1.0111859095936384</v>
@@ -8969,13 +9350,13 @@
         <v>1</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>2736</v>
+        <v>2863</v>
       </c>
       <c r="G22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2690</v>
+        <v>2817</v>
       </c>
       <c r="B23" s="0">
         <v>0.051731550977645917</v>
@@ -8990,15 +9371,15 @@
         <v>1.0099504938362078</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>2736</v>
+        <v>2863</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>2758</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2691</v>
+        <v>2818</v>
       </c>
       <c r="B24" s="0">
         <v>0.64435209661000203</v>
@@ -9013,15 +9394,15 @@
         <v>0.99014754297667418</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>2736</v>
+        <v>2863</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>2759</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2692</v>
+        <v>2819</v>
       </c>
       <c r="B25" s="0">
         <v>1.0049629315732038</v>
@@ -9036,15 +9417,15 @@
         <v>1</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>2736</v>
+        <v>2863</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>2760</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2693</v>
+        <v>2820</v>
       </c>
       <c r="B26" s="0">
         <v>1.0200000000000002</v>
@@ -9059,15 +9440,15 @@
         <v>1</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>2736</v>
+        <v>2863</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>2761</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2694</v>
+        <v>2821</v>
       </c>
       <c r="B27" s="0">
         <v>1.0111859095936382</v>
@@ -9082,15 +9463,15 @@
         <v>1</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>2736</v>
+        <v>2863</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>2762</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2695</v>
+        <v>2822</v>
       </c>
       <c r="B28" s="0">
         <v>0.83333333333333337</v>
@@ -9105,15 +9486,15 @@
         <v>1</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>2736</v>
+        <v>2863</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>2763</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2696</v>
+        <v>2823</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -9129,12 +9510,12 @@
       </c>
       <c r="F29" s="0"/>
       <c r="G29" s="0" t="s">
-        <v>2764</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>2697</v>
+        <v>2824</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
@@ -9150,12 +9531,12 @@
       </c>
       <c r="F30" s="0"/>
       <c r="G30" s="0" t="s">
-        <v>2765</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>2698</v>
+        <v>2825</v>
       </c>
       <c r="B31" s="0">
         <v>0</v>
@@ -9171,12 +9552,12 @@
       </c>
       <c r="F31" s="0"/>
       <c r="G31" s="0" t="s">
-        <v>2766</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>2699</v>
+        <v>2826</v>
       </c>
       <c r="B32" s="0">
         <v>0</v>
@@ -9192,12 +9573,12 @@
       </c>
       <c r="F32" s="0"/>
       <c r="G32" s="0" t="s">
-        <v>2767</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>2700</v>
+        <v>2827</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
@@ -9213,12 +9594,12 @@
       </c>
       <c r="F33" s="0"/>
       <c r="G33" s="0" t="s">
-        <v>2768</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>2701</v>
+        <v>2828</v>
       </c>
       <c r="B34" s="0">
         <v>0</v>
@@ -9234,12 +9615,12 @@
       </c>
       <c r="F34" s="0"/>
       <c r="G34" s="0" t="s">
-        <v>2769</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>2702</v>
+        <v>2829</v>
       </c>
       <c r="B35" s="0">
         <v>0</v>
@@ -9255,12 +9636,12 @@
       </c>
       <c r="F35" s="0"/>
       <c r="G35" s="0" t="s">
-        <v>2770</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>2703</v>
+        <v>2830</v>
       </c>
       <c r="B36" s="0">
         <v>0</v>
@@ -9276,12 +9657,12 @@
       </c>
       <c r="F36" s="0"/>
       <c r="G36" s="0" t="s">
-        <v>2771</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>2704</v>
+        <v>2831</v>
       </c>
       <c r="B37" s="0">
         <v>1.0061922463256359</v>
@@ -9297,12 +9678,12 @@
       </c>
       <c r="F37" s="0"/>
       <c r="G37" s="0" t="s">
-        <v>2772</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>2705</v>
+        <v>2832</v>
       </c>
       <c r="B38" s="0">
         <v>0.99622871975463567</v>
@@ -9318,12 +9699,12 @@
       </c>
       <c r="F38" s="0"/>
       <c r="G38" s="0" t="s">
-        <v>2773</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>2706</v>
+        <v>2833</v>
       </c>
       <c r="B39" s="0">
         <v>-0.0074361935641006766</v>
@@ -9339,12 +9720,12 @@
       </c>
       <c r="F39" s="0"/>
       <c r="G39" s="0" t="s">
-        <v>2774</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>2707</v>
+        <v>2834</v>
       </c>
       <c r="B40" s="0">
         <v>0.80000000000000004</v>
@@ -9363,7 +9744,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>2708</v>
+        <v>2835</v>
       </c>
       <c r="B41" s="0">
         <v>0.59999999999999998</v>
@@ -9379,12 +9760,12 @@
       </c>
       <c r="F41" s="0"/>
       <c r="G41" s="0" t="s">
-        <v>2775</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>2709</v>
+        <v>2836</v>
       </c>
       <c r="B42" s="0">
         <v>0.029999999999999999</v>
@@ -9400,12 +9781,12 @@
       </c>
       <c r="F42" s="0"/>
       <c r="G42" s="0" t="s">
-        <v>2776</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>2710</v>
+        <v>2837</v>
       </c>
       <c r="B43" s="0">
         <v>10</v>
@@ -9421,12 +9802,12 @@
       </c>
       <c r="F43" s="0"/>
       <c r="G43" s="0" t="s">
-        <v>2777</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>2711</v>
+        <v>2838</v>
       </c>
       <c r="B44" s="0">
         <v>1.0049629315732038</v>
@@ -9442,12 +9823,12 @@
       </c>
       <c r="F44" s="0"/>
       <c r="G44" s="0" t="s">
-        <v>2778</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>2712</v>
+        <v>2839</v>
       </c>
       <c r="B45" s="0">
         <v>6</v>
@@ -9463,12 +9844,12 @@
       </c>
       <c r="F45" s="0"/>
       <c r="G45" s="0" t="s">
-        <v>2779</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>2713</v>
+        <v>2840</v>
       </c>
       <c r="B46" s="0">
         <v>0.25</v>
@@ -9484,12 +9865,12 @@
       </c>
       <c r="F46" s="0"/>
       <c r="G46" s="0" t="s">
-        <v>2780</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>2714</v>
+        <v>2841</v>
       </c>
       <c r="B47" s="0">
         <v>0.84999999999999998</v>
@@ -9505,12 +9886,12 @@
       </c>
       <c r="F47" s="0"/>
       <c r="G47" s="0" t="s">
-        <v>2781</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>2715</v>
+        <v>2842</v>
       </c>
       <c r="B48" s="0">
         <v>60</v>
@@ -9526,12 +9907,12 @@
       </c>
       <c r="F48" s="0"/>
       <c r="G48" s="0" t="s">
-        <v>2782</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>2716</v>
+        <v>2843</v>
       </c>
       <c r="B49" s="0">
         <v>300</v>
@@ -9547,12 +9928,12 @@
       </c>
       <c r="F49" s="0"/>
       <c r="G49" s="0" t="s">
-        <v>2783</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>2717</v>
+        <v>2844</v>
       </c>
       <c r="B50" s="0">
         <v>0.90000000000000002</v>
@@ -9568,12 +9949,12 @@
       </c>
       <c r="F50" s="0"/>
       <c r="G50" s="0" t="s">
-        <v>2784</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>2718</v>
+        <v>2845</v>
       </c>
       <c r="B51" s="0">
         <v>0.84999999999999998</v>
@@ -9589,12 +9970,12 @@
       </c>
       <c r="F51" s="0"/>
       <c r="G51" s="0" t="s">
-        <v>2785</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>2719</v>
+        <v>2846</v>
       </c>
       <c r="B52" s="0">
         <v>4</v>
@@ -9610,12 +9991,12 @@
       </c>
       <c r="F52" s="0"/>
       <c r="G52" s="0" t="s">
-        <v>2786</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>2720</v>
+        <v>2847</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -9631,12 +10012,12 @@
       </c>
       <c r="F53" s="0"/>
       <c r="G53" s="0" t="s">
-        <v>2787</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>2721</v>
+        <v>2848</v>
       </c>
       <c r="B54" s="0">
         <v>0.80000000000000004</v>
@@ -9652,12 +10033,12 @@
       </c>
       <c r="F54" s="0"/>
       <c r="G54" s="0" t="s">
-        <v>2788</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>2722</v>
+        <v>2849</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
@@ -9673,12 +10054,12 @@
       </c>
       <c r="F55" s="0"/>
       <c r="G55" s="0" t="s">
-        <v>2789</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>2723</v>
+        <v>2850</v>
       </c>
       <c r="B56" s="0">
         <v>0</v>
@@ -9694,12 +10075,12 @@
       </c>
       <c r="F56" s="0"/>
       <c r="G56" s="0" t="s">
-        <v>2790</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>2724</v>
+        <v>2851</v>
       </c>
       <c r="B57" s="0">
         <v>0</v>
@@ -9715,12 +10096,12 @@
       </c>
       <c r="F57" s="0"/>
       <c r="G57" s="0" t="s">
-        <v>2791</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>2725</v>
+        <v>2852</v>
       </c>
       <c r="B58" s="0">
         <v>0</v>
@@ -9736,12 +10117,12 @@
       </c>
       <c r="F58" s="0"/>
       <c r="G58" s="0" t="s">
-        <v>2792</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>2726</v>
+        <v>2853</v>
       </c>
       <c r="B59" s="0">
         <v>0</v>
@@ -9757,12 +10138,12 @@
       </c>
       <c r="F59" s="0"/>
       <c r="G59" s="0" t="s">
-        <v>2793</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>2727</v>
+        <v>2854</v>
       </c>
       <c r="B60" s="0">
         <v>0</v>
@@ -9777,10 +10158,10 @@
         <v>1</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>2737</v>
+        <v>2864</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>2794</v>
+        <v>2921</v>
       </c>
     </row>
   </sheetData>

--- a/simple-spbc/steady.xlsx
+++ b/simple-spbc/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4050" uniqueCount="2922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4650" uniqueCount="2922">
   <si>
     <t>Row</t>
   </si>
@@ -8799,7 +8799,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -8816,11 +8816,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -8831,6 +8839,14 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8843,1324 +8859,1290 @@
   <dimension ref="A1:G60"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
-    <col min="3" max="3" width="15.5703125" customWidth="true"/>
+    <col min="1" max="1" width="9.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
-    <col min="5" max="5" width="16.28515625" customWidth="true"/>
-    <col min="6" max="6" width="6.7109375" customWidth="true"/>
-    <col min="7" max="7" width="41.5703125" customWidth="true"/>
+    <col min="5" max="5" width="16.7109375" customWidth="true"/>
+    <col min="6" max="6" width="7.7109375" customWidth="true"/>
+    <col min="7" max="7" width="46.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="16" t="s">
         <v>2795</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="16" t="s">
         <v>2855</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="16" t="s">
         <v>2856</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="16" t="s">
         <v>2857</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="16" t="s">
         <v>2858</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="16" t="s">
         <v>2859</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="16" t="s">
         <v>2865</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="16" t="s">
         <v>2796</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>3.0199999999999783</v>
       </c>
-      <c r="C2" s="0">
-        <v>2.5174634146343253</v>
-      </c>
-      <c r="D2" s="0">
+      <c r="C2">
+        <v>2.5174634146343262</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="0">
-        <v>-1.1847197195174198e-17</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>2860</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="E2">
+        <v>-1.0472971942382604e-16</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>2866</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="16" t="s">
         <v>2797</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>3.0199999999999783</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>2.5174634146343244</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="0">
-        <v>2.9407819612755486e-18</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>2860</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="E3">
+        <v>-2.9005377991233062e-17</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>2867</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="16" t="s">
         <v>2798</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>2.000000000000024</v>
       </c>
-      <c r="C4" s="0">
-        <v>2.0000000000000129</v>
-      </c>
-      <c r="D4" s="0">
+      <c r="C4">
+        <v>2.0000000000000124</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="0">
-        <v>-1.0321621083814744e-17</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>2860</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="E4">
+        <v>5.3260875473912238e-18</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>2868</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="16" t="s">
         <v>2799</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>2.4999999999998579</v>
       </c>
-      <c r="C5" s="0">
-        <v>2.0000000000000067</v>
-      </c>
-      <c r="D5" s="0">
+      <c r="C5">
+        <v>2.0000000000000404</v>
+      </c>
+      <c r="D5">
         <v>2.960594732333751e-14</v>
       </c>
-      <c r="E5" s="0">
-        <v>1.0629776554815597e-14</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>2860</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="E5">
+        <v>1.4614062843220118e-17</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>2869</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="16" t="s">
         <v>2800</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>4.5499999999999652</v>
       </c>
-      <c r="C6" s="0">
-        <v>4.040000000000064</v>
-      </c>
-      <c r="D6" s="0">
+      <c r="C6">
+        <v>4.0400000000000658</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="0">
-        <v>1.0520358363670791e-14</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>2860</v>
-      </c>
-      <c r="G6" s="0" t="s">
+      <c r="E6">
+        <v>2.1894689470238414e-14</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>2870</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>2801</v>
-      </c>
-      <c r="B7" s="0">
+      <c r="A7" s="16" t="s">
+        <v>2871</v>
+      </c>
+      <c r="B7">
         <v>1.5519465293293773</v>
       </c>
-      <c r="C7" s="0">
-        <v>3.103893058658755</v>
-      </c>
-      <c r="D7" s="0">
+      <c r="C7">
+        <v>3.1038930586587541</v>
+      </c>
+      <c r="D7">
         <v>1.0061922463256356</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>2861</v>
-      </c>
-      <c r="G7" s="0"/>
+      <c r="F7" s="16" t="s">
+        <v>2863</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="16" t="s">
         <v>2802</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>1.5519465293293773</v>
       </c>
-      <c r="C8" s="0">
-        <v>3.103893058658755</v>
-      </c>
-      <c r="D8" s="0">
+      <c r="C8">
+        <v>3.1038930586587541</v>
+      </c>
+      <c r="D8">
         <v>1.0061922463256356</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>2861</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="F8" s="16" t="s">
+        <v>2863</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>2871</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="16" t="s">
         <v>2803</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>0.74698177564761814</v>
       </c>
-      <c r="C9" s="0">
-        <v>0.74698177564761825</v>
-      </c>
-      <c r="D9" s="0">
+      <c r="C9">
+        <v>0.74698177564761814</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>2861</v>
-      </c>
-      <c r="G9" s="0" t="s">
+      <c r="F9" s="16" t="s">
+        <v>2863</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>2872</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="16" t="s">
         <v>2804</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>1.7313525130113012</v>
       </c>
-      <c r="C10" s="0">
+      <c r="C10">
         <v>3.4627050260226024</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10">
         <v>1.0111859095936382</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10">
         <v>1.0099504938362081</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>2861</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="F10" s="16" t="s">
+        <v>2863</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>2873</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="16" t="s">
         <v>2805</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C11" s="0">
+      <c r="C11">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11">
         <v>1.0049629315732038</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>2861</v>
-      </c>
-      <c r="G11" s="0" t="s">
+      <c r="F11" s="16" t="s">
+        <v>2863</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>2874</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="16" t="s">
         <v>2806</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>1.5519465293293773</v>
       </c>
-      <c r="C12" s="0">
-        <v>3.103893058658755</v>
-      </c>
-      <c r="D12" s="0">
+      <c r="C12">
+        <v>3.1038930586587541</v>
+      </c>
+      <c r="D12">
         <v>1.0061922463256356</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>2861</v>
-      </c>
-      <c r="G12" s="0" t="s">
+      <c r="F12" s="16" t="s">
+        <v>2863</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>2875</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="16" t="s">
         <v>2807</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="0">
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13">
         <v>1.0061922463256356</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>2861</v>
-      </c>
-      <c r="G13" s="0" t="s">
+      <c r="F13" s="16" t="s">
+        <v>2863</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>2876</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="16" t="s">
         <v>2808</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>1.0061922463256359</v>
       </c>
-      <c r="C14" s="0">
+      <c r="C14">
         <v>1.0049629315732038</v>
       </c>
-      <c r="D14" s="0">
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>2861</v>
-      </c>
-      <c r="G14" s="0" t="s">
+      <c r="F14" s="16" t="s">
+        <v>2863</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>2877</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="16" t="s">
         <v>2809</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="0">
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="0">
+      <c r="D15">
         <v>1.0049629315732038</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>2861</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="F15" s="16" t="s">
+        <v>2863</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>2878</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="16" t="s">
         <v>2810</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>1.0074659719585326</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16">
         <v>1.0062351010325994</v>
       </c>
-      <c r="D16" s="0">
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>2861</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="F16" s="16" t="s">
+        <v>2863</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>2879</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="16" t="s">
         <v>2811</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>1.0024906793143211</v>
       </c>
-      <c r="C17" s="0">
-        <v>1.0012658869490878</v>
-      </c>
-      <c r="D17" s="0">
+      <c r="C17">
+        <v>1.001265886949088</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="0" t="s">
-        <v>2861</v>
-      </c>
-      <c r="G17" s="0" t="s">
+      <c r="F17" s="16" t="s">
+        <v>2863</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>2880</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="16" t="s">
         <v>2812</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>1.0074659719585326</v>
       </c>
-      <c r="C18" s="0">
+      <c r="C18">
         <v>1.0062351010325994</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>2861</v>
-      </c>
-      <c r="G18" s="0" t="s">
+      <c r="F18" s="16" t="s">
+        <v>2863</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>2881</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="16" t="s">
         <v>2813</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>1.0074659719585326</v>
       </c>
-      <c r="C19" s="0">
+      <c r="C19">
         <v>1.0062351010325994</v>
       </c>
-      <c r="D19" s="0">
+      <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" s="0" t="s">
-        <v>2861</v>
-      </c>
-      <c r="G19" s="0" t="s">
+      <c r="F19" s="16" t="s">
+        <v>2863</v>
+      </c>
+      <c r="G19" s="16" t="s">
         <v>2882</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="16" t="s">
         <v>2814</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" s="0">
-        <v>3.4983671459173163e-24</v>
-      </c>
-      <c r="D20" s="0">
+      <c r="C20">
+        <v>7.9773226406187334e-19</v>
+      </c>
+      <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="0">
-        <v>-6.9234505873394988e-25</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>2862</v>
-      </c>
-      <c r="G20" s="0" t="s">
+      <c r="E20">
+        <v>-3.8621899266967228e-20</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G20" s="16" t="s">
         <v>2883</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="16" t="s">
         <v>2815</v>
       </c>
-      <c r="B21" s="0">
-        <v>1.5311735582263337</v>
-      </c>
-      <c r="C21" s="0">
-        <v>3.0623471164526799</v>
-      </c>
-      <c r="D21" s="0">
-        <v>1.0111859095936384</v>
-      </c>
-      <c r="E21" s="0">
-        <v>1.0099504938362083</v>
-      </c>
-      <c r="F21" s="0" t="s">
+      <c r="B21">
+        <v>1.531173558226345</v>
+      </c>
+      <c r="C21">
+        <v>3.0623471164526221</v>
+      </c>
+      <c r="D21">
+        <v>1.0111859095936389</v>
+      </c>
+      <c r="E21">
+        <v>1.0099504938362078</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>2863</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="16" t="s">
         <v>2884</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="16" t="s">
         <v>2816</v>
       </c>
-      <c r="B22" s="0">
-        <v>1.0111859095936384</v>
-      </c>
-      <c r="C22" s="0">
-        <v>1.0099504938362083</v>
-      </c>
-      <c r="D22" s="0">
+      <c r="B22">
+        <v>1.0111859095936389</v>
+      </c>
+      <c r="C22">
+        <v>1.0099504938362078</v>
+      </c>
+      <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="16" t="s">
         <v>2863</v>
       </c>
-      <c r="G22" s="0"/>
     </row>
     <row r="23">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="16" t="s">
         <v>2817</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>0.051731550977645917</v>
       </c>
-      <c r="C23" s="0">
+      <c r="C23">
         <v>0.10346310195529185</v>
       </c>
-      <c r="D23" s="0">
+      <c r="D23">
         <v>1.011185909593638</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23">
         <v>1.0099504938362078</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="16" t="s">
         <v>2863</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="16" t="s">
         <v>2885</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="16" t="s">
         <v>2818</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B24">
         <v>0.64435209661000203</v>
       </c>
-      <c r="C24" s="0">
-        <v>0.32217604830500091</v>
-      </c>
-      <c r="D24" s="0">
+      <c r="C24">
+        <v>0.32217604830500096</v>
+      </c>
+      <c r="D24">
         <v>0.98893783083060027</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24">
         <v>0.99014754297667418</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="16" t="s">
         <v>2863</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="16" t="s">
         <v>2886</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="16" t="s">
         <v>2819</v>
       </c>
-      <c r="B25" s="0">
+      <c r="B25">
         <v>1.0049629315732038</v>
       </c>
-      <c r="C25" s="0">
+      <c r="C25">
         <v>1.0049629315732038</v>
       </c>
-      <c r="D25" s="0">
+      <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="16" t="s">
         <v>2863</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="16" t="s">
         <v>2887</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="16" t="s">
         <v>2820</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B26">
         <v>1.0200000000000002</v>
       </c>
-      <c r="C26" s="0">
-        <v>1.02</v>
-      </c>
-      <c r="D26" s="0">
+      <c r="C26">
+        <v>1.0200000000000002</v>
+      </c>
+      <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="16" t="s">
         <v>2863</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="16" t="s">
         <v>2888</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="16" t="s">
         <v>2821</v>
       </c>
-      <c r="B27" s="0">
+      <c r="B27">
         <v>1.0111859095936382</v>
       </c>
-      <c r="C27" s="0">
-        <v>1.0099504938362078</v>
-      </c>
-      <c r="D27" s="0">
+      <c r="C27">
+        <v>1.0099504938362081</v>
+      </c>
+      <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="0">
+      <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="16" t="s">
         <v>2863</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="16" t="s">
         <v>2889</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="16" t="s">
         <v>2822</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C28" s="0">
+      <c r="C28">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D28" s="0">
+      <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="16" t="s">
         <v>2863</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="16" t="s">
         <v>2890</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="16" t="s">
         <v>2823</v>
       </c>
-      <c r="B29" s="0">
+      <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29" s="0">
+      <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29" s="0">
+      <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" s="0">
+      <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" s="0"/>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="16" t="s">
         <v>2891</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="16" t="s">
         <v>2824</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30" s="0">
+      <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30" s="0">
+      <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" s="0"/>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="16" t="s">
         <v>2892</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="16" t="s">
         <v>2825</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31" s="0">
+      <c r="C31">
         <v>0</v>
       </c>
-      <c r="D31" s="0">
+      <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" s="0"/>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="16" t="s">
         <v>2893</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="16" t="s">
         <v>2826</v>
       </c>
-      <c r="B32" s="0">
+      <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32" s="0">
+      <c r="C32">
         <v>0</v>
       </c>
-      <c r="D32" s="0">
+      <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" s="0">
+      <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="16" t="s">
         <v>2894</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="16" t="s">
         <v>2827</v>
       </c>
-      <c r="B33" s="0">
+      <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33" s="0">
+      <c r="C33">
         <v>0</v>
       </c>
-      <c r="D33" s="0">
+      <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="16" t="s">
         <v>2895</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="16" t="s">
         <v>2828</v>
       </c>
-      <c r="B34" s="0">
+      <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34" s="0">
+      <c r="C34">
         <v>0</v>
       </c>
-      <c r="D34" s="0">
+      <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34" s="0">
+      <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" s="0"/>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="16" t="s">
         <v>2896</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="16" t="s">
         <v>2829</v>
       </c>
-      <c r="B35" s="0">
+      <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35" s="0">
+      <c r="C35">
         <v>0</v>
       </c>
-      <c r="D35" s="0">
+      <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" s="0">
+      <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0" t="s">
+      <c r="G35" s="16" t="s">
         <v>2897</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="16" t="s">
         <v>2830</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B36">
         <v>0</v>
       </c>
-      <c r="C36" s="0">
+      <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36" s="0">
+      <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36" s="0">
+      <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36" s="0"/>
-      <c r="G36" s="0" t="s">
+      <c r="G36" s="16" t="s">
         <v>2898</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="16" t="s">
         <v>2831</v>
       </c>
-      <c r="B37" s="0">
+      <c r="B37">
         <v>1.0061922463256359</v>
       </c>
-      <c r="C37" s="0">
+      <c r="C37">
         <v>1.0049629315732038</v>
       </c>
-      <c r="D37" s="0">
+      <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37" s="0">
+      <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37" s="0"/>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="16" t="s">
         <v>2899</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="16" t="s">
         <v>2832</v>
       </c>
-      <c r="B38" s="0">
+      <c r="B38">
         <v>0.99622871975463567</v>
       </c>
-      <c r="C38" s="0">
+      <c r="C38">
         <v>0.99622871975463567</v>
       </c>
-      <c r="D38" s="0">
+      <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38" s="0">
+      <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38" s="0"/>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="16" t="s">
         <v>2900</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="16" t="s">
         <v>2833</v>
       </c>
-      <c r="B39" s="0">
+      <c r="B39">
         <v>-0.0074361935641006766</v>
       </c>
-      <c r="C39" s="0">
+      <c r="C39">
         <v>-0.0074361935641006766</v>
       </c>
-      <c r="D39" s="0">
+      <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39" s="0">
+      <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39" s="0"/>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="16" t="s">
         <v>2901</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="16" t="s">
         <v>2834</v>
       </c>
-      <c r="B40" s="0">
+      <c r="B40">
         <v>0.80000000000000004</v>
       </c>
-      <c r="C40" s="0">
+      <c r="C40">
         <v>0.80000000000000004</v>
       </c>
-      <c r="D40" s="0">
+      <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40" s="0">
+      <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40" s="0"/>
-      <c r="G40" s="0"/>
     </row>
     <row r="41">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="16" t="s">
         <v>2835</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B41">
         <v>0.59999999999999998</v>
       </c>
-      <c r="C41" s="0">
+      <c r="C41">
         <v>0.59999999999999998</v>
       </c>
-      <c r="D41" s="0">
+      <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" s="0">
+      <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0" t="s">
+      <c r="G41" s="16" t="s">
         <v>2902</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="16" t="s">
         <v>2836</v>
       </c>
-      <c r="B42" s="0">
+      <c r="B42">
         <v>0.029999999999999999</v>
       </c>
-      <c r="C42" s="0">
+      <c r="C42">
         <v>0.029999999999999999</v>
       </c>
-      <c r="D42" s="0">
+      <c r="D42">
         <v>0</v>
       </c>
-      <c r="E42" s="0">
+      <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42" s="0"/>
-      <c r="G42" s="0" t="s">
+      <c r="G42" s="16" t="s">
         <v>2903</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="16" t="s">
         <v>2837</v>
       </c>
-      <c r="B43" s="0">
+      <c r="B43">
         <v>10</v>
       </c>
-      <c r="C43" s="0">
+      <c r="C43">
         <v>10</v>
       </c>
-      <c r="D43" s="0">
+      <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43" s="0">
+      <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43" s="0"/>
-      <c r="G43" s="0" t="s">
+      <c r="G43" s="16" t="s">
         <v>2904</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="16" t="s">
         <v>2838</v>
       </c>
-      <c r="B44" s="0">
+      <c r="B44">
         <v>1.0049629315732038</v>
       </c>
-      <c r="C44" s="0">
+      <c r="C44">
         <v>1.0049629315732038</v>
       </c>
-      <c r="D44" s="0">
+      <c r="D44">
         <v>0</v>
       </c>
-      <c r="E44" s="0">
+      <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44" s="0"/>
-      <c r="G44" s="0" t="s">
+      <c r="G44" s="16" t="s">
         <v>2905</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="16" t="s">
         <v>2839</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B45">
         <v>6</v>
       </c>
-      <c r="C45" s="0">
+      <c r="C45">
         <v>6</v>
       </c>
-      <c r="D45" s="0">
+      <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" s="0">
+      <c r="E45">
         <v>0</v>
       </c>
-      <c r="F45" s="0"/>
-      <c r="G45" s="0" t="s">
+      <c r="G45" s="16" t="s">
         <v>2906</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="16" t="s">
         <v>2840</v>
       </c>
-      <c r="B46" s="0">
+      <c r="B46">
         <v>0.25</v>
       </c>
-      <c r="C46" s="0">
+      <c r="C46">
         <v>0.25</v>
       </c>
-      <c r="D46" s="0">
+      <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46" s="0">
+      <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46" s="0"/>
-      <c r="G46" s="0" t="s">
+      <c r="G46" s="16" t="s">
         <v>2907</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="16" t="s">
         <v>2841</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B47">
         <v>0.84999999999999998</v>
       </c>
-      <c r="C47" s="0">
+      <c r="C47">
         <v>0.84999999999999998</v>
       </c>
-      <c r="D47" s="0">
+      <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47" s="0">
+      <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47" s="0"/>
-      <c r="G47" s="0" t="s">
+      <c r="G47" s="16" t="s">
         <v>2908</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="16" t="s">
         <v>2842</v>
       </c>
-      <c r="B48" s="0">
+      <c r="B48">
         <v>60</v>
       </c>
-      <c r="C48" s="0">
+      <c r="C48">
         <v>60</v>
       </c>
-      <c r="D48" s="0">
+      <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48" s="0">
+      <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48" s="0"/>
-      <c r="G48" s="0" t="s">
+      <c r="G48" s="16" t="s">
         <v>2909</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="16" t="s">
         <v>2843</v>
       </c>
-      <c r="B49" s="0">
+      <c r="B49">
         <v>300</v>
       </c>
-      <c r="C49" s="0">
+      <c r="C49">
         <v>300</v>
       </c>
-      <c r="D49" s="0">
+      <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" s="0">
+      <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49" s="0"/>
-      <c r="G49" s="0" t="s">
+      <c r="G49" s="16" t="s">
         <v>2910</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="16" t="s">
         <v>2844</v>
       </c>
-      <c r="B50" s="0">
+      <c r="B50">
         <v>0.90000000000000002</v>
       </c>
-      <c r="C50" s="0">
+      <c r="C50">
         <v>0.90000000000000002</v>
       </c>
-      <c r="D50" s="0">
+      <c r="D50">
         <v>0</v>
       </c>
-      <c r="E50" s="0">
+      <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50" s="0"/>
-      <c r="G50" s="0" t="s">
+      <c r="G50" s="16" t="s">
         <v>2911</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="16" t="s">
         <v>2845</v>
       </c>
-      <c r="B51" s="0">
+      <c r="B51">
         <v>0.84999999999999998</v>
       </c>
-      <c r="C51" s="0">
+      <c r="C51">
         <v>0.84999999999999998</v>
       </c>
-      <c r="D51" s="0">
+      <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51" s="0">
+      <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51" s="0"/>
-      <c r="G51" s="0" t="s">
+      <c r="G51" s="16" t="s">
         <v>2912</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="16" t="s">
         <v>2846</v>
       </c>
-      <c r="B52" s="0">
+      <c r="B52">
         <v>4</v>
       </c>
-      <c r="C52" s="0">
+      <c r="C52">
         <v>4</v>
       </c>
-      <c r="D52" s="0">
+      <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" s="0">
+      <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52" s="0"/>
-      <c r="G52" s="0" t="s">
+      <c r="G52" s="16" t="s">
         <v>2913</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="16" t="s">
         <v>2847</v>
       </c>
-      <c r="B53" s="0">
+      <c r="B53">
         <v>0</v>
       </c>
-      <c r="C53" s="0">
+      <c r="C53">
         <v>0</v>
       </c>
-      <c r="D53" s="0">
+      <c r="D53">
         <v>0</v>
       </c>
-      <c r="E53" s="0">
+      <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53" s="0"/>
-      <c r="G53" s="0" t="s">
+      <c r="G53" s="16" t="s">
         <v>2914</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="16" t="s">
         <v>2848</v>
       </c>
-      <c r="B54" s="0">
+      <c r="B54">
         <v>0.80000000000000004</v>
       </c>
-      <c r="C54" s="0">
+      <c r="C54">
         <v>0.80000000000000004</v>
       </c>
-      <c r="D54" s="0">
+      <c r="D54">
         <v>0</v>
       </c>
-      <c r="E54" s="0">
+      <c r="E54">
         <v>0</v>
       </c>
-      <c r="F54" s="0"/>
-      <c r="G54" s="0" t="s">
+      <c r="G54" s="16" t="s">
         <v>2915</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="16" t="s">
         <v>2849</v>
       </c>
-      <c r="B55" s="0">
+      <c r="B55">
         <v>0</v>
       </c>
-      <c r="C55" s="0">
+      <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55" s="0">
+      <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55" s="0">
+      <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55" s="0"/>
-      <c r="G55" s="0" t="s">
+      <c r="G55" s="16" t="s">
         <v>2916</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="16" t="s">
         <v>2850</v>
       </c>
-      <c r="B56" s="0">
+      <c r="B56">
         <v>0</v>
       </c>
-      <c r="C56" s="0">
+      <c r="C56">
         <v>0</v>
       </c>
-      <c r="D56" s="0">
+      <c r="D56">
         <v>0</v>
       </c>
-      <c r="E56" s="0">
+      <c r="E56">
         <v>0</v>
       </c>
-      <c r="F56" s="0"/>
-      <c r="G56" s="0" t="s">
+      <c r="G56" s="16" t="s">
         <v>2917</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="16" t="s">
         <v>2851</v>
       </c>
-      <c r="B57" s="0">
+      <c r="B57">
         <v>0</v>
       </c>
-      <c r="C57" s="0">
+      <c r="C57">
         <v>0</v>
       </c>
-      <c r="D57" s="0">
+      <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57" s="0">
+      <c r="E57">
         <v>0</v>
       </c>
-      <c r="F57" s="0"/>
-      <c r="G57" s="0" t="s">
+      <c r="G57" s="16" t="s">
         <v>2918</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="16" t="s">
         <v>2852</v>
       </c>
-      <c r="B58" s="0">
+      <c r="B58">
         <v>0</v>
       </c>
-      <c r="C58" s="0">
+      <c r="C58">
         <v>0</v>
       </c>
-      <c r="D58" s="0">
+      <c r="D58">
         <v>0</v>
       </c>
-      <c r="E58" s="0">
+      <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58" s="0"/>
-      <c r="G58" s="0" t="s">
+      <c r="G58" s="16" t="s">
         <v>2919</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="16" t="s">
         <v>2853</v>
       </c>
-      <c r="B59" s="0">
+      <c r="B59">
         <v>0</v>
       </c>
-      <c r="C59" s="0">
+      <c r="C59">
         <v>0</v>
       </c>
-      <c r="D59" s="0">
+      <c r="D59">
         <v>0</v>
       </c>
-      <c r="E59" s="0">
+      <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59" s="0"/>
-      <c r="G59" s="0" t="s">
+      <c r="G59" s="16" t="s">
         <v>2920</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="16" t="s">
         <v>2854</v>
       </c>
-      <c r="B60" s="0">
+      <c r="B60">
         <v>0</v>
       </c>
-      <c r="C60" s="0">
+      <c r="C60">
         <v>0</v>
       </c>
-      <c r="D60" s="0">
+      <c r="D60">
         <v>1</v>
       </c>
-      <c r="E60" s="0">
+      <c r="E60">
         <v>1</v>
       </c>
-      <c r="F60" s="0" t="s">
-        <v>2864</v>
-      </c>
-      <c r="G60" s="0" t="s">
+      <c r="F60" s="16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G60" s="16" t="s">
         <v>2921</v>
       </c>
     </row>

--- a/simple-spbc/steady.xlsx
+++ b/simple-spbc/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4650" uniqueCount="2922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5100" uniqueCount="3176">
   <si>
     <t>Row</t>
   </si>
@@ -3064,6 +3064,768 @@
   </si>
   <si>
     <t>Diffâ</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
   </si>
   <si>
     <t>Row</t>
@@ -8799,7 +9561,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -8824,11 +9586,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -8847,6 +9611,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8859,1291 +9625,1325 @@
   <dimension ref="A1:G60"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="10.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="3" max="3" width="15.5703125" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
-    <col min="5" max="5" width="16.7109375" customWidth="true"/>
-    <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="46.7109375" customWidth="true"/>
+    <col min="5" max="5" width="16.28515625" customWidth="true"/>
+    <col min="6" max="6" width="6.7109375" customWidth="true"/>
+    <col min="7" max="7" width="41.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
-        <v>2795</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>2855</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>2856</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>2857</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>2858</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>2859</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>2865</v>
+      <c r="A1" s="0" t="s">
+        <v>3049</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3109</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>3110</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3111</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>3112</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>3119</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
-        <v>2796</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="0" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B2" s="0">
         <v>3.0199999999999783</v>
       </c>
-      <c r="C2">
-        <v>2.5174634146343262</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="0">
+        <v>2.5174634146343253</v>
+      </c>
+      <c r="D2" s="0">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>-1.0472971942382604e-16</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>2866</v>
+      <c r="E2" s="0">
+        <v>-1.1847197195174198e-17</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>3120</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="16" t="s">
-        <v>2797</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="0" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B3" s="0">
         <v>3.0199999999999783</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>2.5174634146343244</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>-2.9005377991233062e-17</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>2867</v>
+      <c r="E3" s="0">
+        <v>2.9407819612755486e-18</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>3121</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="16" t="s">
-        <v>2798</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="0" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B4" s="0">
         <v>2.000000000000024</v>
       </c>
-      <c r="C4">
-        <v>2.0000000000000124</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="0">
+        <v>2.0000000000000129</v>
+      </c>
+      <c r="D4" s="0">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>5.3260875473912238e-18</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>2868</v>
+      <c r="E4" s="0">
+        <v>-1.0321621083814744e-17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>3122</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="16" t="s">
-        <v>2799</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="0" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B5" s="0">
         <v>2.4999999999998579</v>
       </c>
-      <c r="C5">
-        <v>2.0000000000000404</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="0">
+        <v>2.0000000000000067</v>
+      </c>
+      <c r="D5" s="0">
         <v>2.960594732333751e-14</v>
       </c>
-      <c r="E5">
-        <v>1.4614062843220118e-17</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>2869</v>
+      <c r="E5" s="0">
+        <v>1.0629776554815597e-14</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>3123</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="16" t="s">
-        <v>2800</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="0" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B6" s="0">
         <v>4.5499999999999652</v>
       </c>
-      <c r="C6">
-        <v>4.0400000000000658</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="0">
+        <v>4.040000000000064</v>
+      </c>
+      <c r="D6" s="0">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>2.1894689470238414e-14</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>2870</v>
+      <c r="E6" s="0">
+        <v>1.0520358363670791e-14</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>3124</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="16" t="s">
-        <v>2871</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="0" t="s">
+        <v>3055</v>
+      </c>
+      <c r="B7" s="0">
         <v>1.5519465293293773</v>
       </c>
-      <c r="C7">
-        <v>3.1038930586587541</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="0">
+        <v>3.103893058658755</v>
+      </c>
+      <c r="D7" s="0">
         <v>1.0061922463256356</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>2863</v>
-      </c>
+      <c r="F7" s="0" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G7" s="0"/>
     </row>
     <row r="8">
-      <c r="A8" s="16" t="s">
-        <v>2802</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="0" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B8" s="0">
         <v>1.5519465293293773</v>
       </c>
-      <c r="C8">
-        <v>3.1038930586587541</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="0">
+        <v>3.103893058658755</v>
+      </c>
+      <c r="D8" s="0">
         <v>1.0061922463256356</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>2863</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>2871</v>
+      <c r="F8" s="0" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>3125</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="16" t="s">
-        <v>2803</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="0" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B9" s="0">
         <v>0.74698177564761814</v>
       </c>
-      <c r="C9">
-        <v>0.74698177564761814</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="0">
+        <v>0.74698177564761825</v>
+      </c>
+      <c r="D9" s="0">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>1</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>2863</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>2872</v>
+      <c r="F9" s="0" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>3126</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="s">
-        <v>2804</v>
-      </c>
-      <c r="B10">
+      <c r="A10" s="0" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B10" s="0">
         <v>1.7313525130113012</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>3.4627050260226024</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>1.0111859095936382</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>1.0099504938362081</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>2863</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>2873</v>
+      <c r="F10" s="0" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>3127</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="16" t="s">
-        <v>2805</v>
-      </c>
-      <c r="B11">
+      <c r="A11" s="0" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B11" s="0">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>2863</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>2874</v>
+      <c r="F11" s="0" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>3128</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="16" t="s">
-        <v>2806</v>
-      </c>
-      <c r="B12">
+      <c r="A12" s="0" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B12" s="0">
         <v>1.5519465293293773</v>
       </c>
-      <c r="C12">
-        <v>3.1038930586587541</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="0">
+        <v>3.103893058658755</v>
+      </c>
+      <c r="D12" s="0">
         <v>1.0061922463256356</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>2863</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>2875</v>
+      <c r="F12" s="0" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>3129</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="16" t="s">
-        <v>2807</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="0" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B13" s="0">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0">
         <v>2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0">
         <v>1.0061922463256356</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>2863</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>2876</v>
+      <c r="F13" s="0" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>3130</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="16" t="s">
-        <v>2808</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="0" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B14" s="0">
         <v>1.0061922463256359</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0">
         <v>1</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>2863</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>2877</v>
+      <c r="F14" s="0" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>3131</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="16" t="s">
-        <v>2809</v>
-      </c>
-      <c r="B15">
+      <c r="A15" s="0" t="s">
+        <v>3063</v>
+      </c>
+      <c r="B15" s="0">
         <v>1</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0">
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>2863</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>2878</v>
+      <c r="F15" s="0" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>3132</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="16" t="s">
-        <v>2810</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="0" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B16" s="0">
         <v>1.0074659719585326</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>1.0062351010325994</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0">
         <v>1</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>1</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>2863</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>2879</v>
+      <c r="F16" s="0" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>3133</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="16" t="s">
-        <v>2811</v>
-      </c>
-      <c r="B17">
+      <c r="A17" s="0" t="s">
+        <v>3065</v>
+      </c>
+      <c r="B17" s="0">
         <v>1.0024906793143211</v>
       </c>
-      <c r="C17">
-        <v>1.001265886949088</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="0">
+        <v>1.0012658869490878</v>
+      </c>
+      <c r="D17" s="0">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0">
         <v>1</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>2863</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>2880</v>
+      <c r="F17" s="0" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>3134</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="16" t="s">
-        <v>2812</v>
-      </c>
-      <c r="B18">
+      <c r="A18" s="0" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B18" s="0">
         <v>1.0074659719585326</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>1.0062351010325994</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0">
         <v>1</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0">
         <v>1</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>2863</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>2881</v>
+      <c r="F18" s="0" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>3135</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="16" t="s">
-        <v>2813</v>
-      </c>
-      <c r="B19">
+      <c r="A19" s="0" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B19" s="0">
         <v>1.0074659719585326</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0">
         <v>1.0062351010325994</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
         <v>1</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>2863</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>2882</v>
+      <c r="F19" s="0" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>3136</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="16" t="s">
-        <v>2814</v>
-      </c>
-      <c r="B20">
+      <c r="A20" s="0" t="s">
+        <v>3068</v>
+      </c>
+      <c r="B20" s="0">
         <v>0</v>
       </c>
-      <c r="C20">
-        <v>7.9773226406187334e-19</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="0">
+        <v>3.4983671459173163e-24</v>
+      </c>
+      <c r="D20" s="0">
         <v>0</v>
       </c>
-      <c r="E20">
-        <v>-3.8621899266967228e-20</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>2883</v>
+      <c r="E20" s="0">
+        <v>-6.9234505873394988e-25</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>3137</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="16" t="s">
-        <v>2815</v>
-      </c>
-      <c r="B21">
-        <v>1.531173558226345</v>
-      </c>
-      <c r="C21">
-        <v>3.0623471164526221</v>
-      </c>
-      <c r="D21">
-        <v>1.0111859095936389</v>
-      </c>
-      <c r="E21">
-        <v>1.0099504938362078</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>2863</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>2884</v>
+      <c r="A21" s="0" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B21" s="0">
+        <v>1.5311735582263337</v>
+      </c>
+      <c r="C21" s="0">
+        <v>3.0623471164526799</v>
+      </c>
+      <c r="D21" s="0">
+        <v>1.0111859095936384</v>
+      </c>
+      <c r="E21" s="0">
+        <v>1.0099504938362083</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>3117</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>3138</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="16" t="s">
-        <v>2816</v>
-      </c>
-      <c r="B22">
-        <v>1.0111859095936389</v>
-      </c>
-      <c r="C22">
-        <v>1.0099504938362078</v>
-      </c>
-      <c r="D22">
+      <c r="A22" s="0" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B22" s="0">
+        <v>1.0111859095936384</v>
+      </c>
+      <c r="C22" s="0">
+        <v>1.0099504938362083</v>
+      </c>
+      <c r="D22" s="0">
         <v>1</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0">
         <v>1</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>2863</v>
-      </c>
+      <c r="F22" s="0" t="s">
+        <v>3117</v>
+      </c>
+      <c r="G22" s="0"/>
     </row>
     <row r="23">
-      <c r="A23" s="16" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B23">
+      <c r="A23" s="0" t="s">
+        <v>3071</v>
+      </c>
+      <c r="B23" s="0">
         <v>0.051731550977645917</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0">
         <v>0.10346310195529185</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0">
         <v>1.011185909593638</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0">
         <v>1.0099504938362078</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>2863</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>2885</v>
+      <c r="F23" s="0" t="s">
+        <v>3117</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>3139</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="16" t="s">
-        <v>2818</v>
-      </c>
-      <c r="B24">
+      <c r="A24" s="0" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B24" s="0">
         <v>0.64435209661000203</v>
       </c>
-      <c r="C24">
-        <v>0.32217604830500096</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="0">
+        <v>0.32217604830500091</v>
+      </c>
+      <c r="D24" s="0">
         <v>0.98893783083060027</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0">
         <v>0.99014754297667418</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>2863</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>2886</v>
+      <c r="F24" s="0" t="s">
+        <v>3117</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>3140</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="16" t="s">
-        <v>2819</v>
-      </c>
-      <c r="B25">
+      <c r="A25" s="0" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B25" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0">
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0">
         <v>1</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>2863</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>2887</v>
+      <c r="F25" s="0" t="s">
+        <v>3117</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>3141</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="16" t="s">
-        <v>2820</v>
-      </c>
-      <c r="B26">
+      <c r="A26" s="0" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B26" s="0">
         <v>1.0200000000000002</v>
       </c>
-      <c r="C26">
-        <v>1.0200000000000002</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="0">
+        <v>1.02</v>
+      </c>
+      <c r="D26" s="0">
         <v>1</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0">
         <v>1</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>2863</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>2888</v>
+      <c r="F26" s="0" t="s">
+        <v>3117</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>3142</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="16" t="s">
-        <v>2821</v>
-      </c>
-      <c r="B27">
+      <c r="A27" s="0" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B27" s="0">
         <v>1.0111859095936382</v>
       </c>
-      <c r="C27">
-        <v>1.0099504938362081</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="0">
+        <v>1.0099504938362078</v>
+      </c>
+      <c r="D27" s="0">
         <v>1</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0">
         <v>1</v>
       </c>
-      <c r="F27" s="16" t="s">
-        <v>2863</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>2889</v>
+      <c r="F27" s="0" t="s">
+        <v>3117</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>3143</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="16" t="s">
-        <v>2822</v>
-      </c>
-      <c r="B28">
+      <c r="A28" s="0" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B28" s="0">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0">
         <v>1</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0">
         <v>1</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>2863</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>2890</v>
+      <c r="F28" s="0" t="s">
+        <v>3117</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>3144</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="16" t="s">
-        <v>2823</v>
-      </c>
-      <c r="B29">
+      <c r="A29" s="0" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B29" s="0">
         <v>0</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0">
         <v>0</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0">
         <v>0</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0">
         <v>0</v>
       </c>
-      <c r="G29" s="16" t="s">
-        <v>2891</v>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0" t="s">
+        <v>3145</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="16" t="s">
-        <v>2824</v>
-      </c>
-      <c r="B30">
+      <c r="A30" s="0" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B30" s="0">
         <v>0</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0">
         <v>0</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0">
         <v>0</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0">
         <v>0</v>
       </c>
-      <c r="G30" s="16" t="s">
-        <v>2892</v>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0" t="s">
+        <v>3146</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="16" t="s">
-        <v>2825</v>
-      </c>
-      <c r="B31">
+      <c r="A31" s="0" t="s">
+        <v>3079</v>
+      </c>
+      <c r="B31" s="0">
         <v>0</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0">
         <v>0</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0">
         <v>0</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0">
         <v>0</v>
       </c>
-      <c r="G31" s="16" t="s">
-        <v>2893</v>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0" t="s">
+        <v>3147</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="16" t="s">
-        <v>2826</v>
-      </c>
-      <c r="B32">
+      <c r="A32" s="0" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B32" s="0">
         <v>0</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0">
         <v>0</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0">
         <v>0</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0">
         <v>0</v>
       </c>
-      <c r="G32" s="16" t="s">
-        <v>2894</v>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0" t="s">
+        <v>3148</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="16" t="s">
-        <v>2827</v>
-      </c>
-      <c r="B33">
+      <c r="A33" s="0" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B33" s="0">
         <v>0</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0">
         <v>0</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0">
         <v>0</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0">
         <v>0</v>
       </c>
-      <c r="G33" s="16" t="s">
-        <v>2895</v>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0" t="s">
+        <v>3149</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="16" t="s">
-        <v>2828</v>
-      </c>
-      <c r="B34">
+      <c r="A34" s="0" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B34" s="0">
         <v>0</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0">
         <v>0</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0">
         <v>0</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0">
         <v>0</v>
       </c>
-      <c r="G34" s="16" t="s">
-        <v>2896</v>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0" t="s">
+        <v>3150</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="16" t="s">
-        <v>2829</v>
-      </c>
-      <c r="B35">
+      <c r="A35" s="0" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B35" s="0">
         <v>0</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0">
         <v>0</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0">
         <v>0</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0">
         <v>0</v>
       </c>
-      <c r="G35" s="16" t="s">
-        <v>2897</v>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0" t="s">
+        <v>3151</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="16" t="s">
-        <v>2830</v>
-      </c>
-      <c r="B36">
+      <c r="A36" s="0" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B36" s="0">
         <v>0</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0">
         <v>0</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0">
         <v>0</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0">
         <v>0</v>
       </c>
-      <c r="G36" s="16" t="s">
-        <v>2898</v>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0" t="s">
+        <v>3152</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="16" t="s">
-        <v>2831</v>
-      </c>
-      <c r="B37">
+      <c r="A37" s="0" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B37" s="0">
         <v>1.0061922463256359</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0">
         <v>0</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0">
         <v>0</v>
       </c>
-      <c r="G37" s="16" t="s">
-        <v>2899</v>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0" t="s">
+        <v>3153</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="16" t="s">
-        <v>2832</v>
-      </c>
-      <c r="B38">
+      <c r="A38" s="0" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B38" s="0">
         <v>0.99622871975463567</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0">
         <v>0.99622871975463567</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0">
         <v>0</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0">
         <v>0</v>
       </c>
-      <c r="G38" s="16" t="s">
-        <v>2900</v>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0" t="s">
+        <v>3154</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="16" t="s">
-        <v>2833</v>
-      </c>
-      <c r="B39">
+      <c r="A39" s="0" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B39" s="0">
         <v>-0.0074361935641006766</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0">
         <v>-0.0074361935641006766</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0">
         <v>0</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0">
         <v>0</v>
       </c>
-      <c r="G39" s="16" t="s">
-        <v>2901</v>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0" t="s">
+        <v>3155</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="16" t="s">
-        <v>2834</v>
-      </c>
-      <c r="B40">
+      <c r="A40" s="0" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B40" s="0">
         <v>0.80000000000000004</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0">
         <v>0.80000000000000004</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0">
         <v>0</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0">
         <v>0</v>
       </c>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
     </row>
     <row r="41">
-      <c r="A41" s="16" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B41">
+      <c r="A41" s="0" t="s">
+        <v>3089</v>
+      </c>
+      <c r="B41" s="0">
         <v>0.59999999999999998</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0">
         <v>0.59999999999999998</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0">
         <v>0</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0">
         <v>0</v>
       </c>
-      <c r="G41" s="16" t="s">
-        <v>2902</v>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0" t="s">
+        <v>3156</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="16" t="s">
-        <v>2836</v>
-      </c>
-      <c r="B42">
+      <c r="A42" s="0" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B42" s="0">
         <v>0.029999999999999999</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0">
         <v>0.029999999999999999</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0">
         <v>0</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0">
         <v>0</v>
       </c>
-      <c r="G42" s="16" t="s">
-        <v>2903</v>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0" t="s">
+        <v>3157</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="16" t="s">
-        <v>2837</v>
-      </c>
-      <c r="B43">
+      <c r="A43" s="0" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B43" s="0">
         <v>10</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0">
         <v>10</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0">
         <v>0</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0">
         <v>0</v>
       </c>
-      <c r="G43" s="16" t="s">
-        <v>2904</v>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0" t="s">
+        <v>3158</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="16" t="s">
-        <v>2838</v>
-      </c>
-      <c r="B44">
+      <c r="A44" s="0" t="s">
+        <v>3092</v>
+      </c>
+      <c r="B44" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0">
         <v>0</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0">
         <v>0</v>
       </c>
-      <c r="G44" s="16" t="s">
-        <v>2905</v>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0" t="s">
+        <v>3159</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="16" t="s">
-        <v>2839</v>
-      </c>
-      <c r="B45">
+      <c r="A45" s="0" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B45" s="0">
         <v>6</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0">
         <v>6</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0">
         <v>0</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0">
         <v>0</v>
       </c>
-      <c r="G45" s="16" t="s">
-        <v>2906</v>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0" t="s">
+        <v>3160</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="16" t="s">
-        <v>2840</v>
-      </c>
-      <c r="B46">
+      <c r="A46" s="0" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B46" s="0">
         <v>0.25</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0">
         <v>0.25</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0">
         <v>0</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0">
         <v>0</v>
       </c>
-      <c r="G46" s="16" t="s">
-        <v>2907</v>
+      <c r="F46" s="0"/>
+      <c r="G46" s="0" t="s">
+        <v>3161</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="16" t="s">
-        <v>2841</v>
-      </c>
-      <c r="B47">
+      <c r="A47" s="0" t="s">
+        <v>3095</v>
+      </c>
+      <c r="B47" s="0">
         <v>0.84999999999999998</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0">
         <v>0.84999999999999998</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0">
         <v>0</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0">
         <v>0</v>
       </c>
-      <c r="G47" s="16" t="s">
-        <v>2908</v>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0" t="s">
+        <v>3162</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="16" t="s">
-        <v>2842</v>
-      </c>
-      <c r="B48">
+      <c r="A48" s="0" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B48" s="0">
         <v>60</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0">
         <v>60</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0">
         <v>0</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0">
         <v>0</v>
       </c>
-      <c r="G48" s="16" t="s">
-        <v>2909</v>
+      <c r="F48" s="0"/>
+      <c r="G48" s="0" t="s">
+        <v>3163</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="16" t="s">
-        <v>2843</v>
-      </c>
-      <c r="B49">
+      <c r="A49" s="0" t="s">
+        <v>3097</v>
+      </c>
+      <c r="B49" s="0">
         <v>300</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0">
         <v>300</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0">
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0">
         <v>0</v>
       </c>
-      <c r="G49" s="16" t="s">
-        <v>2910</v>
+      <c r="F49" s="0"/>
+      <c r="G49" s="0" t="s">
+        <v>3164</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="16" t="s">
-        <v>2844</v>
-      </c>
-      <c r="B50">
+      <c r="A50" s="0" t="s">
+        <v>3098</v>
+      </c>
+      <c r="B50" s="0">
         <v>0.90000000000000002</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0">
         <v>0.90000000000000002</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="0">
         <v>0</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0">
         <v>0</v>
       </c>
-      <c r="G50" s="16" t="s">
-        <v>2911</v>
+      <c r="F50" s="0"/>
+      <c r="G50" s="0" t="s">
+        <v>3165</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="16" t="s">
-        <v>2845</v>
-      </c>
-      <c r="B51">
+      <c r="A51" s="0" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B51" s="0">
         <v>0.84999999999999998</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0">
         <v>0.84999999999999998</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0">
         <v>0</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="0">
         <v>0</v>
       </c>
-      <c r="G51" s="16" t="s">
-        <v>2912</v>
+      <c r="F51" s="0"/>
+      <c r="G51" s="0" t="s">
+        <v>3166</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="16" t="s">
-        <v>2846</v>
-      </c>
-      <c r="B52">
+      <c r="A52" s="0" t="s">
+        <v>3100</v>
+      </c>
+      <c r="B52" s="0">
         <v>4</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0">
         <v>4</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0">
         <v>0</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0">
         <v>0</v>
       </c>
-      <c r="G52" s="16" t="s">
-        <v>2913</v>
+      <c r="F52" s="0"/>
+      <c r="G52" s="0" t="s">
+        <v>3167</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="16" t="s">
-        <v>2847</v>
-      </c>
-      <c r="B53">
+      <c r="A53" s="0" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B53" s="0">
         <v>0</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0">
         <v>0</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0">
         <v>0</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0">
         <v>0</v>
       </c>
-      <c r="G53" s="16" t="s">
-        <v>2914</v>
+      <c r="F53" s="0"/>
+      <c r="G53" s="0" t="s">
+        <v>3168</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="16" t="s">
-        <v>2848</v>
-      </c>
-      <c r="B54">
+      <c r="A54" s="0" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B54" s="0">
         <v>0.80000000000000004</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0">
         <v>0.80000000000000004</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0">
         <v>0</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0">
         <v>0</v>
       </c>
-      <c r="G54" s="16" t="s">
-        <v>2915</v>
+      <c r="F54" s="0"/>
+      <c r="G54" s="0" t="s">
+        <v>3169</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="16" t="s">
-        <v>2849</v>
-      </c>
-      <c r="B55">
+      <c r="A55" s="0" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B55" s="0">
         <v>0</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0">
         <v>0</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="0">
         <v>0</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0">
         <v>0</v>
       </c>
-      <c r="G55" s="16" t="s">
-        <v>2916</v>
+      <c r="F55" s="0"/>
+      <c r="G55" s="0" t="s">
+        <v>3170</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="16" t="s">
-        <v>2850</v>
-      </c>
-      <c r="B56">
+      <c r="A56" s="0" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B56" s="0">
         <v>0</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0">
         <v>0</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0">
         <v>0</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0">
         <v>0</v>
       </c>
-      <c r="G56" s="16" t="s">
-        <v>2917</v>
+      <c r="F56" s="0"/>
+      <c r="G56" s="0" t="s">
+        <v>3171</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="16" t="s">
-        <v>2851</v>
-      </c>
-      <c r="B57">
+      <c r="A57" s="0" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B57" s="0">
         <v>0</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0">
         <v>0</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0">
         <v>0</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0">
         <v>0</v>
       </c>
-      <c r="G57" s="16" t="s">
-        <v>2918</v>
+      <c r="F57" s="0"/>
+      <c r="G57" s="0" t="s">
+        <v>3172</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="16" t="s">
-        <v>2852</v>
-      </c>
-      <c r="B58">
+      <c r="A58" s="0" t="s">
+        <v>3106</v>
+      </c>
+      <c r="B58" s="0">
         <v>0</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0">
         <v>0</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0">
         <v>0</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0">
         <v>0</v>
       </c>
-      <c r="G58" s="16" t="s">
-        <v>2919</v>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0" t="s">
+        <v>3173</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="16" t="s">
-        <v>2853</v>
-      </c>
-      <c r="B59">
+      <c r="A59" s="0" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B59" s="0">
         <v>0</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0">
         <v>0</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0">
         <v>0</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="0">
         <v>0</v>
       </c>
-      <c r="G59" s="16" t="s">
-        <v>2920</v>
+      <c r="F59" s="0"/>
+      <c r="G59" s="0" t="s">
+        <v>3174</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="16" t="s">
-        <v>2854</v>
-      </c>
-      <c r="B60">
+      <c r="A60" s="0" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B60" s="0">
         <v>0</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0">
         <v>0</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0">
         <v>1</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="0">
         <v>1</v>
       </c>
-      <c r="F60" s="16" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>2921</v>
+      <c r="F60" s="0" t="s">
+        <v>3118</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>3175</v>
       </c>
     </row>
   </sheetData>

--- a/simple-spbc/steady.xlsx
+++ b/simple-spbc/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5100" uniqueCount="3176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5553" uniqueCount="3305">
   <si>
     <t>Row</t>
   </si>
@@ -9388,6 +9388,393 @@
   </si>
   <si>
     <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Level of output</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Level of output</t>
   </si>
   <si>
     <t>Output</t>
@@ -9561,7 +9948,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -9588,11 +9975,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -9613,6 +10004,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9625,1325 +10020,1294 @@
   <dimension ref="A1:G60"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
-    <col min="3" max="3" width="15.5703125" customWidth="true"/>
+    <col min="1" max="1" width="9.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
-    <col min="5" max="5" width="16.28515625" customWidth="true"/>
-    <col min="6" max="6" width="6.7109375" customWidth="true"/>
-    <col min="7" max="7" width="41.5703125" customWidth="true"/>
+    <col min="5" max="5" width="16.7109375" customWidth="true"/>
+    <col min="6" max="6" width="7.7109375" customWidth="true"/>
+    <col min="7" max="7" width="46.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>3049</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>3109</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>3110</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3111</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>3112</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>3113</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>3119</v>
+      <c r="A1" s="22" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>3238</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>3239</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>3240</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>3241</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>3247</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>3050</v>
-      </c>
-      <c r="B2" s="0">
+      <c r="A2" s="22" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B2">
         <v>3.0199999999999783</v>
       </c>
-      <c r="C2" s="0">
-        <v>2.5174634146343253</v>
-      </c>
-      <c r="D2" s="0">
+      <c r="C2">
+        <v>2.5174634146343244</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="0">
-        <v>-1.1847197195174198e-17</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>3114</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>3120</v>
+      <c r="E2">
+        <v>5.4779494110752512e-17</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>3248</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>3051</v>
-      </c>
-      <c r="B3" s="0">
+      <c r="A3" s="22" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B3">
         <v>3.0199999999999783</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>2.5174634146343244</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="0">
-        <v>2.9407819612755486e-18</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>3114</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>3121</v>
+      <c r="E3">
+        <v>-2.9257301027260882e-17</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>3249</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3052</v>
-      </c>
-      <c r="B4" s="0">
+      <c r="A4" s="22" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B4">
         <v>2.000000000000024</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>2.0000000000000129</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="0">
-        <v>-1.0321621083814744e-17</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>3114</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>3122</v>
+      <c r="E4">
+        <v>1.5788566771606308e-17</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>3250</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>3053</v>
-      </c>
-      <c r="B5" s="0">
+      <c r="A5" s="22" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B5">
         <v>2.4999999999998579</v>
       </c>
-      <c r="C5" s="0">
-        <v>2.0000000000000067</v>
-      </c>
-      <c r="D5" s="0">
+      <c r="C5">
+        <v>2.0000000000000209</v>
+      </c>
+      <c r="D5">
         <v>2.960594732333751e-14</v>
       </c>
-      <c r="E5" s="0">
-        <v>1.0629776554815597e-14</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>3114</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>3123</v>
+      <c r="E5">
+        <v>6.6353843563063909e-17</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>3251</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>3054</v>
-      </c>
-      <c r="B6" s="0">
+      <c r="A6" s="22" t="s">
+        <v>3182</v>
+      </c>
+      <c r="B6">
         <v>4.5499999999999652</v>
       </c>
-      <c r="C6" s="0">
-        <v>4.040000000000064</v>
-      </c>
-      <c r="D6" s="0">
+      <c r="C6">
+        <v>4.0400000000000826</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="0">
-        <v>1.0520358363670791e-14</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>3114</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>3124</v>
+      <c r="E6">
+        <v>4.6087096493618643e-17</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>3252</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>3055</v>
-      </c>
-      <c r="B7" s="0">
-        <v>1.5519465293293773</v>
-      </c>
-      <c r="C7" s="0">
-        <v>3.103893058658755</v>
-      </c>
-      <c r="D7" s="0">
+      <c r="A7" s="22" t="s">
+        <v>3254</v>
+      </c>
+      <c r="B7">
+        <v>1.551946529329377</v>
+      </c>
+      <c r="C7">
+        <v>3.1038930586587541</v>
+      </c>
+      <c r="D7">
         <v>1.0061922463256356</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>3115</v>
-      </c>
-      <c r="G7" s="0"/>
+      <c r="F7" s="22" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>3253</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>3056</v>
-      </c>
-      <c r="B8" s="0">
-        <v>1.5519465293293773</v>
-      </c>
-      <c r="C8" s="0">
-        <v>3.103893058658755</v>
-      </c>
-      <c r="D8" s="0">
+      <c r="A8" s="22" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B8">
+        <v>1.551946529329377</v>
+      </c>
+      <c r="C8">
+        <v>3.1038930586587541</v>
+      </c>
+      <c r="D8">
         <v>1.0061922463256356</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>3115</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>3125</v>
+      <c r="F8" s="22" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>3254</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>3057</v>
-      </c>
-      <c r="B9" s="0">
+      <c r="A9" s="22" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B9">
         <v>0.74698177564761814</v>
       </c>
-      <c r="C9" s="0">
-        <v>0.74698177564761825</v>
-      </c>
-      <c r="D9" s="0">
+      <c r="C9">
+        <v>0.74698177564761803</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>3115</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>3126</v>
+      <c r="F9" s="22" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>3255</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>3058</v>
-      </c>
-      <c r="B10" s="0">
+      <c r="A10" s="22" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B10">
         <v>1.7313525130113012</v>
       </c>
-      <c r="C10" s="0">
+      <c r="C10">
         <v>3.4627050260226024</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10">
         <v>1.0111859095936382</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10">
         <v>1.0099504938362081</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>3115</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>3127</v>
+      <c r="F10" s="22" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>3256</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>3059</v>
-      </c>
-      <c r="B11" s="0">
+      <c r="A11" s="22" t="s">
+        <v>3187</v>
+      </c>
+      <c r="B11">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C11" s="0">
+      <c r="C11">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11">
         <v>1.0049629315732038</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>3115</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>3128</v>
+      <c r="F11" s="22" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>3257</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>3060</v>
-      </c>
-      <c r="B12" s="0">
-        <v>1.5519465293293773</v>
-      </c>
-      <c r="C12" s="0">
-        <v>3.103893058658755</v>
-      </c>
-      <c r="D12" s="0">
+      <c r="A12" s="22" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B12">
+        <v>1.551946529329377</v>
+      </c>
+      <c r="C12">
+        <v>3.1038930586587541</v>
+      </c>
+      <c r="D12">
         <v>1.0061922463256356</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>3115</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>3129</v>
+      <c r="F12" s="22" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>3061</v>
-      </c>
-      <c r="B13" s="0">
+      <c r="A13" s="22" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="0">
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13">
         <v>1.0061922463256356</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>3115</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>3130</v>
+      <c r="F13" s="22" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>3259</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>3062</v>
-      </c>
-      <c r="B14" s="0">
+      <c r="A14" s="22" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B14">
         <v>1.0061922463256359</v>
       </c>
-      <c r="C14" s="0">
+      <c r="C14">
         <v>1.0049629315732038</v>
       </c>
-      <c r="D14" s="0">
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>3115</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>3131</v>
+      <c r="F14" s="22" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>3260</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>3063</v>
-      </c>
-      <c r="B15" s="0">
+      <c r="A15" s="22" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="0">
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="0">
+      <c r="D15">
         <v>1.0049629315732038</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>3115</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>3132</v>
+      <c r="F15" s="22" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>3261</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>3064</v>
-      </c>
-      <c r="B16" s="0">
+      <c r="A16" s="22" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B16">
         <v>1.0074659719585326</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16">
         <v>1.0062351010325994</v>
       </c>
-      <c r="D16" s="0">
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>3115</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>3133</v>
+      <c r="F16" s="22" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>3262</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>3065</v>
-      </c>
-      <c r="B17" s="0">
+      <c r="A17" s="22" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B17">
         <v>1.0024906793143211</v>
       </c>
-      <c r="C17" s="0">
+      <c r="C17">
         <v>1.0012658869490878</v>
       </c>
-      <c r="D17" s="0">
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="0" t="s">
-        <v>3115</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>3134</v>
+      <c r="F17" s="22" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>3263</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>3066</v>
-      </c>
-      <c r="B18" s="0">
+      <c r="A18" s="22" t="s">
+        <v>3194</v>
+      </c>
+      <c r="B18">
         <v>1.0074659719585326</v>
       </c>
-      <c r="C18" s="0">
+      <c r="C18">
         <v>1.0062351010325994</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>3115</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>3135</v>
+      <c r="F18" s="22" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>3264</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>3067</v>
-      </c>
-      <c r="B19" s="0">
+      <c r="A19" s="22" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B19">
         <v>1.0074659719585326</v>
       </c>
-      <c r="C19" s="0">
+      <c r="C19">
         <v>1.0062351010325994</v>
       </c>
-      <c r="D19" s="0">
+      <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" s="0" t="s">
-        <v>3115</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>3136</v>
+      <c r="F19" s="22" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>3265</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>3068</v>
-      </c>
-      <c r="B20" s="0">
+      <c r="A20" s="22" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" s="0">
-        <v>3.4983671459173163e-24</v>
-      </c>
-      <c r="D20" s="0">
+      <c r="C20">
+        <v>9.8434541592871858e-31</v>
+      </c>
+      <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="0">
-        <v>-6.9234505873394988e-25</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>3116</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>3137</v>
+      <c r="E20">
+        <v>-1.4093052171328696e-31</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>3266</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>3069</v>
-      </c>
-      <c r="B21" s="0">
-        <v>1.5311735582263337</v>
-      </c>
-      <c r="C21" s="0">
-        <v>3.0623471164526799</v>
-      </c>
-      <c r="D21" s="0">
-        <v>1.0111859095936384</v>
-      </c>
-      <c r="E21" s="0">
-        <v>1.0099504938362083</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>3117</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>3138</v>
+      <c r="A21" s="22" t="s">
+        <v>3197</v>
+      </c>
+      <c r="B21">
+        <v>1.5311735582263091</v>
+      </c>
+      <c r="C21">
+        <v>3.0623471164525835</v>
+      </c>
+      <c r="D21">
+        <v>1.011185909593638</v>
+      </c>
+      <c r="E21">
+        <v>1.0099504938362072</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>3267</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>3070</v>
-      </c>
-      <c r="B22" s="0">
-        <v>1.0111859095936384</v>
-      </c>
-      <c r="C22" s="0">
-        <v>1.0099504938362083</v>
-      </c>
-      <c r="D22" s="0">
+      <c r="A22" s="22" t="s">
+        <v>3198</v>
+      </c>
+      <c r="B22">
+        <v>1.011185909593638</v>
+      </c>
+      <c r="C22">
+        <v>1.0099504938362074</v>
+      </c>
+      <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>3117</v>
-      </c>
-      <c r="G22" s="0"/>
+      <c r="F22" s="22" t="s">
+        <v>3245</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="0" t="s">
-        <v>3071</v>
-      </c>
-      <c r="B23" s="0">
+      <c r="A23" s="22" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B23">
         <v>0.051731550977645917</v>
       </c>
-      <c r="C23" s="0">
+      <c r="C23">
         <v>0.10346310195529185</v>
       </c>
-      <c r="D23" s="0">
+      <c r="D23">
         <v>1.011185909593638</v>
       </c>
-      <c r="E23" s="0">
-        <v>1.0099504938362078</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>3117</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>3139</v>
+      <c r="E23">
+        <v>1.0099504938362081</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>3268</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="s">
-        <v>3072</v>
-      </c>
-      <c r="B24" s="0">
+      <c r="A24" s="22" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B24">
         <v>0.64435209661000203</v>
       </c>
-      <c r="C24" s="0">
-        <v>0.32217604830500091</v>
-      </c>
-      <c r="D24" s="0">
+      <c r="C24">
+        <v>0.32217604830500096</v>
+      </c>
+      <c r="D24">
         <v>0.98893783083060027</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24">
         <v>0.99014754297667418</v>
       </c>
-      <c r="F24" s="0" t="s">
-        <v>3117</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>3140</v>
+      <c r="F24" s="22" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>3269</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>3073</v>
-      </c>
-      <c r="B25" s="0">
+      <c r="A25" s="22" t="s">
+        <v>3201</v>
+      </c>
+      <c r="B25">
         <v>1.0049629315732038</v>
       </c>
-      <c r="C25" s="0">
-        <v>1.0049629315732038</v>
-      </c>
-      <c r="D25" s="0">
+      <c r="C25">
+        <v>1.0049629315732036</v>
+      </c>
+      <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" s="0" t="s">
-        <v>3117</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>3141</v>
+      <c r="F25" s="22" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>3270</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="0" t="s">
-        <v>3074</v>
-      </c>
-      <c r="B26" s="0">
+      <c r="A26" s="22" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B26">
         <v>1.0200000000000002</v>
       </c>
-      <c r="C26" s="0">
-        <v>1.02</v>
-      </c>
-      <c r="D26" s="0">
+      <c r="C26">
+        <v>1.0200000000000002</v>
+      </c>
+      <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" s="0" t="s">
-        <v>3117</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>3142</v>
+      <c r="F26" s="22" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>3271</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0" t="s">
-        <v>3075</v>
-      </c>
-      <c r="B27" s="0">
+      <c r="A27" s="22" t="s">
+        <v>3203</v>
+      </c>
+      <c r="B27">
         <v>1.0111859095936382</v>
       </c>
-      <c r="C27" s="0">
-        <v>1.0099504938362078</v>
-      </c>
-      <c r="D27" s="0">
+      <c r="C27">
+        <v>1.0099504938362081</v>
+      </c>
+      <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="0">
+      <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" s="0" t="s">
-        <v>3117</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>3143</v>
+      <c r="F27" s="22" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>3272</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0" t="s">
-        <v>3076</v>
-      </c>
-      <c r="B28" s="0">
+      <c r="A28" s="22" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B28">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C28" s="0">
+      <c r="C28">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D28" s="0">
+      <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" s="0" t="s">
-        <v>3117</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>3144</v>
+      <c r="F28" s="22" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>3273</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0" t="s">
-        <v>3077</v>
-      </c>
-      <c r="B29" s="0">
+      <c r="A29" s="22" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29" s="0">
+      <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29" s="0">
+      <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" s="0">
+      <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" s="0"/>
-      <c r="G29" s="0" t="s">
-        <v>3145</v>
+      <c r="G29" s="22" t="s">
+        <v>3274</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="s">
-        <v>3078</v>
-      </c>
-      <c r="B30" s="0">
+      <c r="A30" s="22" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30" s="0">
+      <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30" s="0">
+      <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" s="0"/>
-      <c r="G30" s="0" t="s">
-        <v>3146</v>
+      <c r="G30" s="22" t="s">
+        <v>3275</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="0" t="s">
-        <v>3079</v>
-      </c>
-      <c r="B31" s="0">
+      <c r="A31" s="22" t="s">
+        <v>3207</v>
+      </c>
+      <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31" s="0">
+      <c r="C31">
         <v>0</v>
       </c>
-      <c r="D31" s="0">
+      <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" s="0"/>
-      <c r="G31" s="0" t="s">
-        <v>3147</v>
+      <c r="G31" s="22" t="s">
+        <v>3276</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="s">
-        <v>3080</v>
-      </c>
-      <c r="B32" s="0">
+      <c r="A32" s="22" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32" s="0">
+      <c r="C32">
         <v>0</v>
       </c>
-      <c r="D32" s="0">
+      <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" s="0">
+      <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0" t="s">
-        <v>3148</v>
+      <c r="G32" s="22" t="s">
+        <v>3277</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="0" t="s">
-        <v>3081</v>
-      </c>
-      <c r="B33" s="0">
+      <c r="A33" s="22" t="s">
+        <v>3209</v>
+      </c>
+      <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33" s="0">
+      <c r="C33">
         <v>0</v>
       </c>
-      <c r="D33" s="0">
+      <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0" t="s">
-        <v>3149</v>
+      <c r="G33" s="22" t="s">
+        <v>3278</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="s">
-        <v>3082</v>
-      </c>
-      <c r="B34" s="0">
+      <c r="A34" s="22" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34" s="0">
+      <c r="C34">
         <v>0</v>
       </c>
-      <c r="D34" s="0">
+      <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34" s="0">
+      <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" s="0"/>
-      <c r="G34" s="0" t="s">
-        <v>3150</v>
+      <c r="G34" s="22" t="s">
+        <v>3279</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="s">
-        <v>3083</v>
-      </c>
-      <c r="B35" s="0">
+      <c r="A35" s="22" t="s">
+        <v>3211</v>
+      </c>
+      <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35" s="0">
+      <c r="C35">
         <v>0</v>
       </c>
-      <c r="D35" s="0">
+      <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" s="0">
+      <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0" t="s">
-        <v>3151</v>
+      <c r="G35" s="22" t="s">
+        <v>3280</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="s">
-        <v>3084</v>
-      </c>
-      <c r="B36" s="0">
+      <c r="A36" s="22" t="s">
+        <v>3212</v>
+      </c>
+      <c r="B36">
         <v>0</v>
       </c>
-      <c r="C36" s="0">
+      <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36" s="0">
+      <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36" s="0">
+      <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36" s="0"/>
-      <c r="G36" s="0" t="s">
-        <v>3152</v>
+      <c r="G36" s="22" t="s">
+        <v>3281</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="s">
-        <v>3085</v>
-      </c>
-      <c r="B37" s="0">
+      <c r="A37" s="22" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B37">
         <v>1.0061922463256359</v>
       </c>
-      <c r="C37" s="0">
+      <c r="C37">
         <v>1.0049629315732038</v>
       </c>
-      <c r="D37" s="0">
+      <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37" s="0">
+      <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37" s="0"/>
-      <c r="G37" s="0" t="s">
-        <v>3153</v>
+      <c r="G37" s="22" t="s">
+        <v>3282</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="s">
-        <v>3086</v>
-      </c>
-      <c r="B38" s="0">
+      <c r="A38" s="22" t="s">
+        <v>3214</v>
+      </c>
+      <c r="B38">
         <v>0.99622871975463567</v>
       </c>
-      <c r="C38" s="0">
+      <c r="C38">
         <v>0.99622871975463567</v>
       </c>
-      <c r="D38" s="0">
+      <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38" s="0">
+      <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38" s="0"/>
-      <c r="G38" s="0" t="s">
-        <v>3154</v>
+      <c r="G38" s="22" t="s">
+        <v>3283</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="0" t="s">
-        <v>3087</v>
-      </c>
-      <c r="B39" s="0">
+      <c r="A39" s="22" t="s">
+        <v>3215</v>
+      </c>
+      <c r="B39">
         <v>-0.0074361935641006766</v>
       </c>
-      <c r="C39" s="0">
+      <c r="C39">
         <v>-0.0074361935641006766</v>
       </c>
-      <c r="D39" s="0">
+      <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39" s="0">
+      <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39" s="0"/>
-      <c r="G39" s="0" t="s">
-        <v>3155</v>
+      <c r="G39" s="22" t="s">
+        <v>3284</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="0" t="s">
-        <v>3088</v>
-      </c>
-      <c r="B40" s="0">
+      <c r="A40" s="22" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B40">
         <v>0.80000000000000004</v>
       </c>
-      <c r="C40" s="0">
+      <c r="C40">
         <v>0.80000000000000004</v>
       </c>
-      <c r="D40" s="0">
+      <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40" s="0">
+      <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40" s="0"/>
-      <c r="G40" s="0"/>
     </row>
     <row r="41">
-      <c r="A41" s="0" t="s">
-        <v>3089</v>
-      </c>
-      <c r="B41" s="0">
+      <c r="A41" s="22" t="s">
+        <v>3217</v>
+      </c>
+      <c r="B41">
         <v>0.59999999999999998</v>
       </c>
-      <c r="C41" s="0">
+      <c r="C41">
         <v>0.59999999999999998</v>
       </c>
-      <c r="D41" s="0">
+      <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" s="0">
+      <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0" t="s">
-        <v>3156</v>
+      <c r="G41" s="22" t="s">
+        <v>3285</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="0" t="s">
-        <v>3090</v>
-      </c>
-      <c r="B42" s="0">
+      <c r="A42" s="22" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B42">
         <v>0.029999999999999999</v>
       </c>
-      <c r="C42" s="0">
+      <c r="C42">
         <v>0.029999999999999999</v>
       </c>
-      <c r="D42" s="0">
+      <c r="D42">
         <v>0</v>
       </c>
-      <c r="E42" s="0">
+      <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42" s="0"/>
-      <c r="G42" s="0" t="s">
-        <v>3157</v>
+      <c r="G42" s="22" t="s">
+        <v>3286</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="s">
-        <v>3091</v>
-      </c>
-      <c r="B43" s="0">
+      <c r="A43" s="22" t="s">
+        <v>3219</v>
+      </c>
+      <c r="B43">
         <v>10</v>
       </c>
-      <c r="C43" s="0">
+      <c r="C43">
         <v>10</v>
       </c>
-      <c r="D43" s="0">
+      <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43" s="0">
+      <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43" s="0"/>
-      <c r="G43" s="0" t="s">
-        <v>3158</v>
+      <c r="G43" s="22" t="s">
+        <v>3287</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0" t="s">
-        <v>3092</v>
-      </c>
-      <c r="B44" s="0">
+      <c r="A44" s="22" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B44">
         <v>1.0049629315732038</v>
       </c>
-      <c r="C44" s="0">
+      <c r="C44">
         <v>1.0049629315732038</v>
       </c>
-      <c r="D44" s="0">
+      <c r="D44">
         <v>0</v>
       </c>
-      <c r="E44" s="0">
+      <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44" s="0"/>
-      <c r="G44" s="0" t="s">
-        <v>3159</v>
+      <c r="G44" s="22" t="s">
+        <v>3288</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="s">
-        <v>3093</v>
-      </c>
-      <c r="B45" s="0">
+      <c r="A45" s="22" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B45">
         <v>6</v>
       </c>
-      <c r="C45" s="0">
+      <c r="C45">
         <v>6</v>
       </c>
-      <c r="D45" s="0">
+      <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" s="0">
+      <c r="E45">
         <v>0</v>
       </c>
-      <c r="F45" s="0"/>
-      <c r="G45" s="0" t="s">
-        <v>3160</v>
+      <c r="G45" s="22" t="s">
+        <v>3289</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="0" t="s">
-        <v>3094</v>
-      </c>
-      <c r="B46" s="0">
+      <c r="A46" s="22" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B46">
         <v>0.25</v>
       </c>
-      <c r="C46" s="0">
+      <c r="C46">
         <v>0.25</v>
       </c>
-      <c r="D46" s="0">
+      <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46" s="0">
+      <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46" s="0"/>
-      <c r="G46" s="0" t="s">
-        <v>3161</v>
+      <c r="G46" s="22" t="s">
+        <v>3290</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0" t="s">
-        <v>3095</v>
-      </c>
-      <c r="B47" s="0">
+      <c r="A47" s="22" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B47">
         <v>0.84999999999999998</v>
       </c>
-      <c r="C47" s="0">
+      <c r="C47">
         <v>0.84999999999999998</v>
       </c>
-      <c r="D47" s="0">
+      <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47" s="0">
+      <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47" s="0"/>
-      <c r="G47" s="0" t="s">
-        <v>3162</v>
+      <c r="G47" s="22" t="s">
+        <v>3291</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="0" t="s">
-        <v>3096</v>
-      </c>
-      <c r="B48" s="0">
+      <c r="A48" s="22" t="s">
+        <v>3224</v>
+      </c>
+      <c r="B48">
         <v>60</v>
       </c>
-      <c r="C48" s="0">
+      <c r="C48">
         <v>60</v>
       </c>
-      <c r="D48" s="0">
+      <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48" s="0">
+      <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48" s="0"/>
-      <c r="G48" s="0" t="s">
-        <v>3163</v>
+      <c r="G48" s="22" t="s">
+        <v>3292</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0" t="s">
-        <v>3097</v>
-      </c>
-      <c r="B49" s="0">
+      <c r="A49" s="22" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B49">
         <v>300</v>
       </c>
-      <c r="C49" s="0">
+      <c r="C49">
         <v>300</v>
       </c>
-      <c r="D49" s="0">
+      <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" s="0">
+      <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49" s="0"/>
-      <c r="G49" s="0" t="s">
-        <v>3164</v>
+      <c r="G49" s="22" t="s">
+        <v>3293</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="0" t="s">
-        <v>3098</v>
-      </c>
-      <c r="B50" s="0">
+      <c r="A50" s="22" t="s">
+        <v>3226</v>
+      </c>
+      <c r="B50">
         <v>0.90000000000000002</v>
       </c>
-      <c r="C50" s="0">
+      <c r="C50">
         <v>0.90000000000000002</v>
       </c>
-      <c r="D50" s="0">
+      <c r="D50">
         <v>0</v>
       </c>
-      <c r="E50" s="0">
+      <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50" s="0"/>
-      <c r="G50" s="0" t="s">
-        <v>3165</v>
+      <c r="G50" s="22" t="s">
+        <v>3294</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0" t="s">
-        <v>3099</v>
-      </c>
-      <c r="B51" s="0">
+      <c r="A51" s="22" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B51">
         <v>0.84999999999999998</v>
       </c>
-      <c r="C51" s="0">
+      <c r="C51">
         <v>0.84999999999999998</v>
       </c>
-      <c r="D51" s="0">
+      <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51" s="0">
+      <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51" s="0"/>
-      <c r="G51" s="0" t="s">
-        <v>3166</v>
+      <c r="G51" s="22" t="s">
+        <v>3295</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="0" t="s">
-        <v>3100</v>
-      </c>
-      <c r="B52" s="0">
+      <c r="A52" s="22" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B52">
         <v>4</v>
       </c>
-      <c r="C52" s="0">
+      <c r="C52">
         <v>4</v>
       </c>
-      <c r="D52" s="0">
+      <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" s="0">
+      <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52" s="0"/>
-      <c r="G52" s="0" t="s">
-        <v>3167</v>
+      <c r="G52" s="22" t="s">
+        <v>3296</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="0" t="s">
-        <v>3101</v>
-      </c>
-      <c r="B53" s="0">
+      <c r="A53" s="22" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B53">
         <v>0</v>
       </c>
-      <c r="C53" s="0">
+      <c r="C53">
         <v>0</v>
       </c>
-      <c r="D53" s="0">
+      <c r="D53">
         <v>0</v>
       </c>
-      <c r="E53" s="0">
+      <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53" s="0"/>
-      <c r="G53" s="0" t="s">
-        <v>3168</v>
+      <c r="G53" s="22" t="s">
+        <v>3297</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="0" t="s">
-        <v>3102</v>
-      </c>
-      <c r="B54" s="0">
+      <c r="A54" s="22" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B54">
         <v>0.80000000000000004</v>
       </c>
-      <c r="C54" s="0">
+      <c r="C54">
         <v>0.80000000000000004</v>
       </c>
-      <c r="D54" s="0">
+      <c r="D54">
         <v>0</v>
       </c>
-      <c r="E54" s="0">
+      <c r="E54">
         <v>0</v>
       </c>
-      <c r="F54" s="0"/>
-      <c r="G54" s="0" t="s">
-        <v>3169</v>
+      <c r="G54" s="22" t="s">
+        <v>3298</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="0" t="s">
-        <v>3103</v>
-      </c>
-      <c r="B55" s="0">
+      <c r="A55" s="22" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B55">
         <v>0</v>
       </c>
-      <c r="C55" s="0">
+      <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55" s="0">
+      <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55" s="0">
+      <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55" s="0"/>
-      <c r="G55" s="0" t="s">
-        <v>3170</v>
+      <c r="G55" s="22" t="s">
+        <v>3299</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0" t="s">
-        <v>3104</v>
-      </c>
-      <c r="B56" s="0">
+      <c r="A56" s="22" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B56">
         <v>0</v>
       </c>
-      <c r="C56" s="0">
+      <c r="C56">
         <v>0</v>
       </c>
-      <c r="D56" s="0">
+      <c r="D56">
         <v>0</v>
       </c>
-      <c r="E56" s="0">
+      <c r="E56">
         <v>0</v>
       </c>
-      <c r="F56" s="0"/>
-      <c r="G56" s="0" t="s">
-        <v>3171</v>
+      <c r="G56" s="22" t="s">
+        <v>3300</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="0" t="s">
-        <v>3105</v>
-      </c>
-      <c r="B57" s="0">
+      <c r="A57" s="22" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B57">
         <v>0</v>
       </c>
-      <c r="C57" s="0">
+      <c r="C57">
         <v>0</v>
       </c>
-      <c r="D57" s="0">
+      <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57" s="0">
+      <c r="E57">
         <v>0</v>
       </c>
-      <c r="F57" s="0"/>
-      <c r="G57" s="0" t="s">
-        <v>3172</v>
+      <c r="G57" s="22" t="s">
+        <v>3301</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0" t="s">
-        <v>3106</v>
-      </c>
-      <c r="B58" s="0">
+      <c r="A58" s="22" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B58">
         <v>0</v>
       </c>
-      <c r="C58" s="0">
+      <c r="C58">
         <v>0</v>
       </c>
-      <c r="D58" s="0">
+      <c r="D58">
         <v>0</v>
       </c>
-      <c r="E58" s="0">
+      <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58" s="0"/>
-      <c r="G58" s="0" t="s">
-        <v>3173</v>
+      <c r="G58" s="22" t="s">
+        <v>3302</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="0" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B59" s="0">
+      <c r="A59" s="22" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B59">
         <v>0</v>
       </c>
-      <c r="C59" s="0">
+      <c r="C59">
         <v>0</v>
       </c>
-      <c r="D59" s="0">
+      <c r="D59">
         <v>0</v>
       </c>
-      <c r="E59" s="0">
+      <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59" s="0"/>
-      <c r="G59" s="0" t="s">
-        <v>3174</v>
+      <c r="G59" s="22" t="s">
+        <v>3303</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="0" t="s">
-        <v>3108</v>
-      </c>
-      <c r="B60" s="0">
+      <c r="A60" s="22" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B60">
         <v>0</v>
       </c>
-      <c r="C60" s="0">
+      <c r="C60">
         <v>0</v>
       </c>
-      <c r="D60" s="0">
+      <c r="D60">
         <v>1</v>
       </c>
-      <c r="E60" s="0">
+      <c r="E60">
         <v>1</v>
       </c>
-      <c r="F60" s="0" t="s">
-        <v>3118</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>3175</v>
+      <c r="F60" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>3304</v>
       </c>
     </row>
   </sheetData>

--- a/simple-spbc/steady.xlsx
+++ b/simple-spbc/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5553" uniqueCount="3305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5855" uniqueCount="3561">
   <si>
     <t>Row</t>
   </si>
@@ -9544,6 +9544,774 @@
   </si>
   <si>
     <t>Level of output</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Level of output</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Level of output</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
   </si>
   <si>
     <t>Row</t>
@@ -10020,1294 +10788,1327 @@
   <dimension ref="A1:G60"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="10.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="3" max="3" width="16.28515625" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
-    <col min="5" max="5" width="16.7109375" customWidth="true"/>
-    <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="46.7109375" customWidth="true"/>
+    <col min="5" max="5" width="16.28515625" customWidth="true"/>
+    <col min="6" max="6" width="6.7109375" customWidth="true"/>
+    <col min="7" max="7" width="41.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="s">
-        <v>3177</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>3237</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>3238</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>3239</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>3240</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>3241</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>3247</v>
+      <c r="A1" s="0" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3493</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3495</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>3496</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>3497</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>3503</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="22" t="s">
-        <v>3178</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="0" t="s">
+        <v>3434</v>
+      </c>
+      <c r="B2" s="0">
         <v>3.0199999999999783</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>2.5174634146343244</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>5.4779494110752512e-17</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>3248</v>
+      <c r="E2" s="0">
+        <v>2.1339173496206196e-17</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>3498</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>3504</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="22" t="s">
-        <v>3179</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="0" t="s">
+        <v>3435</v>
+      </c>
+      <c r="B3" s="0">
         <v>3.0199999999999783</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>2.5174634146343244</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>-2.9257301027260882e-17</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>3249</v>
+      <c r="E3" s="0">
+        <v>-3.6811134819657997e-17</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>3498</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>3505</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="22" t="s">
-        <v>3180</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="0" t="s">
+        <v>3436</v>
+      </c>
+      <c r="B4" s="0">
         <v>2.000000000000024</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>2.0000000000000129</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1.5788566771606308e-17</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>3250</v>
+      <c r="D4" s="0">
+        <v>2.960594732333751e-14</v>
+      </c>
+      <c r="E4" s="0">
+        <v>-2.4680182612413991e-17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>3498</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>3506</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="22" t="s">
-        <v>3181</v>
-      </c>
-      <c r="B5">
-        <v>2.4999999999998579</v>
-      </c>
-      <c r="C5">
-        <v>2.0000000000000209</v>
-      </c>
-      <c r="D5">
-        <v>2.960594732333751e-14</v>
-      </c>
-      <c r="E5">
-        <v>6.6353843563063909e-17</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>3251</v>
+      <c r="A5" s="0" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2.4999999999997691</v>
+      </c>
+      <c r="C5" s="0">
+        <v>2.0000000000000506</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>4.7883746624457054e-17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>3498</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>3507</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="22" t="s">
-        <v>3182</v>
-      </c>
-      <c r="B6">
-        <v>4.5499999999999652</v>
-      </c>
-      <c r="C6">
-        <v>4.0400000000000826</v>
-      </c>
-      <c r="D6">
+      <c r="A6" s="0" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B6" s="0">
+        <v>4.5499999999998542</v>
+      </c>
+      <c r="C6" s="0">
+        <v>4.040000000000096</v>
+      </c>
+      <c r="D6" s="0">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>4.6087096493618643e-17</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>3252</v>
+      <c r="E6" s="0">
+        <v>9.905529787058782e-17</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>3498</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>3508</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="22" t="s">
-        <v>3254</v>
-      </c>
-      <c r="B7">
-        <v>1.551946529329377</v>
-      </c>
-      <c r="C7">
-        <v>3.1038930586587541</v>
-      </c>
-      <c r="D7">
-        <v>1.0061922463256356</v>
-      </c>
-      <c r="E7">
+      <c r="A7" s="0" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B7" s="0">
+        <v>1.5519465293293777</v>
+      </c>
+      <c r="C7" s="0">
+        <v>3.103893058658755</v>
+      </c>
+      <c r="D7" s="0">
+        <v>1.0061922463256354</v>
+      </c>
+      <c r="E7" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>3245</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>3253</v>
+      <c r="F7" s="0" t="s">
+        <v>3499</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>3509</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="22" t="s">
-        <v>3184</v>
-      </c>
-      <c r="B8">
-        <v>1.551946529329377</v>
-      </c>
-      <c r="C8">
-        <v>3.1038930586587541</v>
-      </c>
-      <c r="D8">
-        <v>1.0061922463256356</v>
-      </c>
-      <c r="E8">
+      <c r="A8" s="0" t="s">
+        <v>3440</v>
+      </c>
+      <c r="B8" s="0">
+        <v>1.5519465293293777</v>
+      </c>
+      <c r="C8" s="0">
+        <v>3.103893058658755</v>
+      </c>
+      <c r="D8" s="0">
+        <v>1.0061922463256354</v>
+      </c>
+      <c r="E8" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>3245</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>3254</v>
+      <c r="F8" s="0" t="s">
+        <v>3499</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>3510</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="22" t="s">
-        <v>3185</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="0" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.74698177564761825</v>
+      </c>
+      <c r="C9" s="0">
         <v>0.74698177564761814</v>
       </c>
-      <c r="C9">
-        <v>0.74698177564761803</v>
-      </c>
-      <c r="D9">
+      <c r="D9" s="0">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="E9" s="0">
         <v>1</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>3245</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>3255</v>
+      <c r="F9" s="0" t="s">
+        <v>3499</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>3511</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="22" t="s">
-        <v>3186</v>
-      </c>
-      <c r="B10">
-        <v>1.7313525130113012</v>
-      </c>
-      <c r="C10">
+      <c r="A10" s="0" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1.731145363608168</v>
+      </c>
+      <c r="C10" s="0">
         <v>3.4627050260226024</v>
       </c>
-      <c r="D10">
-        <v>1.0111859095936382</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="0">
+        <v>1.011185909593638</v>
+      </c>
+      <c r="E10" s="0">
         <v>1.0099504938362081</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>3245</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>3256</v>
+      <c r="F10" s="0" t="s">
+        <v>3499</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>3512</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="22" t="s">
-        <v>3187</v>
-      </c>
-      <c r="B11">
+      <c r="A11" s="0" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.83323362833315928</v>
+      </c>
+      <c r="C11" s="0">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C11">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>3245</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>3257</v>
+      <c r="F11" s="0" t="s">
+        <v>3499</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>3513</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="22" t="s">
-        <v>3188</v>
-      </c>
-      <c r="B12">
-        <v>1.551946529329377</v>
-      </c>
-      <c r="C12">
-        <v>3.1038930586587541</v>
-      </c>
-      <c r="D12">
-        <v>1.0061922463256356</v>
-      </c>
-      <c r="E12">
-        <v>1.0049629315732038</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>3245</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>3258</v>
+      <c r="A12" s="0" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B12" s="0">
+        <v>1.5519465293293777</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3.103893058658755</v>
+      </c>
+      <c r="D12" s="0">
+        <v>1.0061922463256354</v>
+      </c>
+      <c r="E12" s="0">
+        <v>1.004962931573204</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>3499</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>3514</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="22" t="s">
-        <v>3189</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="0" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B13" s="0">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0">
         <v>2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0">
         <v>1.0061922463256356</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F13" s="22" t="s">
-        <v>3245</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>3259</v>
+      <c r="F13" s="0" t="s">
+        <v>3499</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>3515</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="22" t="s">
-        <v>3190</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="0" t="s">
+        <v>3446</v>
+      </c>
+      <c r="B14" s="0">
         <v>1.0061922463256359</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0">
         <v>1</v>
       </c>
-      <c r="F14" s="22" t="s">
-        <v>3245</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>3260</v>
+      <c r="F14" s="0" t="s">
+        <v>3499</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>3516</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="22" t="s">
-        <v>3191</v>
-      </c>
-      <c r="B15">
+      <c r="A15" s="0" t="s">
+        <v>3447</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.99988035399979103</v>
+      </c>
+      <c r="C15" s="0">
         <v>1</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="D15" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="F15" s="22" t="s">
-        <v>3245</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>3261</v>
+      <c r="F15" s="0" t="s">
+        <v>3499</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>3517</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="22" t="s">
-        <v>3192</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="0" t="s">
+        <v>3448</v>
+      </c>
+      <c r="B16" s="0">
         <v>1.0074659719585326</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>1.0062351010325994</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0">
         <v>1</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>1</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>3245</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>3262</v>
+      <c r="F16" s="0" t="s">
+        <v>3499</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>3518</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="22" t="s">
-        <v>3193</v>
-      </c>
-      <c r="B17">
+      <c r="A17" s="0" t="s">
+        <v>3449</v>
+      </c>
+      <c r="B17" s="0">
         <v>1.0024906793143211</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0">
         <v>1.0012658869490878</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0">
         <v>1</v>
       </c>
-      <c r="F17" s="22" t="s">
-        <v>3245</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>3263</v>
+      <c r="F17" s="0" t="s">
+        <v>3499</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>3519</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="22" t="s">
-        <v>3194</v>
-      </c>
-      <c r="B18">
+      <c r="A18" s="0" t="s">
+        <v>3450</v>
+      </c>
+      <c r="B18" s="0">
         <v>1.0074659719585326</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>1.0062351010325994</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0">
         <v>1</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0">
         <v>1</v>
       </c>
-      <c r="F18" s="22" t="s">
-        <v>3245</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>3264</v>
+      <c r="F18" s="0" t="s">
+        <v>3499</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>3520</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="22" t="s">
-        <v>3195</v>
-      </c>
-      <c r="B19">
+      <c r="A19" s="0" t="s">
+        <v>3451</v>
+      </c>
+      <c r="B19" s="0">
         <v>1.0074659719585326</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0">
         <v>1.0062351010325994</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
         <v>1</v>
       </c>
-      <c r="F19" s="22" t="s">
-        <v>3245</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>3265</v>
+      <c r="F19" s="0" t="s">
+        <v>3499</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>3521</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="22" t="s">
-        <v>3196</v>
-      </c>
-      <c r="B20">
+      <c r="A20" s="0" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B20" s="0">
         <v>0</v>
       </c>
-      <c r="C20">
-        <v>9.8434541592871858e-31</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="0">
+        <v>-2.9612084160776185e-23</v>
+      </c>
+      <c r="D20" s="0">
         <v>0</v>
       </c>
-      <c r="E20">
-        <v>-1.4093052171328696e-31</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>3266</v>
+      <c r="E20" s="0">
+        <v>4.1047243257132857e-24</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>3500</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>3522</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="22" t="s">
-        <v>3197</v>
-      </c>
-      <c r="B21">
-        <v>1.5311735582263091</v>
-      </c>
-      <c r="C21">
-        <v>3.0623471164525835</v>
-      </c>
-      <c r="D21">
-        <v>1.011185909593638</v>
-      </c>
-      <c r="E21">
-        <v>1.0099504938362072</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>3245</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>3267</v>
+      <c r="A21" s="0" t="s">
+        <v>3453</v>
+      </c>
+      <c r="B21" s="0">
+        <v>1.5309903594344068</v>
+      </c>
+      <c r="C21" s="0">
+        <v>3.0623471164528082</v>
+      </c>
+      <c r="D21" s="0">
+        <v>1.0111859095936371</v>
+      </c>
+      <c r="E21" s="0">
+        <v>1.0099504938362101</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>3501</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>3523</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="22" t="s">
-        <v>3198</v>
-      </c>
-      <c r="B22">
-        <v>1.011185909593638</v>
-      </c>
-      <c r="C22">
-        <v>1.0099504938362074</v>
-      </c>
-      <c r="D22">
+      <c r="A22" s="0" t="s">
+        <v>3454</v>
+      </c>
+      <c r="B22" s="0">
+        <v>1.0111859095936371</v>
+      </c>
+      <c r="C22" s="0">
+        <v>1.0099504938362101</v>
+      </c>
+      <c r="D22" s="0">
         <v>1</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0">
         <v>1</v>
       </c>
-      <c r="F22" s="22" t="s">
-        <v>3245</v>
-      </c>
+      <c r="F22" s="0" t="s">
+        <v>3501</v>
+      </c>
+      <c r="G22" s="0"/>
     </row>
     <row r="23">
-      <c r="A23" s="22" t="s">
-        <v>3199</v>
-      </c>
-      <c r="B23">
-        <v>0.051731550977645917</v>
-      </c>
-      <c r="C23">
+      <c r="A23" s="0" t="s">
+        <v>3455</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0.051725361504486853</v>
+      </c>
+      <c r="C23" s="0">
         <v>0.10346310195529185</v>
       </c>
-      <c r="D23">
-        <v>1.011185909593638</v>
-      </c>
-      <c r="E23">
-        <v>1.0099504938362081</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>3245</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>3268</v>
+      <c r="D23" s="0">
+        <v>1.0111859095936377</v>
+      </c>
+      <c r="E23" s="0">
+        <v>1.0099504938362078</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>3501</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>3524</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="22" t="s">
-        <v>3200</v>
-      </c>
-      <c r="B24">
-        <v>0.64435209661000203</v>
-      </c>
-      <c r="C24">
-        <v>0.32217604830500096</v>
-      </c>
-      <c r="D24">
-        <v>0.98893783083060027</v>
-      </c>
-      <c r="E24">
-        <v>0.99014754297667418</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>3245</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>3269</v>
+      <c r="A24" s="0" t="s">
+        <v>3456</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0.64442919998619796</v>
+      </c>
+      <c r="C24" s="0">
+        <v>0.32217604830500091</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0.98893783083060038</v>
+      </c>
+      <c r="E24" s="0">
+        <v>0.99014754297667407</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>3501</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>3525</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="22" t="s">
-        <v>3201</v>
-      </c>
-      <c r="B25">
+      <c r="A25" s="0" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B25" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="C25">
-        <v>1.0049629315732036</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="0">
+        <v>1.0049629315732038</v>
+      </c>
+      <c r="D25" s="0">
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0">
         <v>1</v>
       </c>
-      <c r="F25" s="22" t="s">
-        <v>3245</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>3270</v>
+      <c r="F25" s="0" t="s">
+        <v>3501</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>3526</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="22" t="s">
-        <v>3202</v>
-      </c>
-      <c r="B26">
+      <c r="A26" s="0" t="s">
+        <v>3458</v>
+      </c>
+      <c r="B26" s="0">
         <v>1.0200000000000002</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0">
         <v>1.0200000000000002</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0">
         <v>1</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0">
         <v>1</v>
       </c>
-      <c r="F26" s="22" t="s">
-        <v>3245</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>3271</v>
+      <c r="F26" s="0" t="s">
+        <v>3501</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>3527</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="22" t="s">
-        <v>3203</v>
-      </c>
-      <c r="B27">
-        <v>1.0111859095936382</v>
-      </c>
-      <c r="C27">
+      <c r="A27" s="0" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B27" s="0">
+        <v>1.011185909593638</v>
+      </c>
+      <c r="C27" s="0">
         <v>1.0099504938362081</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0">
         <v>1</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0">
         <v>1</v>
       </c>
-      <c r="F27" s="22" t="s">
-        <v>3245</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>3272</v>
+      <c r="F27" s="0" t="s">
+        <v>3501</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>3528</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="22" t="s">
-        <v>3204</v>
-      </c>
-      <c r="B28">
+      <c r="A28" s="0" t="s">
+        <v>3460</v>
+      </c>
+      <c r="B28" s="0">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0">
         <v>1</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0">
         <v>1</v>
       </c>
-      <c r="F28" s="22" t="s">
-        <v>3245</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>3273</v>
+      <c r="F28" s="0" t="s">
+        <v>3501</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>3529</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="22" t="s">
-        <v>3205</v>
-      </c>
-      <c r="B29">
+      <c r="A29" s="0" t="s">
+        <v>3461</v>
+      </c>
+      <c r="B29" s="0">
         <v>0</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0">
         <v>0</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0">
         <v>0</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0">
         <v>0</v>
       </c>
-      <c r="G29" s="22" t="s">
-        <v>3274</v>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0" t="s">
+        <v>3530</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="22" t="s">
-        <v>3206</v>
-      </c>
-      <c r="B30">
+      <c r="A30" s="0" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B30" s="0">
         <v>0</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0">
         <v>0</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0">
         <v>0</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0">
         <v>0</v>
       </c>
-      <c r="G30" s="22" t="s">
-        <v>3275</v>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0" t="s">
+        <v>3531</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="22" t="s">
-        <v>3207</v>
-      </c>
-      <c r="B31">
+      <c r="A31" s="0" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B31" s="0">
         <v>0</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0">
         <v>0</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0">
         <v>0</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0">
         <v>0</v>
       </c>
-      <c r="G31" s="22" t="s">
-        <v>3276</v>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0" t="s">
+        <v>3532</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="22" t="s">
-        <v>3208</v>
-      </c>
-      <c r="B32">
+      <c r="A32" s="0" t="s">
+        <v>3464</v>
+      </c>
+      <c r="B32" s="0">
         <v>0</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0">
         <v>0</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0">
         <v>0</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0">
         <v>0</v>
       </c>
-      <c r="G32" s="22" t="s">
-        <v>3277</v>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0" t="s">
+        <v>3533</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="22" t="s">
-        <v>3209</v>
-      </c>
-      <c r="B33">
+      <c r="A33" s="0" t="s">
+        <v>3465</v>
+      </c>
+      <c r="B33" s="0">
         <v>0</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0">
         <v>0</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0">
         <v>0</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0">
         <v>0</v>
       </c>
-      <c r="G33" s="22" t="s">
-        <v>3278</v>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0" t="s">
+        <v>3534</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="22" t="s">
-        <v>3210</v>
-      </c>
-      <c r="B34">
+      <c r="A34" s="0" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B34" s="0">
         <v>0</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0">
         <v>0</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0">
         <v>0</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0">
         <v>0</v>
       </c>
-      <c r="G34" s="22" t="s">
-        <v>3279</v>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0" t="s">
+        <v>3535</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="22" t="s">
-        <v>3211</v>
-      </c>
-      <c r="B35">
+      <c r="A35" s="0" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B35" s="0">
         <v>0</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0">
         <v>0</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0">
         <v>0</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0">
         <v>0</v>
       </c>
-      <c r="G35" s="22" t="s">
-        <v>3280</v>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0" t="s">
+        <v>3536</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="22" t="s">
-        <v>3212</v>
-      </c>
-      <c r="B36">
+      <c r="A36" s="0" t="s">
+        <v>3468</v>
+      </c>
+      <c r="B36" s="0">
         <v>0</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0">
         <v>0</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0">
         <v>0</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0">
         <v>0</v>
       </c>
-      <c r="G36" s="22" t="s">
-        <v>3281</v>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0" t="s">
+        <v>3537</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="22" t="s">
-        <v>3213</v>
-      </c>
-      <c r="B37">
+      <c r="A37" s="0" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B37" s="0">
         <v>1.0061922463256359</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0">
         <v>0</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0">
         <v>0</v>
       </c>
-      <c r="G37" s="22" t="s">
-        <v>3282</v>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0" t="s">
+        <v>3538</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="22" t="s">
-        <v>3214</v>
-      </c>
-      <c r="B38">
+      <c r="A38" s="0" t="s">
+        <v>3470</v>
+      </c>
+      <c r="B38" s="0">
         <v>0.99622871975463567</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0">
         <v>0.99622871975463567</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0">
         <v>0</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0">
         <v>0</v>
       </c>
-      <c r="G38" s="22" t="s">
-        <v>3283</v>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0" t="s">
+        <v>3539</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="22" t="s">
-        <v>3215</v>
-      </c>
-      <c r="B39">
+      <c r="A39" s="0" t="s">
+        <v>3471</v>
+      </c>
+      <c r="B39" s="0">
         <v>-0.0074361935641006766</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0">
         <v>-0.0074361935641006766</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0">
         <v>0</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0">
         <v>0</v>
       </c>
-      <c r="G39" s="22" t="s">
-        <v>3284</v>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0" t="s">
+        <v>3540</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="22" t="s">
-        <v>3216</v>
-      </c>
-      <c r="B40">
+      <c r="A40" s="0" t="s">
+        <v>3472</v>
+      </c>
+      <c r="B40" s="0">
         <v>0.80000000000000004</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0">
         <v>0.80000000000000004</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0">
         <v>0</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0">
         <v>0</v>
       </c>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
     </row>
     <row r="41">
-      <c r="A41" s="22" t="s">
-        <v>3217</v>
-      </c>
-      <c r="B41">
+      <c r="A41" s="0" t="s">
+        <v>3473</v>
+      </c>
+      <c r="B41" s="0">
         <v>0.59999999999999998</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0">
         <v>0.59999999999999998</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0">
         <v>0</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0">
         <v>0</v>
       </c>
-      <c r="G41" s="22" t="s">
-        <v>3285</v>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0" t="s">
+        <v>3541</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="22" t="s">
-        <v>3218</v>
-      </c>
-      <c r="B42">
+      <c r="A42" s="0" t="s">
+        <v>3474</v>
+      </c>
+      <c r="B42" s="0">
         <v>0.029999999999999999</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0">
         <v>0.029999999999999999</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0">
         <v>0</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0">
         <v>0</v>
       </c>
-      <c r="G42" s="22" t="s">
-        <v>3286</v>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0" t="s">
+        <v>3542</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="22" t="s">
-        <v>3219</v>
-      </c>
-      <c r="B43">
+      <c r="A43" s="0" t="s">
+        <v>3475</v>
+      </c>
+      <c r="B43" s="0">
         <v>10</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0">
         <v>10</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0">
         <v>0</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0">
         <v>0</v>
       </c>
-      <c r="G43" s="22" t="s">
-        <v>3287</v>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0" t="s">
+        <v>3543</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="22" t="s">
-        <v>3220</v>
-      </c>
-      <c r="B44">
+      <c r="A44" s="0" t="s">
+        <v>3476</v>
+      </c>
+      <c r="B44" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0">
         <v>0</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0">
         <v>0</v>
       </c>
-      <c r="G44" s="22" t="s">
-        <v>3288</v>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0" t="s">
+        <v>3544</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="22" t="s">
-        <v>3221</v>
-      </c>
-      <c r="B45">
+      <c r="A45" s="0" t="s">
+        <v>3477</v>
+      </c>
+      <c r="B45" s="0">
         <v>6</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0">
         <v>6</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0">
         <v>0</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0">
         <v>0</v>
       </c>
-      <c r="G45" s="22" t="s">
-        <v>3289</v>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0" t="s">
+        <v>3545</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="22" t="s">
-        <v>3222</v>
-      </c>
-      <c r="B46">
+      <c r="A46" s="0" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B46" s="0">
         <v>0.25</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0">
         <v>0.25</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0">
         <v>0</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0">
         <v>0</v>
       </c>
-      <c r="G46" s="22" t="s">
-        <v>3290</v>
+      <c r="F46" s="0"/>
+      <c r="G46" s="0" t="s">
+        <v>3546</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="22" t="s">
-        <v>3223</v>
-      </c>
-      <c r="B47">
+      <c r="A47" s="0" t="s">
+        <v>3479</v>
+      </c>
+      <c r="B47" s="0">
         <v>0.84999999999999998</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0">
         <v>0.84999999999999998</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0">
         <v>0</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0">
         <v>0</v>
       </c>
-      <c r="G47" s="22" t="s">
-        <v>3291</v>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0" t="s">
+        <v>3547</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="22" t="s">
-        <v>3224</v>
-      </c>
-      <c r="B48">
+      <c r="A48" s="0" t="s">
+        <v>3480</v>
+      </c>
+      <c r="B48" s="0">
         <v>60</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0">
         <v>60</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0">
         <v>0</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0">
         <v>0</v>
       </c>
-      <c r="G48" s="22" t="s">
-        <v>3292</v>
+      <c r="F48" s="0"/>
+      <c r="G48" s="0" t="s">
+        <v>3548</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="22" t="s">
-        <v>3225</v>
-      </c>
-      <c r="B49">
+      <c r="A49" s="0" t="s">
+        <v>3481</v>
+      </c>
+      <c r="B49" s="0">
         <v>300</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0">
         <v>300</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0">
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0">
         <v>0</v>
       </c>
-      <c r="G49" s="22" t="s">
-        <v>3293</v>
+      <c r="F49" s="0"/>
+      <c r="G49" s="0" t="s">
+        <v>3549</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="22" t="s">
-        <v>3226</v>
-      </c>
-      <c r="B50">
+      <c r="A50" s="0" t="s">
+        <v>3482</v>
+      </c>
+      <c r="B50" s="0">
         <v>0.90000000000000002</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0">
         <v>0.90000000000000002</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="0">
         <v>0</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0">
         <v>0</v>
       </c>
-      <c r="G50" s="22" t="s">
-        <v>3294</v>
+      <c r="F50" s="0"/>
+      <c r="G50" s="0" t="s">
+        <v>3550</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="22" t="s">
-        <v>3227</v>
-      </c>
-      <c r="B51">
+      <c r="A51" s="0" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B51" s="0">
         <v>0.84999999999999998</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0">
         <v>0.84999999999999998</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0">
         <v>0</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="0">
         <v>0</v>
       </c>
-      <c r="G51" s="22" t="s">
-        <v>3295</v>
+      <c r="F51" s="0"/>
+      <c r="G51" s="0" t="s">
+        <v>3551</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="22" t="s">
-        <v>3228</v>
-      </c>
-      <c r="B52">
+      <c r="A52" s="0" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B52" s="0">
         <v>4</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0">
         <v>4</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0">
         <v>0</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0">
         <v>0</v>
       </c>
-      <c r="G52" s="22" t="s">
-        <v>3296</v>
+      <c r="F52" s="0"/>
+      <c r="G52" s="0" t="s">
+        <v>3552</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="22" t="s">
-        <v>3229</v>
-      </c>
-      <c r="B53">
+      <c r="A53" s="0" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B53" s="0">
         <v>0</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0">
         <v>0</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0">
         <v>0</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0">
         <v>0</v>
       </c>
-      <c r="G53" s="22" t="s">
-        <v>3297</v>
+      <c r="F53" s="0"/>
+      <c r="G53" s="0" t="s">
+        <v>3553</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="22" t="s">
-        <v>3230</v>
-      </c>
-      <c r="B54">
+      <c r="A54" s="0" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B54" s="0">
         <v>0.80000000000000004</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0">
         <v>0.80000000000000004</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0">
         <v>0</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0">
         <v>0</v>
       </c>
-      <c r="G54" s="22" t="s">
-        <v>3298</v>
+      <c r="F54" s="0"/>
+      <c r="G54" s="0" t="s">
+        <v>3554</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="22" t="s">
-        <v>3231</v>
-      </c>
-      <c r="B55">
+      <c r="A55" s="0" t="s">
+        <v>3487</v>
+      </c>
+      <c r="B55" s="0">
         <v>0</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0">
         <v>0</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="0">
         <v>0</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0">
         <v>0</v>
       </c>
-      <c r="G55" s="22" t="s">
-        <v>3299</v>
+      <c r="F55" s="0"/>
+      <c r="G55" s="0" t="s">
+        <v>3555</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="22" t="s">
-        <v>3232</v>
-      </c>
-      <c r="B56">
+      <c r="A56" s="0" t="s">
+        <v>3488</v>
+      </c>
+      <c r="B56" s="0">
         <v>0</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0">
         <v>0</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0">
         <v>0</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0">
         <v>0</v>
       </c>
-      <c r="G56" s="22" t="s">
-        <v>3300</v>
+      <c r="F56" s="0"/>
+      <c r="G56" s="0" t="s">
+        <v>3556</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="22" t="s">
-        <v>3233</v>
-      </c>
-      <c r="B57">
+      <c r="A57" s="0" t="s">
+        <v>3489</v>
+      </c>
+      <c r="B57" s="0">
         <v>0</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0">
         <v>0</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0">
         <v>0</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0">
         <v>0</v>
       </c>
-      <c r="G57" s="22" t="s">
-        <v>3301</v>
+      <c r="F57" s="0"/>
+      <c r="G57" s="0" t="s">
+        <v>3557</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="22" t="s">
-        <v>3234</v>
-      </c>
-      <c r="B58">
+      <c r="A58" s="0" t="s">
+        <v>3490</v>
+      </c>
+      <c r="B58" s="0">
         <v>0</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0">
         <v>0</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0">
         <v>0</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0">
         <v>0</v>
       </c>
-      <c r="G58" s="22" t="s">
-        <v>3302</v>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0" t="s">
+        <v>3558</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="22" t="s">
-        <v>3235</v>
-      </c>
-      <c r="B59">
+      <c r="A59" s="0" t="s">
+        <v>3491</v>
+      </c>
+      <c r="B59" s="0">
         <v>0</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0">
         <v>0</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0">
         <v>0</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="0">
         <v>0</v>
       </c>
-      <c r="G59" s="22" t="s">
-        <v>3303</v>
+      <c r="F59" s="0"/>
+      <c r="G59" s="0" t="s">
+        <v>3559</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="22" t="s">
-        <v>3236</v>
-      </c>
-      <c r="B60">
+      <c r="A60" s="0" t="s">
+        <v>3492</v>
+      </c>
+      <c r="B60" s="0">
         <v>0</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0">
         <v>0</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0">
         <v>1</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="0">
         <v>1</v>
       </c>
-      <c r="F60" s="22" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G60" s="22" t="s">
-        <v>3304</v>
+      <c r="F60" s="0" t="s">
+        <v>3502</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>3560</v>
       </c>
     </row>
   </sheetData>

--- a/simple-spbc/steady.xlsx
+++ b/simple-spbc/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5855" uniqueCount="3561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6006" uniqueCount="3689">
   <si>
     <t>Row</t>
   </si>
@@ -9544,6 +9544,390 @@
   </si>
   <si>
     <t>Level of output</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Level of output</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
   </si>
   <si>
     <t>Row</t>
@@ -10799,30 +11183,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3433</v>
+        <v>3561</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3493</v>
+        <v>3621</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3494</v>
+        <v>3622</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3495</v>
+        <v>3623</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3496</v>
+        <v>3624</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3497</v>
+        <v>3625</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>3503</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3434</v>
+        <v>3562</v>
       </c>
       <c r="B2" s="0">
         <v>3.0199999999999783</v>
@@ -10837,15 +11221,15 @@
         <v>2.1339173496206196e-17</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3498</v>
+        <v>3626</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3504</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3435</v>
+        <v>3563</v>
       </c>
       <c r="B3" s="0">
         <v>3.0199999999999783</v>
@@ -10860,15 +11244,15 @@
         <v>-3.6811134819657997e-17</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>3498</v>
+        <v>3626</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>3505</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3436</v>
+        <v>3564</v>
       </c>
       <c r="B4" s="0">
         <v>2.000000000000024</v>
@@ -10883,15 +11267,15 @@
         <v>-2.4680182612413991e-17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>3498</v>
+        <v>3626</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>3506</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3437</v>
+        <v>3565</v>
       </c>
       <c r="B5" s="0">
         <v>2.4999999999997691</v>
@@ -10906,15 +11290,15 @@
         <v>4.7883746624457054e-17</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>3498</v>
+        <v>3626</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>3507</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3438</v>
+        <v>3566</v>
       </c>
       <c r="B6" s="0">
         <v>4.5499999999998542</v>
@@ -10929,15 +11313,15 @@
         <v>9.905529787058782e-17</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>3498</v>
+        <v>3626</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>3508</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3439</v>
+        <v>3567</v>
       </c>
       <c r="B7" s="0">
         <v>1.5519465293293777</v>
@@ -10952,15 +11336,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>3499</v>
+        <v>3627</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>3509</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3440</v>
+        <v>3568</v>
       </c>
       <c r="B8" s="0">
         <v>1.5519465293293777</v>
@@ -10975,15 +11359,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>3499</v>
+        <v>3627</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>3510</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3441</v>
+        <v>3569</v>
       </c>
       <c r="B9" s="0">
         <v>0.74698177564761825</v>
@@ -10998,15 +11382,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>3499</v>
+        <v>3627</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>3511</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3442</v>
+        <v>3570</v>
       </c>
       <c r="B10" s="0">
         <v>1.731145363608168</v>
@@ -11021,15 +11405,15 @@
         <v>1.0099504938362081</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>3499</v>
+        <v>3627</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>3512</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3443</v>
+        <v>3571</v>
       </c>
       <c r="B11" s="0">
         <v>0.83323362833315928</v>
@@ -11044,15 +11428,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>3499</v>
+        <v>3627</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>3513</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3444</v>
+        <v>3572</v>
       </c>
       <c r="B12" s="0">
         <v>1.5519465293293777</v>
@@ -11067,15 +11451,15 @@
         <v>1.004962931573204</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>3499</v>
+        <v>3627</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>3514</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3445</v>
+        <v>3573</v>
       </c>
       <c r="B13" s="0">
         <v>1</v>
@@ -11090,15 +11474,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>3499</v>
+        <v>3627</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>3515</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3446</v>
+        <v>3574</v>
       </c>
       <c r="B14" s="0">
         <v>1.0061922463256359</v>
@@ -11113,15 +11497,15 @@
         <v>1</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>3499</v>
+        <v>3627</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>3516</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3447</v>
+        <v>3575</v>
       </c>
       <c r="B15" s="0">
         <v>0.99988035399979103</v>
@@ -11136,15 +11520,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>3499</v>
+        <v>3627</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>3517</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3448</v>
+        <v>3576</v>
       </c>
       <c r="B16" s="0">
         <v>1.0074659719585326</v>
@@ -11159,15 +11543,15 @@
         <v>1</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>3499</v>
+        <v>3627</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>3518</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3449</v>
+        <v>3577</v>
       </c>
       <c r="B17" s="0">
         <v>1.0024906793143211</v>
@@ -11182,15 +11566,15 @@
         <v>1</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>3499</v>
+        <v>3627</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>3519</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3450</v>
+        <v>3578</v>
       </c>
       <c r="B18" s="0">
         <v>1.0074659719585326</v>
@@ -11205,15 +11589,15 @@
         <v>1</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>3499</v>
+        <v>3627</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>3520</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3451</v>
+        <v>3579</v>
       </c>
       <c r="B19" s="0">
         <v>1.0074659719585326</v>
@@ -11228,15 +11612,15 @@
         <v>1</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>3499</v>
+        <v>3627</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>3521</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3452</v>
+        <v>3580</v>
       </c>
       <c r="B20" s="0">
         <v>0</v>
@@ -11251,15 +11635,15 @@
         <v>4.1047243257132857e-24</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>3500</v>
+        <v>3628</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>3522</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3453</v>
+        <v>3581</v>
       </c>
       <c r="B21" s="0">
         <v>1.5309903594344068</v>
@@ -11274,15 +11658,15 @@
         <v>1.0099504938362101</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>3501</v>
+        <v>3629</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>3523</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3454</v>
+        <v>3582</v>
       </c>
       <c r="B22" s="0">
         <v>1.0111859095936371</v>
@@ -11297,13 +11681,13 @@
         <v>1</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>3501</v>
+        <v>3629</v>
       </c>
       <c r="G22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3455</v>
+        <v>3583</v>
       </c>
       <c r="B23" s="0">
         <v>0.051725361504486853</v>
@@ -11318,15 +11702,15 @@
         <v>1.0099504938362078</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>3501</v>
+        <v>3629</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>3524</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3456</v>
+        <v>3584</v>
       </c>
       <c r="B24" s="0">
         <v>0.64442919998619796</v>
@@ -11341,15 +11725,15 @@
         <v>0.99014754297667407</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>3501</v>
+        <v>3629</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>3525</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3457</v>
+        <v>3585</v>
       </c>
       <c r="B25" s="0">
         <v>1.0049629315732038</v>
@@ -11364,15 +11748,15 @@
         <v>1</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>3501</v>
+        <v>3629</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>3526</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3458</v>
+        <v>3586</v>
       </c>
       <c r="B26" s="0">
         <v>1.0200000000000002</v>
@@ -11387,15 +11771,15 @@
         <v>1</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>3501</v>
+        <v>3629</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>3527</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3459</v>
+        <v>3587</v>
       </c>
       <c r="B27" s="0">
         <v>1.011185909593638</v>
@@ -11410,15 +11794,15 @@
         <v>1</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>3501</v>
+        <v>3629</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>3528</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3460</v>
+        <v>3588</v>
       </c>
       <c r="B28" s="0">
         <v>0.83333333333333337</v>
@@ -11433,15 +11817,15 @@
         <v>1</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>3501</v>
+        <v>3629</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>3529</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3461</v>
+        <v>3589</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -11457,12 +11841,12 @@
       </c>
       <c r="F29" s="0"/>
       <c r="G29" s="0" t="s">
-        <v>3530</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3462</v>
+        <v>3590</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
@@ -11478,12 +11862,12 @@
       </c>
       <c r="F30" s="0"/>
       <c r="G30" s="0" t="s">
-        <v>3531</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3463</v>
+        <v>3591</v>
       </c>
       <c r="B31" s="0">
         <v>0</v>
@@ -11499,12 +11883,12 @@
       </c>
       <c r="F31" s="0"/>
       <c r="G31" s="0" t="s">
-        <v>3532</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3464</v>
+        <v>3592</v>
       </c>
       <c r="B32" s="0">
         <v>0</v>
@@ -11520,12 +11904,12 @@
       </c>
       <c r="F32" s="0"/>
       <c r="G32" s="0" t="s">
-        <v>3533</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3465</v>
+        <v>3593</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
@@ -11541,12 +11925,12 @@
       </c>
       <c r="F33" s="0"/>
       <c r="G33" s="0" t="s">
-        <v>3534</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>3466</v>
+        <v>3594</v>
       </c>
       <c r="B34" s="0">
         <v>0</v>
@@ -11562,12 +11946,12 @@
       </c>
       <c r="F34" s="0"/>
       <c r="G34" s="0" t="s">
-        <v>3535</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>3467</v>
+        <v>3595</v>
       </c>
       <c r="B35" s="0">
         <v>0</v>
@@ -11583,12 +11967,12 @@
       </c>
       <c r="F35" s="0"/>
       <c r="G35" s="0" t="s">
-        <v>3536</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>3468</v>
+        <v>3596</v>
       </c>
       <c r="B36" s="0">
         <v>0</v>
@@ -11604,12 +11988,12 @@
       </c>
       <c r="F36" s="0"/>
       <c r="G36" s="0" t="s">
-        <v>3537</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>3469</v>
+        <v>3597</v>
       </c>
       <c r="B37" s="0">
         <v>1.0061922463256359</v>
@@ -11625,12 +12009,12 @@
       </c>
       <c r="F37" s="0"/>
       <c r="G37" s="0" t="s">
-        <v>3538</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>3470</v>
+        <v>3598</v>
       </c>
       <c r="B38" s="0">
         <v>0.99622871975463567</v>
@@ -11646,12 +12030,12 @@
       </c>
       <c r="F38" s="0"/>
       <c r="G38" s="0" t="s">
-        <v>3539</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>3471</v>
+        <v>3599</v>
       </c>
       <c r="B39" s="0">
         <v>-0.0074361935641006766</v>
@@ -11667,12 +12051,12 @@
       </c>
       <c r="F39" s="0"/>
       <c r="G39" s="0" t="s">
-        <v>3540</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>3472</v>
+        <v>3600</v>
       </c>
       <c r="B40" s="0">
         <v>0.80000000000000004</v>
@@ -11691,7 +12075,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>3473</v>
+        <v>3601</v>
       </c>
       <c r="B41" s="0">
         <v>0.59999999999999998</v>
@@ -11707,12 +12091,12 @@
       </c>
       <c r="F41" s="0"/>
       <c r="G41" s="0" t="s">
-        <v>3541</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>3474</v>
+        <v>3602</v>
       </c>
       <c r="B42" s="0">
         <v>0.029999999999999999</v>
@@ -11728,12 +12112,12 @@
       </c>
       <c r="F42" s="0"/>
       <c r="G42" s="0" t="s">
-        <v>3542</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>3475</v>
+        <v>3603</v>
       </c>
       <c r="B43" s="0">
         <v>10</v>
@@ -11749,12 +12133,12 @@
       </c>
       <c r="F43" s="0"/>
       <c r="G43" s="0" t="s">
-        <v>3543</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>3476</v>
+        <v>3604</v>
       </c>
       <c r="B44" s="0">
         <v>1.0049629315732038</v>
@@ -11770,12 +12154,12 @@
       </c>
       <c r="F44" s="0"/>
       <c r="G44" s="0" t="s">
-        <v>3544</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>3477</v>
+        <v>3605</v>
       </c>
       <c r="B45" s="0">
         <v>6</v>
@@ -11791,12 +12175,12 @@
       </c>
       <c r="F45" s="0"/>
       <c r="G45" s="0" t="s">
-        <v>3545</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>3478</v>
+        <v>3606</v>
       </c>
       <c r="B46" s="0">
         <v>0.25</v>
@@ -11812,12 +12196,12 @@
       </c>
       <c r="F46" s="0"/>
       <c r="G46" s="0" t="s">
-        <v>3546</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>3479</v>
+        <v>3607</v>
       </c>
       <c r="B47" s="0">
         <v>0.84999999999999998</v>
@@ -11833,12 +12217,12 @@
       </c>
       <c r="F47" s="0"/>
       <c r="G47" s="0" t="s">
-        <v>3547</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>3480</v>
+        <v>3608</v>
       </c>
       <c r="B48" s="0">
         <v>60</v>
@@ -11854,12 +12238,12 @@
       </c>
       <c r="F48" s="0"/>
       <c r="G48" s="0" t="s">
-        <v>3548</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>3481</v>
+        <v>3609</v>
       </c>
       <c r="B49" s="0">
         <v>300</v>
@@ -11875,12 +12259,12 @@
       </c>
       <c r="F49" s="0"/>
       <c r="G49" s="0" t="s">
-        <v>3549</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>3482</v>
+        <v>3610</v>
       </c>
       <c r="B50" s="0">
         <v>0.90000000000000002</v>
@@ -11896,12 +12280,12 @@
       </c>
       <c r="F50" s="0"/>
       <c r="G50" s="0" t="s">
-        <v>3550</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>3483</v>
+        <v>3611</v>
       </c>
       <c r="B51" s="0">
         <v>0.84999999999999998</v>
@@ -11917,12 +12301,12 @@
       </c>
       <c r="F51" s="0"/>
       <c r="G51" s="0" t="s">
-        <v>3551</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>3484</v>
+        <v>3612</v>
       </c>
       <c r="B52" s="0">
         <v>4</v>
@@ -11938,12 +12322,12 @@
       </c>
       <c r="F52" s="0"/>
       <c r="G52" s="0" t="s">
-        <v>3552</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>3485</v>
+        <v>3613</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -11959,12 +12343,12 @@
       </c>
       <c r="F53" s="0"/>
       <c r="G53" s="0" t="s">
-        <v>3553</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>3486</v>
+        <v>3614</v>
       </c>
       <c r="B54" s="0">
         <v>0.80000000000000004</v>
@@ -11980,12 +12364,12 @@
       </c>
       <c r="F54" s="0"/>
       <c r="G54" s="0" t="s">
-        <v>3554</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>3487</v>
+        <v>3615</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
@@ -12001,12 +12385,12 @@
       </c>
       <c r="F55" s="0"/>
       <c r="G55" s="0" t="s">
-        <v>3555</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>3488</v>
+        <v>3616</v>
       </c>
       <c r="B56" s="0">
         <v>0</v>
@@ -12022,12 +12406,12 @@
       </c>
       <c r="F56" s="0"/>
       <c r="G56" s="0" t="s">
-        <v>3556</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>3489</v>
+        <v>3617</v>
       </c>
       <c r="B57" s="0">
         <v>0</v>
@@ -12043,12 +12427,12 @@
       </c>
       <c r="F57" s="0"/>
       <c r="G57" s="0" t="s">
-        <v>3557</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>3490</v>
+        <v>3618</v>
       </c>
       <c r="B58" s="0">
         <v>0</v>
@@ -12064,12 +12448,12 @@
       </c>
       <c r="F58" s="0"/>
       <c r="G58" s="0" t="s">
-        <v>3558</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>3491</v>
+        <v>3619</v>
       </c>
       <c r="B59" s="0">
         <v>0</v>
@@ -12085,12 +12469,12 @@
       </c>
       <c r="F59" s="0"/>
       <c r="G59" s="0" t="s">
-        <v>3559</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>3492</v>
+        <v>3620</v>
       </c>
       <c r="B60" s="0">
         <v>0</v>
@@ -12105,10 +12489,10 @@
         <v>1</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>3502</v>
+        <v>3630</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>3560</v>
+        <v>3688</v>
       </c>
     </row>
   </sheetData>

--- a/simple-spbc/steady.xlsx
+++ b/simple-spbc/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6006" uniqueCount="3689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6459" uniqueCount="4073">
   <si>
     <t>Row</t>
   </si>
@@ -9544,6 +9544,1158 @@
   </si>
   <si>
     <t>Level of output</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Level of output</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Level of output</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Level of output</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
   </si>
   <si>
     <t>Row</t>
@@ -11183,30 +12335,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3561</v>
+        <v>3945</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3621</v>
+        <v>4005</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3622</v>
+        <v>4006</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3623</v>
+        <v>4007</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3624</v>
+        <v>4008</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3625</v>
+        <v>4009</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>3631</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3562</v>
+        <v>3946</v>
       </c>
       <c r="B2" s="0">
         <v>3.0199999999999783</v>
@@ -11221,15 +12373,15 @@
         <v>2.1339173496206196e-17</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3626</v>
+        <v>4010</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3632</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3563</v>
+        <v>3947</v>
       </c>
       <c r="B3" s="0">
         <v>3.0199999999999783</v>
@@ -11244,15 +12396,15 @@
         <v>-3.6811134819657997e-17</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>3626</v>
+        <v>4010</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>3633</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3564</v>
+        <v>3948</v>
       </c>
       <c r="B4" s="0">
         <v>2.000000000000024</v>
@@ -11267,15 +12419,15 @@
         <v>-2.4680182612413991e-17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>3626</v>
+        <v>4010</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>3634</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3565</v>
+        <v>3949</v>
       </c>
       <c r="B5" s="0">
         <v>2.4999999999997691</v>
@@ -11290,15 +12442,15 @@
         <v>4.7883746624457054e-17</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>3626</v>
+        <v>4010</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>3635</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3566</v>
+        <v>3950</v>
       </c>
       <c r="B6" s="0">
         <v>4.5499999999998542</v>
@@ -11313,15 +12465,15 @@
         <v>9.905529787058782e-17</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>3626</v>
+        <v>4010</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>3636</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3567</v>
+        <v>3951</v>
       </c>
       <c r="B7" s="0">
         <v>1.5519465293293777</v>
@@ -11336,15 +12488,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>3627</v>
+        <v>4011</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>3637</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3568</v>
+        <v>3952</v>
       </c>
       <c r="B8" s="0">
         <v>1.5519465293293777</v>
@@ -11359,15 +12511,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>3627</v>
+        <v>4011</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>3638</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3569</v>
+        <v>3953</v>
       </c>
       <c r="B9" s="0">
         <v>0.74698177564761825</v>
@@ -11382,15 +12534,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>3627</v>
+        <v>4011</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>3639</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3570</v>
+        <v>3954</v>
       </c>
       <c r="B10" s="0">
         <v>1.731145363608168</v>
@@ -11405,15 +12557,15 @@
         <v>1.0099504938362081</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>3627</v>
+        <v>4011</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>3640</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3571</v>
+        <v>3955</v>
       </c>
       <c r="B11" s="0">
         <v>0.83323362833315928</v>
@@ -11428,15 +12580,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>3627</v>
+        <v>4011</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>3641</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3572</v>
+        <v>3956</v>
       </c>
       <c r="B12" s="0">
         <v>1.5519465293293777</v>
@@ -11451,15 +12603,15 @@
         <v>1.004962931573204</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>3627</v>
+        <v>4011</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>3642</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3573</v>
+        <v>3957</v>
       </c>
       <c r="B13" s="0">
         <v>1</v>
@@ -11474,15 +12626,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>3627</v>
+        <v>4011</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>3643</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3574</v>
+        <v>3958</v>
       </c>
       <c r="B14" s="0">
         <v>1.0061922463256359</v>
@@ -11497,15 +12649,15 @@
         <v>1</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>3627</v>
+        <v>4011</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>3644</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3575</v>
+        <v>3959</v>
       </c>
       <c r="B15" s="0">
         <v>0.99988035399979103</v>
@@ -11520,15 +12672,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>3627</v>
+        <v>4011</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>3645</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3576</v>
+        <v>3960</v>
       </c>
       <c r="B16" s="0">
         <v>1.0074659719585326</v>
@@ -11543,15 +12695,15 @@
         <v>1</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>3627</v>
+        <v>4011</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>3646</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3577</v>
+        <v>3961</v>
       </c>
       <c r="B17" s="0">
         <v>1.0024906793143211</v>
@@ -11566,15 +12718,15 @@
         <v>1</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>3627</v>
+        <v>4011</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>3647</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3578</v>
+        <v>3962</v>
       </c>
       <c r="B18" s="0">
         <v>1.0074659719585326</v>
@@ -11589,15 +12741,15 @@
         <v>1</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>3627</v>
+        <v>4011</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>3648</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3579</v>
+        <v>3963</v>
       </c>
       <c r="B19" s="0">
         <v>1.0074659719585326</v>
@@ -11612,15 +12764,15 @@
         <v>1</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>3627</v>
+        <v>4011</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>3649</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3580</v>
+        <v>3964</v>
       </c>
       <c r="B20" s="0">
         <v>0</v>
@@ -11635,15 +12787,15 @@
         <v>4.1047243257132857e-24</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>3628</v>
+        <v>4012</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>3650</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3581</v>
+        <v>3965</v>
       </c>
       <c r="B21" s="0">
         <v>1.5309903594344068</v>
@@ -11658,15 +12810,15 @@
         <v>1.0099504938362101</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>3629</v>
+        <v>4013</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>3651</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3582</v>
+        <v>3966</v>
       </c>
       <c r="B22" s="0">
         <v>1.0111859095936371</v>
@@ -11681,13 +12833,13 @@
         <v>1</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>3629</v>
+        <v>4013</v>
       </c>
       <c r="G22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3583</v>
+        <v>3967</v>
       </c>
       <c r="B23" s="0">
         <v>0.051725361504486853</v>
@@ -11702,15 +12854,15 @@
         <v>1.0099504938362078</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>3629</v>
+        <v>4013</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>3652</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3584</v>
+        <v>3968</v>
       </c>
       <c r="B24" s="0">
         <v>0.64442919998619796</v>
@@ -11725,15 +12877,15 @@
         <v>0.99014754297667407</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>3629</v>
+        <v>4013</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>3653</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3585</v>
+        <v>3969</v>
       </c>
       <c r="B25" s="0">
         <v>1.0049629315732038</v>
@@ -11748,15 +12900,15 @@
         <v>1</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>3629</v>
+        <v>4013</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>3654</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3586</v>
+        <v>3970</v>
       </c>
       <c r="B26" s="0">
         <v>1.0200000000000002</v>
@@ -11771,15 +12923,15 @@
         <v>1</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>3629</v>
+        <v>4013</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>3655</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3587</v>
+        <v>3971</v>
       </c>
       <c r="B27" s="0">
         <v>1.011185909593638</v>
@@ -11794,15 +12946,15 @@
         <v>1</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>3629</v>
+        <v>4013</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>3656</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3588</v>
+        <v>3972</v>
       </c>
       <c r="B28" s="0">
         <v>0.83333333333333337</v>
@@ -11817,15 +12969,15 @@
         <v>1</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>3629</v>
+        <v>4013</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>3657</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3589</v>
+        <v>3973</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -11841,12 +12993,12 @@
       </c>
       <c r="F29" s="0"/>
       <c r="G29" s="0" t="s">
-        <v>3658</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3590</v>
+        <v>3974</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
@@ -11862,12 +13014,12 @@
       </c>
       <c r="F30" s="0"/>
       <c r="G30" s="0" t="s">
-        <v>3659</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3591</v>
+        <v>3975</v>
       </c>
       <c r="B31" s="0">
         <v>0</v>
@@ -11883,12 +13035,12 @@
       </c>
       <c r="F31" s="0"/>
       <c r="G31" s="0" t="s">
-        <v>3660</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3592</v>
+        <v>3976</v>
       </c>
       <c r="B32" s="0">
         <v>0</v>
@@ -11904,12 +13056,12 @@
       </c>
       <c r="F32" s="0"/>
       <c r="G32" s="0" t="s">
-        <v>3661</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3593</v>
+        <v>3977</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
@@ -11925,12 +13077,12 @@
       </c>
       <c r="F33" s="0"/>
       <c r="G33" s="0" t="s">
-        <v>3662</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>3594</v>
+        <v>3978</v>
       </c>
       <c r="B34" s="0">
         <v>0</v>
@@ -11946,12 +13098,12 @@
       </c>
       <c r="F34" s="0"/>
       <c r="G34" s="0" t="s">
-        <v>3663</v>
+        <v>4047</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>3595</v>
+        <v>3979</v>
       </c>
       <c r="B35" s="0">
         <v>0</v>
@@ -11967,12 +13119,12 @@
       </c>
       <c r="F35" s="0"/>
       <c r="G35" s="0" t="s">
-        <v>3664</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>3596</v>
+        <v>3980</v>
       </c>
       <c r="B36" s="0">
         <v>0</v>
@@ -11988,12 +13140,12 @@
       </c>
       <c r="F36" s="0"/>
       <c r="G36" s="0" t="s">
-        <v>3665</v>
+        <v>4049</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>3597</v>
+        <v>3981</v>
       </c>
       <c r="B37" s="0">
         <v>1.0061922463256359</v>
@@ -12009,12 +13161,12 @@
       </c>
       <c r="F37" s="0"/>
       <c r="G37" s="0" t="s">
-        <v>3666</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>3598</v>
+        <v>3982</v>
       </c>
       <c r="B38" s="0">
         <v>0.99622871975463567</v>
@@ -12030,12 +13182,12 @@
       </c>
       <c r="F38" s="0"/>
       <c r="G38" s="0" t="s">
-        <v>3667</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>3599</v>
+        <v>3983</v>
       </c>
       <c r="B39" s="0">
         <v>-0.0074361935641006766</v>
@@ -12051,12 +13203,12 @@
       </c>
       <c r="F39" s="0"/>
       <c r="G39" s="0" t="s">
-        <v>3668</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>3600</v>
+        <v>3984</v>
       </c>
       <c r="B40" s="0">
         <v>0.80000000000000004</v>
@@ -12075,7 +13227,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>3601</v>
+        <v>3985</v>
       </c>
       <c r="B41" s="0">
         <v>0.59999999999999998</v>
@@ -12091,12 +13243,12 @@
       </c>
       <c r="F41" s="0"/>
       <c r="G41" s="0" t="s">
-        <v>3669</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>3602</v>
+        <v>3986</v>
       </c>
       <c r="B42" s="0">
         <v>0.029999999999999999</v>
@@ -12112,12 +13264,12 @@
       </c>
       <c r="F42" s="0"/>
       <c r="G42" s="0" t="s">
-        <v>3670</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>3603</v>
+        <v>3987</v>
       </c>
       <c r="B43" s="0">
         <v>10</v>
@@ -12133,12 +13285,12 @@
       </c>
       <c r="F43" s="0"/>
       <c r="G43" s="0" t="s">
-        <v>3671</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>3604</v>
+        <v>3988</v>
       </c>
       <c r="B44" s="0">
         <v>1.0049629315732038</v>
@@ -12154,12 +13306,12 @@
       </c>
       <c r="F44" s="0"/>
       <c r="G44" s="0" t="s">
-        <v>3672</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>3605</v>
+        <v>3989</v>
       </c>
       <c r="B45" s="0">
         <v>6</v>
@@ -12175,12 +13327,12 @@
       </c>
       <c r="F45" s="0"/>
       <c r="G45" s="0" t="s">
-        <v>3673</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>3606</v>
+        <v>3990</v>
       </c>
       <c r="B46" s="0">
         <v>0.25</v>
@@ -12196,12 +13348,12 @@
       </c>
       <c r="F46" s="0"/>
       <c r="G46" s="0" t="s">
-        <v>3674</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>3607</v>
+        <v>3991</v>
       </c>
       <c r="B47" s="0">
         <v>0.84999999999999998</v>
@@ -12217,12 +13369,12 @@
       </c>
       <c r="F47" s="0"/>
       <c r="G47" s="0" t="s">
-        <v>3675</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>3608</v>
+        <v>3992</v>
       </c>
       <c r="B48" s="0">
         <v>60</v>
@@ -12238,12 +13390,12 @@
       </c>
       <c r="F48" s="0"/>
       <c r="G48" s="0" t="s">
-        <v>3676</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>3609</v>
+        <v>3993</v>
       </c>
       <c r="B49" s="0">
         <v>300</v>
@@ -12259,12 +13411,12 @@
       </c>
       <c r="F49" s="0"/>
       <c r="G49" s="0" t="s">
-        <v>3677</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>3610</v>
+        <v>3994</v>
       </c>
       <c r="B50" s="0">
         <v>0.90000000000000002</v>
@@ -12280,12 +13432,12 @@
       </c>
       <c r="F50" s="0"/>
       <c r="G50" s="0" t="s">
-        <v>3678</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>3611</v>
+        <v>3995</v>
       </c>
       <c r="B51" s="0">
         <v>0.84999999999999998</v>
@@ -12301,12 +13453,12 @@
       </c>
       <c r="F51" s="0"/>
       <c r="G51" s="0" t="s">
-        <v>3679</v>
+        <v>4063</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>3612</v>
+        <v>3996</v>
       </c>
       <c r="B52" s="0">
         <v>4</v>
@@ -12322,12 +13474,12 @@
       </c>
       <c r="F52" s="0"/>
       <c r="G52" s="0" t="s">
-        <v>3680</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>3613</v>
+        <v>3997</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -12343,12 +13495,12 @@
       </c>
       <c r="F53" s="0"/>
       <c r="G53" s="0" t="s">
-        <v>3681</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>3614</v>
+        <v>3998</v>
       </c>
       <c r="B54" s="0">
         <v>0.80000000000000004</v>
@@ -12364,12 +13516,12 @@
       </c>
       <c r="F54" s="0"/>
       <c r="G54" s="0" t="s">
-        <v>3682</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>3615</v>
+        <v>3999</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
@@ -12385,12 +13537,12 @@
       </c>
       <c r="F55" s="0"/>
       <c r="G55" s="0" t="s">
-        <v>3683</v>
+        <v>4067</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>3616</v>
+        <v>4000</v>
       </c>
       <c r="B56" s="0">
         <v>0</v>
@@ -12406,12 +13558,12 @@
       </c>
       <c r="F56" s="0"/>
       <c r="G56" s="0" t="s">
-        <v>3684</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>3617</v>
+        <v>4001</v>
       </c>
       <c r="B57" s="0">
         <v>0</v>
@@ -12427,12 +13579,12 @@
       </c>
       <c r="F57" s="0"/>
       <c r="G57" s="0" t="s">
-        <v>3685</v>
+        <v>4069</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>3618</v>
+        <v>4002</v>
       </c>
       <c r="B58" s="0">
         <v>0</v>
@@ -12448,12 +13600,12 @@
       </c>
       <c r="F58" s="0"/>
       <c r="G58" s="0" t="s">
-        <v>3686</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>3619</v>
+        <v>4003</v>
       </c>
       <c r="B59" s="0">
         <v>0</v>
@@ -12469,12 +13621,12 @@
       </c>
       <c r="F59" s="0"/>
       <c r="G59" s="0" t="s">
-        <v>3687</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>3620</v>
+        <v>4004</v>
       </c>
       <c r="B60" s="0">
         <v>0</v>
@@ -12489,10 +13641,10 @@
         <v>1</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>3630</v>
+        <v>4014</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>3688</v>
+        <v>4072</v>
       </c>
     </row>
   </sheetData>
